--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -575,7 +575,7 @@
         <v>46013.56689814815</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44263</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44841.45446759259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45980.60565972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>46013.56317129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>45751.44270833334</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>45978.65591435185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45623</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44495</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45978.64929398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45989.66488425926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44439</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1816,14 +1816,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51036-2022</t>
+          <t>A 54598-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44868.3161574074</v>
+        <v>45965.77918981481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1836,16 +1836,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1870,290 +1870,290 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Drillsnäppa
+Vanlig snok</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 51036-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44868.3161574074</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Blåmossa
 Vårärt</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 51036-2022 artfynd.xlsx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 51036-2022 karta.png", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 51036-2022 FSC-klagomål.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 51036-2022 FSC-klagomål mail.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 51036-2022 tillsynsbegäran.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 51036-2022 tillsynsbegäran mail.docx", "A 51036-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 63535-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>46013.57747685185</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>1.9</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Kryddtofsskivling
 Blåsippa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 63535-2025 artfynd.xlsx", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 63535-2025 karta.png", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 63535-2025 FSC-klagomål.docx", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 63535-2025 FSC-klagomål mail.docx", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 63535-2025 tillsynsbegäran.docx", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 63535-2025 tillsynsbegäran mail.docx", "A 63535-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 63537-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>46013.58233796297</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Ask
 Skogshakmossa</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 63537-2025 artfynd.xlsx", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 63537-2025 karta.png", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 63537-2025 FSC-klagomål.docx", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 63537-2025 FSC-klagomål mail.docx", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 63537-2025 tillsynsbegäran.docx", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 63537-2025 tillsynsbegäran mail.docx", "A 63537-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 54598-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45965.77918981481</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Drillsnäppa
-Vanlig snok</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
         <v/>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
         <v>44339.70040509259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44347</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,14 +2330,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 16063-2023</t>
+          <t>A 16554-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45027</v>
+        <v>45408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,17 +2349,22 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>7.3</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2374,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2384,45 +2389,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Violettkantad guldvinge</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16554-2024 artfynd.xlsx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16554-2024 karta.png", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16554-2024 FSC-klagomål.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16554-2024 FSC-klagomål mail.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16554-2024 tillsynsbegäran.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16554-2024 tillsynsbegäran mail.docx", "A 16554-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 14306-2025</t>
+          <t>A 16642-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45740.70622685185</v>
+        <v>45408.61318287037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,8 +2439,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2444,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2459,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2469,49 +2479,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16642-2024 artfynd.xlsx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16642-2024 karta.png", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16642-2024 FSC-klagomål.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16642-2024 FSC-klagomål mail.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16642-2024 tillsynsbegäran.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16642-2024 tillsynsbegäran mail.docx", "A 16642-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 7148-2021</t>
+          <t>A 1520-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44238</v>
+        <v>45670</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,19 +2530,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>5.9</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2551,52 +2557,52 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Väddnätfjäril</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 7148-2021 artfynd.xlsx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 7148-2021 karta.png", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 7148-2021 FSC-klagomål.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 7148-2021 FSC-klagomål mail.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 7148-2021 tillsynsbegäran.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 7148-2021 tillsynsbegäran mail.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 42036-2025</t>
+          <t>A 15327-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45903.61173611111</v>
+        <v>45400.68243055556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,7 +2615,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2643,45 +2649,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 43148-2025</t>
+          <t>A 14312-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45910.32248842593</v>
+        <v>45740.71707175926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,17 +2700,17 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2728,45 +2734,49 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Purpurknipprot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 16554-2024</t>
+          <t>A 26658-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45408</v>
+        <v>45810.39315972223</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2794,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2818,45 +2828,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16554-2024 artfynd.xlsx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16554-2024 karta.png", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16554-2024 FSC-klagomål.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16554-2024 FSC-klagomål mail.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16554-2024 tillsynsbegäran.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16554-2024 tillsynsbegäran mail.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 56959-2025</t>
+          <t>A 26659-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45978.6584375</v>
+        <v>45810.39408564815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2870,11 +2880,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2883,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2898,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2908,49 +2918,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56959-2025 artfynd.xlsx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56959-2025 karta.png", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56959-2025 FSC-klagomål.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56959-2025 FSC-klagomål mail.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56959-2025 tillsynsbegäran.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56959-2025 tillsynsbegäran mail.docx", "A 56959-2025")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56959-2025 prioriterade fågelarter.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 16642-2024</t>
+          <t>A 42036-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45408.61318287037</v>
+        <v>45903.61173611111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2962,23 +2968,18 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3002,45 +3003,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16642-2024 artfynd.xlsx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16642-2024 karta.png", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16642-2024 FSC-klagomål.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16642-2024 FSC-klagomål mail.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16642-2024 tillsynsbegäran.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16642-2024 tillsynsbegäran mail.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 55261-2025</t>
+          <t>A 43148-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45968.64734953704</v>
+        <v>45910.32248842593</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3052,22 +3053,17 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>11.4</v>
+        <v>5.5</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -3082,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3092,45 +3088,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Purpurknipprot</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 1520-2025</t>
+          <t>A 32498-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45670</v>
+        <v>45838.4570949074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3142,17 +3138,22 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3167,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3177,45 +3178,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 52639-2023</t>
+          <t>A 7148-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45219</v>
+        <v>44238</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3227,13 +3228,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>7.3</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3242,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3260,56 +3256,52 @@
         <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Grönsångare</t>
+          <t>Väddnätfjäril</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 7148-2021 artfynd.xlsx", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 7148-2021 karta.png", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 7148-2021 FSC-klagomål.docx", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 7148-2021 FSC-klagomål mail.docx", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 7148-2021 tillsynsbegäran.docx", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
-        <v/>
-      </c>
-      <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 7148-2021 tillsynsbegäran mail.docx", "A 7148-2021")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14312-2025</t>
+          <t>A 34826-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45740.71707175926</v>
+        <v>45849.38326388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3321,8 +3313,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3331,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3346,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3356,49 +3353,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
-        <v/>
-      </c>
-      <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 20659-2025</t>
+          <t>A 33136-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45776.41106481481</v>
+        <v>45840</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3410,18 +3403,23 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>11.1</v>
+        <v>4.2</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3435,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3445,45 +3443,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 15327-2024</t>
+          <t>A 55261-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45400.68243055556</v>
+        <v>45968.64734953704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3495,8 +3493,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>11.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3530,45 +3533,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 26658-2025</t>
+          <t>A 56959-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45810.39315972223</v>
+        <v>45978.6584375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3582,11 +3585,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3595,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3610,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3620,45 +3623,49 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56959-2025 artfynd.xlsx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56959-2025 karta.png", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56959-2025 FSC-klagomål.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56959-2025 FSC-klagomål mail.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56959-2025 tillsynsbegäran.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56959-2025 tillsynsbegäran mail.docx", "A 56959-2025")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56959-2025 prioriterade fågelarter.docx", "A 56959-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26659-2025</t>
+          <t>A 52639-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45810.39408564815</v>
+        <v>45219</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3672,11 +3679,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3685,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3700,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3710,45 +3717,49 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Grönsångare</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 32498-2025</t>
+          <t>A 16063-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45838.4570949074</v>
+        <v>45027</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3760,23 +3771,18 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3800,45 +3806,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Violettkantad guldvinge</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 34826-2025</t>
+          <t>A 14306-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45849.38326388889</v>
+        <v>45740.70622685185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,13 +3856,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3865,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3880,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3890,45 +3891,49 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
+        <v/>
+      </c>
+      <c r="Z38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 33136-2025</t>
+          <t>A 20659-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45840</v>
+        <v>45776.41106481481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3940,22 +3945,17 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>11.1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -3980,31 +3980,31 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
         <v>44876.5034375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44523</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44862.43092592592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44799.59944444444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44818.95434027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44560</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44530</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44761</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44802.44491898148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44448</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44865.4325462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44431.34829861111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44491</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4921,14 +4921,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37265-2022</t>
+          <t>A 37259-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44807.46988425926</v>
+        <v>44807.45756944444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4983,14 +4983,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37259-2022</t>
+          <t>A 37265-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44807.45756944444</v>
+        <v>44807.46988425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>44865.6330787037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>44687.4733912037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44292</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>44284</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44791.63450231482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44838.57731481481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44714</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>44862.43146990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44862.43199074074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44428.61717592592</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44841</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>44799</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44799.73486111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>44491</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44449</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44740.53197916667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>44530</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44807.47078703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>44386.37886574074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44448</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44529.56203703704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6436,14 +6436,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 49135-2021</t>
+          <t>A 5039-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44453</v>
+        <v>44593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6493,14 +6493,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 5039-2022</t>
+          <t>A 26314-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44593</v>
+        <v>44735.59861111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6512,8 +6512,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6550,14 +6555,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26314-2022</t>
+          <t>A 49135-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44735.59861111111</v>
+        <v>44453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6569,13 +6574,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>44354.37946759259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6669,14 +6669,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 49498-2024</t>
+          <t>A 21695-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45596.3672337963</v>
+        <v>44707.88415509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6686,11 +6686,6 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>NORA</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -6731,14 +6726,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 21695-2022</t>
+          <t>A 20565-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44707.88415509259</v>
+        <v>45775.66307870371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6750,8 +6745,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6788,14 +6788,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 22389-2023</t>
+          <t>A 62592-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45070</v>
+        <v>44503</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>7.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6845,14 +6845,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49632-2022</t>
+          <t>A 12815-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44862.43023148148</v>
+        <v>45384.66650462963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6864,13 +6864,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6907,14 +6902,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 35330-2021</t>
+          <t>A 4910-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44384.81996527778</v>
+        <v>44958.38488425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6927,7 +6922,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6964,14 +6959,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 34026-2022</t>
+          <t>A 34164-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44791.32811342592</v>
+        <v>44791.58640046296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6983,8 +6978,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7021,14 +7021,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41696-2023</t>
+          <t>A 45216-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45176</v>
+        <v>45191</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7078,14 +7078,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 37550-2025</t>
+          <t>A 26023-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45879.91046296297</v>
+        <v>45091.2925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7097,8 +7097,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7135,14 +7140,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 42049-2023</t>
+          <t>A 61952-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45177</v>
+        <v>45266.56415509259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7154,13 +7159,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7197,14 +7197,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 26320-2022</t>
+          <t>A 16085-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44735.60184027778</v>
+        <v>45406.37230324074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7216,13 +7216,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7259,14 +7254,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 26916-2022</t>
+          <t>A 53938-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44740</v>
+        <v>45231</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7278,13 +7273,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7321,14 +7311,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46544-2021</t>
+          <t>A 13563-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44445</v>
+        <v>45388.99935185185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7341,7 +7331,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7378,14 +7368,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 40126-2021</t>
+          <t>A 24389-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44418</v>
+        <v>45457.63585648148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7398,7 +7388,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7435,14 +7425,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35608-2021</t>
+          <t>A 52879-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44386.38070601852</v>
+        <v>45226.47349537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7454,13 +7444,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7497,14 +7482,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 16085-2024</t>
+          <t>A 55766-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45406.37230324074</v>
+        <v>45623.37702546296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7517,7 +7502,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>18.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7554,14 +7539,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 63825-2023</t>
+          <t>A 9457-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45278</v>
+        <v>45714</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7573,13 +7558,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7616,14 +7596,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 26278-2021</t>
+          <t>A 38179-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44347</v>
+        <v>45161.45337962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7635,13 +7615,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7678,14 +7653,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 39513-2025</t>
+          <t>A 35675-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45890.41581018519</v>
+        <v>45147</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7697,13 +7672,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>9.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7740,14 +7710,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43254-2022</t>
+          <t>A 39257-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44834</v>
+        <v>45166.48097222222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7760,7 +7730,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7797,14 +7767,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 46198-2023</t>
+          <t>A 35608-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45196</v>
+        <v>44386.38070601852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7816,8 +7786,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>8.800000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7854,14 +7829,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 39837-2025</t>
+          <t>A 43535-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45891.56561342593</v>
+        <v>45184</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7874,7 +7849,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7911,14 +7886,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 13585-2024</t>
+          <t>A 59607-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45389.85309027778</v>
+        <v>45638.74914351852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7931,7 +7906,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7968,14 +7943,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 16109-2024</t>
+          <t>A 34759-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45406.46753472222</v>
+        <v>45526</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7987,8 +7962,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8025,14 +8005,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 40710-2021</t>
+          <t>A 49632-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44420</v>
+        <v>44862.43023148148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8044,8 +8024,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8082,14 +8067,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40082-2025</t>
+          <t>A 60301-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45894.46731481481</v>
+        <v>45258</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8102,7 +8087,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8139,14 +8124,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26021-2023</t>
+          <t>A 5562-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45091.29033564815</v>
+        <v>45693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8158,13 +8143,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8201,14 +8181,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 29018-2023</t>
+          <t>A 5590-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45104</v>
+        <v>45693</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8221,7 +8201,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8258,14 +8238,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60301-2023</t>
+          <t>A 26021-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45258</v>
+        <v>45091.29033564815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8277,8 +8257,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8315,14 +8300,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 53472-2022</t>
+          <t>A 41669-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44879</v>
+        <v>44425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8335,7 +8320,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8372,14 +8357,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 38177-2023</t>
+          <t>A 24820-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45161.44978009259</v>
+        <v>45461.3465625</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8392,7 +8377,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8429,14 +8414,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 16540-2024</t>
+          <t>A 39707-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45408.4334837963</v>
+        <v>44818.95277777778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8448,8 +8433,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8486,14 +8476,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 53365-2023</t>
+          <t>A 52303-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45229.66844907407</v>
+        <v>45608.75231481482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8505,13 +8495,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8548,14 +8533,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 56871-2021</t>
+          <t>A 24821-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44481.78949074074</v>
+        <v>45461.34765046297</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8568,7 +8553,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.6</v>
+        <v>12.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8605,14 +8590,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 24828-2024</t>
+          <t>A 24833-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45461.3750462963</v>
+        <v>45461.39246527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8625,7 +8610,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8662,14 +8647,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 64026-2025</t>
+          <t>A 26916-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46021.47569444445</v>
+        <v>44740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8681,8 +8666,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8719,14 +8709,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41588-2025</t>
+          <t>A 23277-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45901.63114583334</v>
+        <v>45453.40982638889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8739,7 +8729,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8776,14 +8766,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 42056-2025</t>
+          <t>A 26657-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45903.64190972222</v>
+        <v>45810.39180555556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8795,8 +8785,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8833,14 +8828,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 42050-2025</t>
+          <t>A 26320-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45903.63047453704</v>
+        <v>44735.60184027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8854,11 +8849,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8895,14 +8890,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 12815-2024</t>
+          <t>A 41696-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45384.66650462963</v>
+        <v>45176</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8915,7 +8910,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8952,14 +8947,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 41939-2025</t>
+          <t>A 16109-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45903.44396990741</v>
+        <v>45406.46753472222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8971,13 +8966,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>8.699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9014,14 +9004,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 58521-2025</t>
+          <t>A 39513-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45985</v>
+        <v>45890.41581018519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9033,8 +9023,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>4.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9071,14 +9066,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 42049-2025</t>
+          <t>A 39837-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45903.63034722222</v>
+        <v>45891.56561342593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9091,7 +9086,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9128,14 +9123,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 4910-2023</t>
+          <t>A 12183-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44958.38488425926</v>
+        <v>45729.46353009259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9148,7 +9143,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9185,14 +9180,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27577-2024</t>
+          <t>A 27844-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45474.65008101852</v>
+        <v>45817.39009259259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9204,13 +9199,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>19</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9247,14 +9237,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43206-2025</t>
+          <t>A 46410-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45910.44984953704</v>
+        <v>44444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9267,7 +9257,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9304,14 +9294,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 38798-2021</t>
+          <t>A 40082-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44410</v>
+        <v>45894.46731481481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9324,7 +9314,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9361,14 +9351,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 24389-2024</t>
+          <t>A 27878-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45457.63585648148</v>
+        <v>45817.443125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9381,7 +9371,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9418,14 +9408,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 1766-2026</t>
+          <t>A 41588-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46034.6880787037</v>
+        <v>45901.63114583334</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9438,7 +9428,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9475,14 +9465,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 64089-2023</t>
+          <t>A 56871-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45279</v>
+        <v>44481.78949074074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9494,13 +9484,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9537,14 +9522,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60152-2025</t>
+          <t>A 57316-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45994</v>
+        <v>44896.32079861111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,8 +9541,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>9.4</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9594,14 +9584,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 60166-2025</t>
+          <t>A 43843-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45994</v>
+        <v>45187</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9613,8 +9603,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9651,14 +9646,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 60169-2025</t>
+          <t>A 43919-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45994</v>
+        <v>45182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9671,7 +9666,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9708,14 +9703,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 10882-2024</t>
+          <t>A 42056-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45370</v>
+        <v>45903.64190972222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9727,13 +9722,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9770,14 +9760,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 70200-2021</t>
+          <t>A 42050-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44534.82171296296</v>
+        <v>45903.63047453704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9789,8 +9779,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9827,14 +9822,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 59637-2021</t>
+          <t>A 41939-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44493</v>
+        <v>45903.44396990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9846,8 +9841,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9884,14 +9884,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 15012-2023</t>
+          <t>A 42049-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45015</v>
+        <v>45903.63034722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9941,14 +9941,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 56136-2022</t>
+          <t>A 64090-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44889</v>
+        <v>45279.43923611111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9960,8 +9960,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9998,14 +10003,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 60548-2025</t>
+          <t>A 43206-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45995.71252314815</v>
+        <v>45910.44984953704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10018,7 +10023,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10055,14 +10060,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 60873-2025</t>
+          <t>A 5049-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45999.55505787037</v>
+        <v>44593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10075,7 +10080,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10112,14 +10117,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 60843-2025</t>
+          <t>A 59056-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45999.48747685185</v>
+        <v>45636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10132,7 +10137,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10169,14 +10174,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 60892-2025</t>
+          <t>A 25723-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45999.57278935185</v>
+        <v>45090.3674537037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10189,7 +10194,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>9.1</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10226,14 +10231,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 8295-2024</t>
+          <t>A 9295-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45352.43674768518</v>
+        <v>45714</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10246,7 +10251,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10283,14 +10288,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 41676-2021</t>
+          <t>A 4723-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44425.50175925926</v>
+        <v>44957.51490740741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10303,7 +10308,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10340,14 +10345,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 47030-2025</t>
+          <t>A 53129-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45929.58944444444</v>
+        <v>45229</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10360,7 +10365,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10397,14 +10402,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 39707-2022</t>
+          <t>A 46688-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44818.95277777778</v>
+        <v>45198.51881944444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10416,13 +10421,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10459,14 +10459,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 3686-2026</t>
+          <t>A 12646-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46043.44011574074</v>
+        <v>45384.34563657407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10516,14 +10516,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 48229-2025</t>
+          <t>A 8589-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45933.51694444445</v>
+        <v>44613.55984953704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10535,8 +10535,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10573,14 +10578,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 16557-2024</t>
+          <t>A 47030-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45408.45260416667</v>
+        <v>45929.58944444444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10592,13 +10597,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10635,14 +10635,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48775-2025</t>
+          <t>A 24822-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45937.00422453704</v>
+        <v>45461.34818287037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10692,14 +10692,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 53938-2023</t>
+          <t>A 5674-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45231</v>
+        <v>44960.66104166667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10709,6 +10709,11 @@
       <c r="E153" t="inlineStr">
         <is>
           <t>NORA</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -10749,14 +10754,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 5217-2022</t>
+          <t>A 46544-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44593</v>
+        <v>44445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10768,13 +10773,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>38.4</v>
+        <v>0.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10811,14 +10811,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 29669-2025</t>
+          <t>A 32501-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45825</v>
+        <v>45838.46260416666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10830,8 +10830,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10868,14 +10873,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 49675-2025</t>
+          <t>A 48229-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45939</v>
+        <v>45933.51694444445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10888,7 +10893,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10925,14 +10930,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 49671-2025</t>
+          <t>A 45159-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45939</v>
+        <v>45191.49001157407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10945,7 +10950,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10982,14 +10987,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49676-2025</t>
+          <t>A 48775-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45939</v>
+        <v>45937.00422453704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11002,7 +11007,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11039,14 +11044,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 4723-2023</t>
+          <t>A 58829-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44957.51490740741</v>
+        <v>45252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11059,7 +11064,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11096,14 +11101,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 35144-2023</t>
+          <t>A 3309-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45145</v>
+        <v>45317</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11116,7 +11121,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11153,14 +11158,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 51002-2025</t>
+          <t>A 46198-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45947.36173611111</v>
+        <v>45196</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11173,7 +11178,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11210,14 +11215,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 34755-2024</t>
+          <t>A 36064-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45526</v>
+        <v>45149</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11229,13 +11234,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11272,14 +11272,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 5049-2022</t>
+          <t>A 11864-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44593</v>
+        <v>45728.41668981482</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11329,14 +11329,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 51245-2025</t>
+          <t>A 29669-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45947.80872685185</v>
+        <v>45825</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11386,14 +11386,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 51246-2025</t>
+          <t>A 43254-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45947.81226851852</v>
+        <v>44834</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11443,14 +11443,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 12907-2025</t>
+          <t>A 16529-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45733.8203587963</v>
+        <v>45408.42216435185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11462,8 +11462,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11500,14 +11505,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 10079-2024</t>
+          <t>A 34835-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45364.42604166667</v>
+        <v>45849.38855324074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11525,7 +11530,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11562,14 +11567,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 52380-2025</t>
+          <t>A 49671-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45953.94951388889</v>
+        <v>45939</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11581,13 +11586,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11624,14 +11624,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 48707-2022</t>
+          <t>A 49676-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44859</v>
+        <v>45939</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>7.2</v>
+        <v>3.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11681,14 +11681,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 45159-2023</t>
+          <t>A 34824-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45191.49001157407</v>
+        <v>45849.38061342593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11700,8 +11700,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11738,14 +11743,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 52879-2023</t>
+          <t>A 34827-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45226.47349537037</v>
+        <v>45849.38547453703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11757,8 +11762,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11795,14 +11805,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 45216-2023</t>
+          <t>A 51002-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45191</v>
+        <v>45947.36173611111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11815,7 +11825,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11852,14 +11862,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 53600-2025</t>
+          <t>A 49675-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45960</v>
+        <v>45939</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11871,13 +11881,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>9.300000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11914,14 +11919,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 17140-2022</t>
+          <t>A 34825-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44677.53418981482</v>
+        <v>45849.38262731482</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11933,8 +11938,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11971,14 +11981,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 2261-2026</t>
+          <t>A 14477-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46036</v>
+        <v>45741.58723379629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11990,8 +12000,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12028,14 +12043,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 3309-2024</t>
+          <t>A 14482-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45317</v>
+        <v>45741.59662037037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12047,8 +12062,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12085,14 +12105,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 9295-2025</t>
+          <t>A 56904-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45714</v>
+        <v>45628.58696759259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12105,7 +12125,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>8.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12142,14 +12162,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 54595-2025</t>
+          <t>A 51245-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45965.7556712963</v>
+        <v>45947.80872685185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12199,14 +12219,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 24820-2024</t>
+          <t>A 51246-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45461.3465625</v>
+        <v>45947.81226851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12219,7 +12239,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12256,14 +12276,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 57639-2023</t>
+          <t>A 21449-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45246</v>
+        <v>44321.46297453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12281,7 +12301,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12318,14 +12338,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 55035-2025</t>
+          <t>A 36089-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45967.64612268518</v>
+        <v>45866</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12338,7 +12358,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12375,14 +12395,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 56565-2025</t>
+          <t>A 52380-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45974</v>
+        <v>45953.94951388889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12394,8 +12414,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12432,14 +12457,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 12699-2023</t>
+          <t>A 12907-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45000</v>
+        <v>45733.8203587963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12451,13 +12476,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12494,14 +12514,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 55869-2025</t>
+          <t>A 49498-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45973.35285879629</v>
+        <v>45596.3672337963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12513,8 +12533,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12551,14 +12576,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 21449-2021</t>
+          <t>A 64089-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44321.46297453704</v>
+        <v>45279</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12576,7 +12601,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12613,14 +12638,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 24391-2024</t>
+          <t>A 45229-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45457.63850694444</v>
+        <v>45191</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12633,7 +12658,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12670,14 +12695,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 24392-2024</t>
+          <t>A 53600-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45457.64085648148</v>
+        <v>45960</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12689,8 +12714,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12727,14 +12757,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 14315-2025</t>
+          <t>A 10079-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45740.72116898148</v>
+        <v>45364.42604166667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12746,8 +12776,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12784,14 +12819,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 45234-2023</t>
+          <t>A 37550-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45191.59268518518</v>
+        <v>45879.91046296297</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12804,7 +12839,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12841,14 +12876,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 34206-2022</t>
+          <t>A 49959-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44791.65267361111</v>
+        <v>45215.38530092593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12860,13 +12895,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12903,14 +12933,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 17716-2025</t>
+          <t>A 54595-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45758.44623842592</v>
+        <v>45965.7556712963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12923,7 +12953,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12960,14 +12990,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 12646-2024</t>
+          <t>A 55035-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45384.34563657407</v>
+        <v>45967.64612268518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12980,7 +13010,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>8.699999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13017,14 +13047,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 43535-2023</t>
+          <t>A 57639-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45184</v>
+        <v>45246</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13036,8 +13066,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13074,14 +13109,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 35659-2023</t>
+          <t>A 16957-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45147</v>
+        <v>45755.44732638889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13094,7 +13129,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13131,14 +13166,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 52505-2023</t>
+          <t>A 42049-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45225</v>
+        <v>45177</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13150,8 +13185,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13188,14 +13228,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 73009-2021</t>
+          <t>A 55869-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44550.33282407407</v>
+        <v>45973.35285879629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13207,13 +13247,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13250,14 +13285,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 40339-2024</t>
+          <t>A 56565-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45555.33125</v>
+        <v>45974</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13270,7 +13305,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13307,14 +13342,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 26022-2023</t>
+          <t>A 29112-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45091.29174768519</v>
+        <v>45105.39409722222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13326,13 +13361,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13369,14 +13399,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 43843-2023</t>
+          <t>A 48610-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45187</v>
+        <v>45208</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13388,13 +13418,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13431,14 +13456,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 38179-2023</t>
+          <t>A 34206-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45161.45337962963</v>
+        <v>44791.65267361111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13450,8 +13475,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13488,14 +13518,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 14025-2021</t>
+          <t>A 64026-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44277.65498842593</v>
+        <v>46021.47569444445</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13538,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>7.7</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13545,14 +13575,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 45645-2022</t>
+          <t>A 38177-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44845.65557870371</v>
+        <v>45161.44978009259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13595,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13602,14 +13632,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 348-2025</t>
+          <t>A 12699-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45660</v>
+        <v>45000</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13621,8 +13651,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13659,14 +13694,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 37849-2023</t>
+          <t>A 14025-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45158</v>
+        <v>44277.65498842593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13679,7 +13714,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.7</v>
+        <v>7.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13716,14 +13751,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 40497-2024</t>
+          <t>A 14315-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45555.57101851852</v>
+        <v>45740.72116898148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13736,7 +13771,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13773,14 +13808,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 12183-2025</t>
+          <t>A 58521-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45729.46353009259</v>
+        <v>45985</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13793,7 +13828,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13830,14 +13865,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 55766-2024</t>
+          <t>A 16540-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45623.37702546296</v>
+        <v>45408.4334837963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13850,7 +13885,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>18.5</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13887,14 +13922,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 49959-2023</t>
+          <t>A 40710-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45215.38530092593</v>
+        <v>44420</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13907,7 +13942,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13944,14 +13979,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 36064-2023</t>
+          <t>A 2413-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45149</v>
+        <v>45310</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13964,7 +13999,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14001,14 +14036,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 46688-2023</t>
+          <t>A 45645-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45198.51881944444</v>
+        <v>44845.65557870371</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14021,7 +14056,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14058,14 +14093,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 9457-2025</t>
+          <t>A 40497-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45714</v>
+        <v>45555.57101851852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14078,7 +14113,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14115,14 +14150,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 34759-2024</t>
+          <t>A 34722-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
         <v>45526</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14175,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14177,14 +14212,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 17770-2022</t>
+          <t>A 27767-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44682.64953703704</v>
+        <v>45098.41659722223</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14232,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14234,14 +14269,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16529-2024</t>
+          <t>A 1766-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45408.42216435185</v>
+        <v>46034.6880787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14253,13 +14288,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14296,14 +14326,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 39257-2023</t>
+          <t>A 13585-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45166.48097222222</v>
+        <v>45389.85309027778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14316,7 +14346,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14353,14 +14383,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 24818-2024</t>
+          <t>A 60152-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45461.33123842593</v>
+        <v>45994</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14373,7 +14403,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14410,14 +14440,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 11864-2025</t>
+          <t>A 60169-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45728.41668981482</v>
+        <v>45994</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14430,7 +14460,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14467,14 +14497,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 11888-2025</t>
+          <t>A 60166-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45728.45688657407</v>
+        <v>45994</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14487,7 +14517,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14524,14 +14554,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 62217-2023</t>
+          <t>A 60548-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45267.51355324074</v>
+        <v>45995.71252314815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14574,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14581,14 +14611,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 20565-2025</t>
+          <t>A 4977-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45775.66307870371</v>
+        <v>44958.46266203704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14600,13 +14630,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14643,14 +14668,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 53129-2023</t>
+          <t>A 63825-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45229</v>
+        <v>45278</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14662,8 +14687,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14700,14 +14730,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 62592-2021</t>
+          <t>A 24818-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44503</v>
+        <v>45461.33123842593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14720,7 +14750,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14757,14 +14787,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 16957-2025</t>
+          <t>A 60892-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45755.44732638889</v>
+        <v>45999.57278935185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14777,7 +14807,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.4</v>
+        <v>9.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14814,14 +14844,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 34722-2024</t>
+          <t>A 1521-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45526</v>
+        <v>45670</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14833,13 +14863,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14876,14 +14901,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 26023-2023</t>
+          <t>A 60873-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45091.2925</v>
+        <v>45999.55505787037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14895,13 +14920,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14938,14 +14958,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 57316-2022</t>
+          <t>A 60843-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44896.32079861111</v>
+        <v>45999.48747685185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14957,13 +14977,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15000,14 +15015,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 48610-2023</t>
+          <t>A 3686-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45208</v>
+        <v>46043.44011574074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15020,7 +15035,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15057,14 +15072,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 24832-2024</t>
+          <t>A 53472-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45461.38202546296</v>
+        <v>44879</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15077,7 +15092,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15114,14 +15129,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 7579-2024</t>
+          <t>A 52379-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45348</v>
+        <v>45224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15134,7 +15149,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15171,14 +15186,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 41669-2021</t>
+          <t>A 17352-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44425</v>
+        <v>45414.5908912037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15191,7 +15206,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15228,14 +15243,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 34164-2022</t>
+          <t>A 16537-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44791.58640046296</v>
+        <v>45408.43247685185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15249,11 +15264,11 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15290,14 +15305,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 16537-2024</t>
+          <t>A 16557-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45408.43247685185</v>
+        <v>45408.45260416667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15311,11 +15326,11 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15352,14 +15367,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 8589-2022</t>
+          <t>A 17770-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44613.55984953704</v>
+        <v>44682.64953703704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15371,13 +15386,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15414,14 +15424,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 52379-2023</t>
+          <t>A 48707-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45224</v>
+        <v>44859</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15434,7 +15444,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.9</v>
+        <v>7.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15471,14 +15481,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 5674-2023</t>
+          <t>A 56136-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44960.66104166667</v>
+        <v>44889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15490,13 +15500,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>2.2</v>
+        <v>5.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15533,14 +15538,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 35675-2023</t>
+          <t>A 7579-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45147</v>
+        <v>45348</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15553,7 +15558,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15590,14 +15595,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 31957-2024</t>
+          <t>A 27577-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45510.49798611111</v>
+        <v>45474.65008101852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15609,8 +15614,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>0.6</v>
+        <v>19</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15647,14 +15657,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 1521-2025</t>
+          <t>A 26022-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45670</v>
+        <v>45091.29174768519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15666,8 +15676,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15704,14 +15719,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 24821-2024</t>
+          <t>A 15012-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45461.34765046297</v>
+        <v>45015</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15724,7 +15739,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>12.2</v>
+        <v>0.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15761,14 +15776,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 24833-2024</t>
+          <t>A 45234-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45461.39246527778</v>
+        <v>45191.59268518518</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15781,7 +15796,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15818,14 +15833,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 61952-2023</t>
+          <t>A 2261-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45266.56415509259</v>
+        <v>46036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15838,7 +15853,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15875,14 +15890,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 17352-2024</t>
+          <t>A 60397-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45414.5908912037</v>
+        <v>44910.90956018519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15895,7 +15910,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15932,14 +15947,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 59607-2024</t>
+          <t>A 17716-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45638.74914351852</v>
+        <v>45758.44623842592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15952,7 +15967,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15989,14 +16004,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 4977-2023</t>
+          <t>A 40339-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44958.46266203704</v>
+        <v>45555.33125</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16009,7 +16024,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16046,14 +16061,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 33887-2024</t>
+          <t>A 26278-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45523.3167824074</v>
+        <v>44347</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,6 +16078,11 @@
       <c r="E245" t="inlineStr">
         <is>
           <t>NORA</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G245" t="n">
@@ -16103,14 +16123,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 46410-2021</t>
+          <t>A 31957-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44444</v>
+        <v>45510.49798611111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16123,7 +16143,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16160,14 +16180,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 29112-2023</t>
+          <t>A 9754-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45105.39409722222</v>
+        <v>44618.81180555555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16180,7 +16200,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16217,14 +16237,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 24822-2024</t>
+          <t>A 33887-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45461.34818287037</v>
+        <v>45523.3167824074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16257,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16274,14 +16294,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 43919-2023</t>
+          <t>A 35659-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45182</v>
+        <v>45147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16314,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16331,14 +16351,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 45229-2023</t>
+          <t>A 17140-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45191</v>
+        <v>44677.53418981482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16371,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16388,14 +16408,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 60397-2022</t>
+          <t>A 35330-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44910.90956018519</v>
+        <v>44384.81996527778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16428,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16445,14 +16465,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 11631-2022</t>
+          <t>A 40126-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44631</v>
+        <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16464,13 +16484,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16507,14 +16522,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 8936-2025</t>
+          <t>A 18134-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45714</v>
+        <v>44302</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16527,7 +16542,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.6</v>
+        <v>16.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16564,14 +16579,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 27767-2023</t>
+          <t>A 34026-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45098.41659722223</v>
+        <v>44791.32811342592</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16584,7 +16599,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16621,14 +16636,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 13563-2024</t>
+          <t>A 24828-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45388.99935185185</v>
+        <v>45461.3750462963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16641,7 +16656,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16678,14 +16693,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 64090-2023</t>
+          <t>A 52505-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45279.43923611111</v>
+        <v>45225</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16697,13 +16712,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16740,14 +16750,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 58829-2023</t>
+          <t>A 29018-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45252</v>
+        <v>45104</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16760,7 +16770,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.1</v>
+        <v>6.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16797,14 +16807,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 25723-2023</t>
+          <t>A 62217-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45090.3674537037</v>
+        <v>45267.51355324074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16817,7 +16827,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16854,14 +16864,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 59056-2024</t>
+          <t>A 34755-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45636</v>
+        <v>45526</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16873,8 +16883,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16911,14 +16926,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 18134-2021</t>
+          <t>A 59637-2021</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44302</v>
+        <v>44493</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16931,7 +16946,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>16.8</v>
+        <v>1.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16968,14 +16983,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 9754-2022</t>
+          <t>A 10882-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44618.81180555555</v>
+        <v>45370</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16987,8 +17002,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17025,14 +17045,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 35656-2024</t>
+          <t>A 8295-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45532</v>
+        <v>45352.43674768518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17045,7 +17065,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17082,14 +17102,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 2413-2024</t>
+          <t>A 24832-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45310</v>
+        <v>45461.38202546296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17102,7 +17122,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17139,14 +17159,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 21846-2025</t>
+          <t>A 70200-2021</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45784.33967592593</v>
+        <v>44534.82171296296</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17159,7 +17179,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>14.6</v>
+        <v>0.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17196,14 +17216,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 16281-2024</t>
+          <t>A 22389-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45407.36091435186</v>
+        <v>45070</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17236,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17253,14 +17273,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 1566-2025</t>
+          <t>A 35656-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45670</v>
+        <v>45532</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17273,7 +17293,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17310,14 +17330,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 54604-2024</t>
+          <t>A 11631-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45617.683125</v>
+        <v>44631</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17329,8 +17349,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17367,14 +17392,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 17344-2024</t>
+          <t>A 5217-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45414.58052083333</v>
+        <v>44593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17386,8 +17411,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>1.1</v>
+        <v>38.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17424,14 +17454,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 5562-2025</t>
+          <t>A 37849-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45693</v>
+        <v>45158</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17444,7 +17474,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17481,14 +17511,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 5590-2025</t>
+          <t>A 24391-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45693</v>
+        <v>45457.63850694444</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17501,7 +17531,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17538,14 +17568,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 26657-2025</t>
+          <t>A 24392-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45810.39180555556</v>
+        <v>45457.64085648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17557,13 +17587,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17600,14 +17625,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 52303-2024</t>
+          <t>A 41676-2021</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45608.75231481482</v>
+        <v>44425.50175925926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17645,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17657,14 +17682,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 23277-2024</t>
+          <t>A 35144-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45453.40982638889</v>
+        <v>45145</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17702,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17714,14 +17739,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 27878-2025</t>
+          <t>A 348-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45817.443125</v>
+        <v>45660</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17759,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.9</v>
+        <v>7.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17771,14 +17796,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 27844-2025</t>
+          <t>A 73009-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45817.39009259259</v>
+        <v>44550.33282407407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17790,8 +17815,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17828,14 +17858,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 32501-2025</t>
+          <t>A 38798-2021</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45838.46260416666</v>
+        <v>44410</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17847,13 +17877,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17890,14 +17915,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 56904-2024</t>
+          <t>A 8936-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45628.58696759259</v>
+        <v>45714</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17910,7 +17935,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>8.9</v>
+        <v>1.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17947,14 +17972,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 34835-2025</t>
+          <t>A 53365-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45849.38855324074</v>
+        <v>45229.66844907407</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17972,7 +17997,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -18009,14 +18034,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 34825-2025</t>
+          <t>A 11888-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45849.38262731482</v>
+        <v>45728.45688657407</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18028,13 +18053,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G279" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18071,14 +18091,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 14477-2025</t>
+          <t>A 21846-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45741.58723379629</v>
+        <v>45784.33967592593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18090,13 +18110,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G280" t="n">
-        <v>1.1</v>
+        <v>14.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -18133,14 +18148,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 34824-2025</t>
+          <t>A 16281-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45849.38061342593</v>
+        <v>45407.36091435186</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18152,13 +18167,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G281" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18195,14 +18205,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 34827-2025</t>
+          <t>A 1566-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45849.38547453703</v>
+        <v>45670</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18214,13 +18224,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G282" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -18257,14 +18262,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 14482-2025</t>
+          <t>A 54604-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45741.59662037037</v>
+        <v>45617.683125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18276,13 +18281,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -18319,14 +18319,14 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 36089-2025</t>
+          <t>A 17344-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45866</v>
+        <v>45414.58052083333</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -575,7 +575,7 @@
         <v>46013.56689814815</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44263</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44841.45446759259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45980.60565972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>46013.56317129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>45751.44270833334</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>45978.65591435185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45623</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44495</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45978.64929398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45989.66488425926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44439</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45965.77918981481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44868.3161574074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>46013.57747685185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>46013.58233796297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44339.70040509259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44347</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>45408.61318287037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>45670</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45400.68243055556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45740.71707175926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>45810.39315972223</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>45810.39408564815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45903.61173611111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45910.32248842593</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45838.4570949074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44238</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45849.38326388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45840</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45968.64734953704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>45978.6584375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45219</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45027</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>45740.70622685185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45776.41106481481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44876.5034375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44523</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44862.43092592592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44799.59944444444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44818.95434027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44560</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44530</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44761</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44802.44491898148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44448</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44865.4325462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44431.34829861111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44491</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44807.45756944444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>44807.46988425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>44865.6330787037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>44687.4733912037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44292</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>44284</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44791.63450231482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44838.57731481481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44714</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>44862.43146990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44862.43199074074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44428.61717592592</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44841</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>44799</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44799.73486111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>44491</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44449</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44740.53197916667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>44530</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44807.47078703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>44386.37886574074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44448</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44529.56203703704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>44593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>44735.59861111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>44453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>44354.37946759259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>44707.88415509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>45775.66307870371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>44503</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>45384.66650462963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>44958.38488425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44791.58640046296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45191</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45091.2925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>45266.56415509259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>45406.37230324074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>45231</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>45388.99935185185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>45457.63585648148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>45226.47349537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>45623.37702546296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>45714</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>45161.45337962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>45147</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>45166.48097222222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>44386.38070601852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45184</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45638.74914351852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45526</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>44862.43023148148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>45258</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>45693</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>45091.29033564815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>44425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>45461.3465625</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>44818.95277777778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>45608.75231481482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>45461.34765046297</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>45461.39246527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>45453.40982638889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>45810.39180555556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44735.60184027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45176</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45406.46753472222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45890.41581018519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>45891.56561342593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45729.46353009259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45817.39009259259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45894.46731481481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45817.443125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45901.63114583334</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44481.78949074074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44896.32079861111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45187</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>45182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>45903.64190972222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>45903.63047453704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>45903.44396990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45903.63034722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45279.43923611111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45910.44984953704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>45636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>45090.3674537037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>45714</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>44957.51490740741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>45229</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>45198.51881944444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>45384.34563657407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44613.55984953704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>45929.58944444444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>45461.34818287037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44960.66104166667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>44445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45838.46260416666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45933.51694444445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45191.49001157407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45937.00422453704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>45252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>45317</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45196</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45149</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45728.41668981482</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>45825</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44834</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45408.42216435185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>45849.38855324074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45939</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45939</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45849.38061342593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>45849.38547453703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45947.36173611111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>45939</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>45849.38262731482</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45741.58723379629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>45741.59662037037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>45628.58696759259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>45947.80872685185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>45947.81226851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44321.46297453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45866</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>45953.94951388889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45733.8203587963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45596.3672337963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>45279</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>45191</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>45960</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>45364.42604166667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>45879.91046296297</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>45215.38530092593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>45965.7556712963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>45967.64612268518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>45246</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>45755.44732638889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>45177</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>45973.35285879629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>45974</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>45105.39409722222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>45208</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44791.65267361111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>46021.47569444445</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>45161.44978009259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>45000</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44277.65498842593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45740.72116898148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45985</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45408.4334837963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44420</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45310</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44845.65557870371</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>45555.57101851852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>45526</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>45098.41659722223</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>46034.6880787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>45389.85309027778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>45994</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>45994</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>45994</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>45995.71252314815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44958.46266203704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>45278</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>45461.33123842593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>45999.57278935185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>45670</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>45999.55505787037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45999.48747685185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>46043.44011574074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44879</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>45224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>45414.5908912037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>45408.43247685185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>45408.45260416667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>44682.64953703704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>44859</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>44889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45348</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45474.65008101852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>45091.29174768519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45015</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>45191.59268518518</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>46036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44910.90956018519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>45758.44623842592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45555.33125</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44347</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>45510.49798611111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44618.81180555555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>45523.3167824074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>45147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44677.53418981482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44384.81996527778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44302</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44791.32811342592</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>45461.3750462963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>45225</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>45104</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>45267.51355324074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>45526</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44493</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45370</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>45352.43674768518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>45461.38202546296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44534.82171296296</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>45070</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>45532</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44631</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>45158</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>45457.63850694444</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45457.64085648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44425.50175925926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45145</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45660</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44550.33282407407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>44410</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>45714</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>45229.66844907407</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>45728.45688657407</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>45784.33967592593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>45407.36091435186</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>45670</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>45617.683125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>45414.58052083333</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -575,7 +575,7 @@
         <v>46013.56689814815</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44263</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44841.45446759259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45980.60565972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>46013.56317129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>45751.44270833334</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>45978.65591435185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45623</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44495</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45978.64929398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45989.66488425926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44439</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45965.77918981481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44868.3161574074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>46013.57747685185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>46013.58233796297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44339.70040509259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44347</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>45408.61318287037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>45670</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45400.68243055556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45740.71707175926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>45810.39315972223</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>45810.39408564815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45903.61173611111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45910.32248842593</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45838.4570949074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>44238</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45849.38326388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45840</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45968.64734953704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>45978.6584375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45219</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45027</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>45740.70622685185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45776.41106481481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44876.5034375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44523</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44862.43092592592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44799.59944444444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44818.95434027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44560</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44530</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44761</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44802.44491898148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44448</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44865.4325462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44431.34829861111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44491</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44807.45756944444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>44807.46988425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>44865.6330787037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>44687.4733912037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44292</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>44284</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44791.63450231482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44838.57731481481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44714</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>44862.43146990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44862.43199074074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44428.61717592592</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44841</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>44799</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44799.73486111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>44491</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44449</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44740.53197916667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>44530</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44807.47078703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>44386.37886574074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44448</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44529.56203703704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>44593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>44735.59861111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>44453</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>44354.37946759259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>44707.88415509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>45775.66307870371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>44503</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>45384.66650462963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>44958.38488425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44791.58640046296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45191</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45091.2925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>45266.56415509259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>45406.37230324074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>45231</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>45388.99935185185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>45457.63585648148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>45226.47349537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>45623.37702546296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>45714</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>45161.45337962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>45147</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>45166.48097222222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>44386.38070601852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45184</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45638.74914351852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45526</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>44862.43023148148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>45258</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>45693</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>45091.29033564815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>44425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>45461.3465625</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>44818.95277777778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>45608.75231481482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>45461.34765046297</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>45461.39246527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>45453.40982638889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>45810.39180555556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44735.60184027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45176</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45406.46753472222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45890.41581018519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>45891.56561342593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45729.46353009259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45817.39009259259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45894.46731481481</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45817.443125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45901.63114583334</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44481.78949074074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44896.32079861111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45187</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>45182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>45903.64190972222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>45903.63047453704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>45903.44396990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45903.63034722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45279.43923611111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45910.44984953704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>45636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>45090.3674537037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>45714</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>44957.51490740741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>45229</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>45198.51881944444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>45384.34563657407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44613.55984953704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>45929.58944444444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>45461.34818287037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>44960.66104166667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>44445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45838.46260416666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45933.51694444445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45191.49001157407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45937.00422453704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>45252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>45317</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45196</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45149</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45728.41668981482</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>45825</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44834</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45408.42216435185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>45849.38855324074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45939</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45939</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45849.38061342593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>45849.38547453703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45947.36173611111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>45939</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>45849.38262731482</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45741.58723379629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>45741.59662037037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>45628.58696759259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>45947.80872685185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>45947.81226851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44321.46297453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45866</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>45953.94951388889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45733.8203587963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45596.3672337963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>45279</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>45191</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>45960</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>45364.42604166667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>45879.91046296297</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>45215.38530092593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>45965.7556712963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>45967.64612268518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>45246</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>45755.44732638889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>45177</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>45973.35285879629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>45974</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>45105.39409722222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>45208</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44791.65267361111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>46021.47569444445</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>45161.44978009259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>45000</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44277.65498842593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>45740.72116898148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>45985</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>45408.4334837963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>44420</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>45310</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44845.65557870371</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>45555.57101851852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>45526</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>45098.41659722223</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>46034.6880787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>45389.85309027778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>45994</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>45994</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>45994</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>45995.71252314815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44958.46266203704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>45278</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>45461.33123842593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>45999.57278935185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>45670</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>45999.55505787037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45999.48747685185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>46043.44011574074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44879</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>45224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>45414.5908912037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>45408.43247685185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>45408.45260416667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>44682.64953703704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>44859</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>44889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45348</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45474.65008101852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>45091.29174768519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45015</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>45191.59268518518</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>46036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44910.90956018519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>45758.44623842592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45555.33125</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44347</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>45510.49798611111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>44618.81180555555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>45523.3167824074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>45147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44677.53418981482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44384.81996527778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44302</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44791.32811342592</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>45461.3750462963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>45225</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>45104</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>45267.51355324074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>45526</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>44493</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45370</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>45352.43674768518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>45461.38202546296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44534.82171296296</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>45070</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>45532</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>44631</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>45158</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>45457.63850694444</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45457.64085648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44425.50175925926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45145</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45660</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44550.33282407407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>44410</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>45714</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>45229.66844907407</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>45728.45688657407</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>45784.33967592593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>45407.36091435186</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>45670</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>45617.683125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>45414.58052083333</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -575,7 +575,7 @@
         <v>46013.56689814815</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44263</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44841.45446759259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45980.60565972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>46013.56317129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>45751.44270833334</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,14 +1245,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 56956-2025</t>
+          <t>A 55852-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45978.65591435185</v>
+        <v>45623</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,26 +1266,26 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>22.2</v>
+        <v>7.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1294,15 +1294,110 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Storspov
+Stare
+Tofsvipa
+Fiskmås
+Skrattmås
+Tibast</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55852-2024 artfynd.xlsx", "A 55852-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55852-2024 karta.png", "A 55852-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55852-2024 FSC-klagomål.docx", "A 55852-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55852-2024 FSC-klagomål mail.docx", "A 55852-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55852-2024 tillsynsbegäran.docx", "A 55852-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55852-2024 tillsynsbegäran mail.docx", "A 55852-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 56956-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45978.65591435185</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tretåig hackspett
@@ -1312,127 +1407,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56956-2025 artfynd.xlsx", "A 56956-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56956-2025 karta.png", "A 56956-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56956-2025 FSC-klagomål.docx", "A 56956-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56956-2025 FSC-klagomål mail.docx", "A 56956-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56956-2025 tillsynsbegäran.docx", "A 56956-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56956-2025 tillsynsbegäran mail.docx", "A 56956-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56956-2025 prioriterade fågelarter.docx", "A 56956-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 55852-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45623</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>5</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Storspov
-Stare
-Tofsvipa
-Fiskmås
-Skrattmås
-Tibast</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55852-2024 artfynd.xlsx", "A 55852-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55852-2024 karta.png", "A 55852-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55852-2024 FSC-klagomål.docx", "A 55852-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55852-2024 FSC-klagomål mail.docx", "A 55852-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55852-2024 tillsynsbegäran.docx", "A 55852-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55852-2024 tillsynsbegäran mail.docx", "A 55852-2024")</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>44495</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45978.64929398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45989.66488425926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44439</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1816,14 +1816,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 54598-2025</t>
+          <t>A 51036-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45965.77918981481</v>
+        <v>44868.3161574074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1836,16 +1836,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1870,118 +1870,118 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Blåmossa
+Vårärt</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 51036-2022 artfynd.xlsx", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 51036-2022 karta.png", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 51036-2022 FSC-klagomål.docx", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 51036-2022 FSC-klagomål mail.docx", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 51036-2022 tillsynsbegäran.docx", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 51036-2022 tillsynsbegäran mail.docx", "A 51036-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 54598-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45965.77918981481</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Drillsnäppa
 Vanlig snok</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 51036-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44868.3161574074</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Vårärt</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 51036-2022 artfynd.xlsx", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 51036-2022 karta.png", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 51036-2022 FSC-klagomål.docx", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 51036-2022 FSC-klagomål mail.docx", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 51036-2022 tillsynsbegäran.docx", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 51036-2022 tillsynsbegäran mail.docx", "A 51036-2022")</f>
         <v/>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
         <v>46013.57747685185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>46013.58233796297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44339.70040509259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44347</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,14 +2330,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 16554-2024</t>
+          <t>A 14306-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45408</v>
+        <v>45740.70622685185</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,13 +2349,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2364,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2379,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2389,45 +2384,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16554-2024 artfynd.xlsx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16554-2024 karta.png", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16554-2024 FSC-klagomål.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16554-2024 FSC-klagomål mail.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16554-2024 tillsynsbegäran.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16554-2024 tillsynsbegäran mail.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 16642-2024</t>
+          <t>A 7148-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45408.61318287037</v>
+        <v>44238</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,13 +2438,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2457,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2469,55 +2463,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Väddnätfjäril</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16642-2024 artfynd.xlsx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 7148-2021 artfynd.xlsx", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16642-2024 karta.png", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 7148-2021 karta.png", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16642-2024 FSC-klagomål.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 7148-2021 FSC-klagomål.docx", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16642-2024 FSC-klagomål mail.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 7148-2021 FSC-klagomål mail.docx", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16642-2024 tillsynsbegäran.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 7148-2021 tillsynsbegäran.docx", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16642-2024 tillsynsbegäran mail.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 7148-2021 tillsynsbegäran mail.docx", "A 7148-2021")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 1520-2025</t>
+          <t>A 16554-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45670</v>
+        <v>45408</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2529,17 +2523,22 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2554,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2564,45 +2563,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16554-2024 artfynd.xlsx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16554-2024 karta.png", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16554-2024 FSC-klagomål.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16554-2024 FSC-klagomål mail.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16554-2024 tillsynsbegäran.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16554-2024 tillsynsbegäran mail.docx", "A 16554-2024")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 15327-2024</t>
+          <t>A 16642-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45400.68243055556</v>
+        <v>45408.61318287037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2614,17 +2613,22 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2639,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2649,45 +2653,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16642-2024 artfynd.xlsx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16642-2024 karta.png", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16642-2024 FSC-klagomål.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16642-2024 FSC-klagomål mail.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16642-2024 tillsynsbegäran.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16642-2024 tillsynsbegäran mail.docx", "A 16642-2024")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 14312-2025</t>
+          <t>A 32498-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45740.71707175926</v>
+        <v>45838.4570949074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,8 +2703,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2709,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2724,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2734,49 +2743,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 26658-2025</t>
+          <t>A 34826-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45810.39315972223</v>
+        <v>45849.38326388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,7 +2799,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2832,41 +2837,41 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 26659-2025</t>
+          <t>A 42036-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45810.39408564815</v>
+        <v>45903.61173611111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2878,23 +2883,18 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2918,45 +2918,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 42036-2025</t>
+          <t>A 33136-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45903.61173611111</v>
+        <v>45840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,8 +2968,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3003,31 +3008,31 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
     </row>
@@ -3041,7 +3046,7 @@
         <v>45910.32248842593</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3119,14 +3124,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 32498-2025</t>
+          <t>A 16063-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45838.4570949074</v>
+        <v>45027</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,23 +3143,18 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3178,45 +3178,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Violettkantad guldvinge</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7148-2021</t>
+          <t>A 55261-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44238</v>
+        <v>45968.64734953704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3228,20 +3228,25 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>11.4</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3256,52 +3261,52 @@
         <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Väddnätfjäril</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 7148-2021 artfynd.xlsx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 7148-2021 karta.png", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 7148-2021 FSC-klagomål.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 7148-2021 FSC-klagomål mail.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 7148-2021 tillsynsbegäran.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 7148-2021 tillsynsbegäran mail.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 34826-2025</t>
+          <t>A 1520-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45849.38326388889</v>
+        <v>45670</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3313,23 +3318,18 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3353,45 +3353,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 33136-2025</t>
+          <t>A 52639-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45840</v>
+        <v>45219</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3405,14 +3405,14 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.2</v>
+        <v>7.3</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3443,45 +3443,49 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönsångare</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55261-2025</t>
+          <t>A 56959-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45968.64734953704</v>
+        <v>45978.6584375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3495,14 +3499,14 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>11.4</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3533,45 +3537,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56959-2025 artfynd.xlsx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56959-2025 karta.png", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56959-2025 FSC-klagomål.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56959-2025 FSC-klagomål mail.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56959-2025 tillsynsbegäran.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56959-2025 tillsynsbegäran mail.docx", "A 56959-2025")</f>
+        <v/>
+      </c>
+      <c r="Z34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56959-2025 prioriterade fågelarter.docx", "A 56959-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56959-2025</t>
+          <t>A 14312-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45978.6584375</v>
+        <v>45740.71707175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3583,13 +3591,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3627,45 +3630,45 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56959-2025 artfynd.xlsx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56959-2025 karta.png", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56959-2025 FSC-klagomål.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56959-2025 FSC-klagomål mail.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56959-2025 tillsynsbegäran.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56959-2025 tillsynsbegäran mail.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56959-2025 prioriterade fågelarter.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52639-2023</t>
+          <t>A 20659-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45219</v>
+        <v>45776.41106481481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3677,13 +3680,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>7.3</v>
+        <v>11.1</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3692,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3707,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3717,49 +3715,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Grönsångare</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
-        <v/>
-      </c>
-      <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 16063-2023</t>
+          <t>A 15327-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45027</v>
+        <v>45400.68243055556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3772,7 +3766,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3806,45 +3800,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Violettkantad guldvinge</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14306-2025</t>
+          <t>A 26658-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45740.70622685185</v>
+        <v>45810.39315972223</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3856,8 +3850,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3866,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3881,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3891,49 +3890,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 20659-2025</t>
+          <t>A 26659-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45776.41106481481</v>
+        <v>45810.39408564815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3945,8 +3940,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>11.1</v>
+        <v>7</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -3984,27 +3984,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
         <v>44876.5034375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44523</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44862.43092592592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44799.59944444444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44818.95434027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44560</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44530</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44761</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4616,14 +4616,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 35870-2022</t>
+          <t>A 47794-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44802.44491898148</v>
+        <v>44448</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4635,13 +4635,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4678,14 +4673,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 47794-2021</t>
+          <t>A 35870-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44448</v>
+        <v>44802.44491898148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4697,8 +4692,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4742,7 +4742,7 @@
         <v>44865.4325462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44431.34829861111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44491</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44807.45756944444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>44807.46988425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>44865.6330787037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>44687.4733912037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44292</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>44284</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44791.63450231482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44838.57731481481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44714</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>44862.43146990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44862.43199074074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44428.61717592592</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44841</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>44799</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44799.73486111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>44491</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44449</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44740.53197916667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>44530</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44807.47078703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>44386.37886574074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44448</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44529.56203703704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6436,14 +6436,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 5039-2022</t>
+          <t>A 49135-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44593</v>
+        <v>44453</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6493,14 +6493,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26314-2022</t>
+          <t>A 5039-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44735.59861111111</v>
+        <v>44593</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6512,13 +6512,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6555,14 +6550,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 49135-2021</t>
+          <t>A 26314-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44453</v>
+        <v>44735.59861111111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6574,8 +6569,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>44354.37946759259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>44707.88415509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6726,14 +6726,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 20565-2025</t>
+          <t>A 35330-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45775.66307870371</v>
+        <v>44384.81996527778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6745,13 +6745,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6788,14 +6783,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62592-2021</t>
+          <t>A 34026-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44503</v>
+        <v>44791.32811342592</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6808,7 +6803,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.4</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6845,14 +6840,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 12815-2024</t>
+          <t>A 43254-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45384.66650462963</v>
+        <v>44834</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6865,7 +6860,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6902,14 +6897,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 4910-2023</t>
+          <t>A 46198-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44958.38488425926</v>
+        <v>45196</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6922,7 +6917,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6959,14 +6954,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 34164-2022</t>
+          <t>A 16109-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44791.58640046296</v>
+        <v>45406.46753472222</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6978,13 +6973,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7021,14 +7011,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45216-2023</t>
+          <t>A 13585-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45191</v>
+        <v>45389.85309027778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7041,7 +7031,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7078,14 +7068,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26023-2023</t>
+          <t>A 26021-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45091.2925</v>
+        <v>45091.29033564815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7103,7 +7093,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7140,14 +7130,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61952-2023</t>
+          <t>A 53472-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45266.56415509259</v>
+        <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7160,7 +7150,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7197,14 +7187,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16085-2024</t>
+          <t>A 16540-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45406.37230324074</v>
+        <v>45408.4334837963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7217,7 +7207,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7254,14 +7244,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 53938-2023</t>
+          <t>A 53365-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45231</v>
+        <v>45229.66844907407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7273,8 +7263,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7311,14 +7306,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 13563-2024</t>
+          <t>A 56871-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45388.99935185185</v>
+        <v>44481.78949074074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7331,7 +7326,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7368,14 +7363,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 24389-2024</t>
+          <t>A 24828-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45457.63585648148</v>
+        <v>45461.3750462963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7425,14 +7420,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 52879-2023</t>
+          <t>A 12815-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45226.47349537037</v>
+        <v>45384.66650462963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7445,7 +7440,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7482,14 +7477,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 55766-2024</t>
+          <t>A 4910-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45623.37702546296</v>
+        <v>44958.38488425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7502,7 +7497,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>18.5</v>
+        <v>4.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7539,14 +7534,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 9457-2025</t>
+          <t>A 27577-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45714</v>
+        <v>45474.65008101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7558,8 +7553,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7596,14 +7596,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 38179-2023</t>
+          <t>A 38798-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45161.45337962963</v>
+        <v>44410</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7653,14 +7653,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 35675-2023</t>
+          <t>A 24389-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45147</v>
+        <v>45457.63585648148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7710,14 +7710,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 39257-2023</t>
+          <t>A 64089-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45166.48097222222</v>
+        <v>45279</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7729,8 +7729,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7767,14 +7772,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35608-2021</t>
+          <t>A 59637-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44386.38070601852</v>
+        <v>44493</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7786,13 +7791,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7829,14 +7829,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43535-2023</t>
+          <t>A 70200-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45184</v>
+        <v>44534.82171296296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7886,14 +7886,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 59607-2024</t>
+          <t>A 56136-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45638.74914351852</v>
+        <v>44889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>5.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7943,14 +7943,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 34759-2024</t>
+          <t>A 41676-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45526</v>
+        <v>44425.50175925926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7962,13 +7962,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8005,14 +8000,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 49632-2022</t>
+          <t>A 16557-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44862.43023148148</v>
+        <v>45408.45260416667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8030,7 +8025,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8067,14 +8062,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60301-2023</t>
+          <t>A 53938-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45258</v>
+        <v>45231</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8087,7 +8082,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8124,14 +8119,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5562-2025</t>
+          <t>A 5217-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45693</v>
+        <v>44593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8143,8 +8138,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>5.4</v>
+        <v>38.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8181,14 +8181,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 5590-2025</t>
+          <t>A 4723-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45693</v>
+        <v>44957.51490740741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8238,14 +8238,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26021-2023</t>
+          <t>A 35144-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45091.29033564815</v>
+        <v>45145</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8257,13 +8257,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8300,14 +8295,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 41669-2021</t>
+          <t>A 34755-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44425</v>
+        <v>45526</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8319,8 +8314,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8357,14 +8357,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 24820-2024</t>
+          <t>A 5049-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45461.3465625</v>
+        <v>44593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8414,14 +8414,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39707-2022</t>
+          <t>A 49632-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44818.95277777778</v>
+        <v>44862.43023148148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6.6</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8476,14 +8476,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 52303-2024</t>
+          <t>A 10079-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45608.75231481482</v>
+        <v>45364.42604166667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8495,8 +8495,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8533,14 +8538,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 24821-2024</t>
+          <t>A 48707-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45461.34765046297</v>
+        <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8553,7 +8558,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>12.2</v>
+        <v>7.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8590,14 +8595,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 24833-2024</t>
+          <t>A 26320-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45461.39246527778</v>
+        <v>44735.60184027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8609,8 +8614,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8647,14 +8657,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26916-2022</t>
+          <t>A 45159-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44740</v>
+        <v>45191.49001157407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8666,13 +8676,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8709,14 +8714,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 23277-2024</t>
+          <t>A 52879-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45453.40982638889</v>
+        <v>45226.47349537037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8729,7 +8734,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8766,14 +8771,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 26657-2025</t>
+          <t>A 26916-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45810.39180555556</v>
+        <v>44740</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8791,7 +8796,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8828,14 +8833,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 26320-2022</t>
+          <t>A 45216-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44735.60184027778</v>
+        <v>45191</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8847,13 +8852,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8890,14 +8890,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 41696-2023</t>
+          <t>A 39513-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45176</v>
+        <v>45890.41581018519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8909,8 +8909,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8947,14 +8952,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 16109-2024</t>
+          <t>A 32501-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45406.46753472222</v>
+        <v>45838.46260416666</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8966,8 +8971,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9004,14 +9014,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 39513-2025</t>
+          <t>A 17140-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45890.41581018519</v>
+        <v>44677.53418981482</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9023,13 +9033,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>9.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9073,7 +9078,7 @@
         <v>45891.56561342593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9123,14 +9128,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 12183-2025</t>
+          <t>A 40082-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45729.46353009259</v>
+        <v>45894.46731481481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9143,7 +9148,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9180,14 +9185,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27844-2025</t>
+          <t>A 3309-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45817.39009259259</v>
+        <v>45317</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9200,7 +9205,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9237,14 +9242,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 46410-2021</t>
+          <t>A 9295-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44444</v>
+        <v>45714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9257,7 +9262,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9294,14 +9299,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 40082-2025</t>
+          <t>A 41588-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45894.46731481481</v>
+        <v>45901.63114583334</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9351,14 +9356,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 27878-2025</t>
+          <t>A 56904-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45817.443125</v>
+        <v>45628.58696759259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9371,7 +9376,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.9</v>
+        <v>8.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9408,14 +9413,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 41588-2025</t>
+          <t>A 34835-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45901.63114583334</v>
+        <v>45849.38855324074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9427,8 +9432,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9465,14 +9475,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 56871-2021</t>
+          <t>A 34825-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44481.78949074074</v>
+        <v>45849.38262731482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9484,8 +9494,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9522,14 +9537,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 57316-2022</t>
+          <t>A 14477-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44896.32079861111</v>
+        <v>45741.58723379629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9547,7 +9562,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9584,14 +9599,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 43843-2023</t>
+          <t>A 34824-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45187</v>
+        <v>45849.38061342593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9609,7 +9624,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9646,14 +9661,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 43919-2023</t>
+          <t>A 34827-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45182</v>
+        <v>45849.38547453703</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9665,8 +9680,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9703,14 +9723,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 42056-2025</t>
+          <t>A 14482-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45903.64190972222</v>
+        <v>45741.59662037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9722,8 +9742,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9760,14 +9785,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 42050-2025</t>
+          <t>A 42056-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45903.63047453704</v>
+        <v>45903.64190972222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9779,13 +9804,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9822,14 +9842,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 41939-2025</t>
+          <t>A 42050-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45903.44396990741</v>
+        <v>45903.63047453704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9847,7 +9867,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9884,14 +9904,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 42049-2025</t>
+          <t>A 41939-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45903.63034722222</v>
+        <v>45903.44396990741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9903,8 +9923,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>2.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9941,14 +9966,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 64090-2023</t>
+          <t>A 42049-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45279.43923611111</v>
+        <v>45903.63034722222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9960,13 +9985,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10003,14 +10023,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 43206-2025</t>
+          <t>A 36089-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45910.44984953704</v>
+        <v>45866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10023,7 +10043,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10060,14 +10080,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 5049-2022</t>
+          <t>A 21449-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44593</v>
+        <v>44321.46297453704</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10079,8 +10099,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10117,14 +10142,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 59056-2024</t>
+          <t>A 24391-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45636</v>
+        <v>45457.63850694444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10137,7 +10162,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10174,14 +10199,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 25723-2023</t>
+          <t>A 24392-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45090.3674537037</v>
+        <v>45457.64085648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10194,7 +10219,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10231,14 +10256,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 9295-2025</t>
+          <t>A 14315-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45714</v>
+        <v>45740.72116898148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10251,7 +10276,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10288,14 +10313,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 4723-2023</t>
+          <t>A 43206-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44957.51490740741</v>
+        <v>45910.44984953704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10308,7 +10333,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10345,14 +10370,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 53129-2023</t>
+          <t>A 34206-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45229</v>
+        <v>44791.65267361111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10364,8 +10389,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10402,14 +10432,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 46688-2023</t>
+          <t>A 17716-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45198.51881944444</v>
+        <v>45758.44623842592</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10422,7 +10452,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10459,14 +10489,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 12646-2024</t>
+          <t>A 43535-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45384.34563657407</v>
+        <v>45184</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10479,7 +10509,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>8.699999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10516,14 +10546,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 8589-2022</t>
+          <t>A 49498-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44613.55984953704</v>
+        <v>45596.3672337963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10541,7 +10571,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10578,14 +10608,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 47030-2025</t>
+          <t>A 35659-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45929.58944444444</v>
+        <v>45147</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10598,7 +10628,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10635,14 +10665,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 24822-2024</t>
+          <t>A 37550-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45461.34818287037</v>
+        <v>45879.91046296297</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10655,7 +10685,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10692,14 +10722,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 5674-2023</t>
+          <t>A 52505-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44960.66104166667</v>
+        <v>45225</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10711,13 +10741,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10754,14 +10779,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 46544-2021</t>
+          <t>A 26022-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44445</v>
+        <v>45091.29174768519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10773,8 +10798,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10811,14 +10841,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 32501-2025</t>
+          <t>A 38179-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45838.46260416666</v>
+        <v>45161.45337962963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10830,13 +10860,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10873,14 +10898,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48229-2025</t>
+          <t>A 14025-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45933.51694444445</v>
+        <v>44277.65498842593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10893,7 +10918,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.4</v>
+        <v>7.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10930,14 +10955,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 45159-2023</t>
+          <t>A 45645-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45191.49001157407</v>
+        <v>44845.65557870371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10950,7 +10975,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10987,14 +11012,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 48775-2025</t>
+          <t>A 47030-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45937.00422453704</v>
+        <v>45929.58944444444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11007,7 +11032,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11044,14 +11069,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 58829-2023</t>
+          <t>A 40497-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45252</v>
+        <v>45555.57101851852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11064,7 +11089,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11101,14 +11126,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 3309-2024</t>
+          <t>A 12183-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45317</v>
+        <v>45729.46353009259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11121,7 +11146,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11158,14 +11183,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 46198-2023</t>
+          <t>A 22389-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45196</v>
+        <v>45070</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11178,7 +11203,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>8.800000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11215,14 +11240,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 36064-2023</t>
+          <t>A 48229-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45149</v>
+        <v>45933.51694444445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11235,7 +11260,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11272,14 +11297,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 11864-2025</t>
+          <t>A 41696-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45728.41668981482</v>
+        <v>45176</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11292,7 +11317,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11329,14 +11354,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 29669-2025</t>
+          <t>A 42049-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45825</v>
+        <v>45177</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11348,8 +11373,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11386,14 +11416,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 43254-2022</t>
+          <t>A 48775-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44834</v>
+        <v>45937.00422453704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11406,7 +11436,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11443,14 +11473,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 16529-2024</t>
+          <t>A 46544-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45408.42216435185</v>
+        <v>44445</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11462,13 +11492,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11505,14 +11530,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 34835-2025</t>
+          <t>A 40126-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45849.38855324074</v>
+        <v>44418</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11524,13 +11549,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11567,14 +11587,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49671-2025</t>
+          <t>A 29669-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45939</v>
+        <v>45825</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11587,7 +11607,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11624,14 +11644,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 49676-2025</t>
+          <t>A 35608-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45939</v>
+        <v>44386.38070601852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11643,8 +11663,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11681,14 +11706,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 34824-2025</t>
+          <t>A 49675-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45849.38061342593</v>
+        <v>45939</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11700,13 +11725,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11743,14 +11763,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 34827-2025</t>
+          <t>A 49671-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45849.38547453703</v>
+        <v>45939</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11762,13 +11782,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11805,14 +11820,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 51002-2025</t>
+          <t>A 49676-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45947.36173611111</v>
+        <v>45939</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11825,7 +11840,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11862,14 +11877,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 49675-2025</t>
+          <t>A 51002-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45939</v>
+        <v>45947.36173611111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11882,7 +11897,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11919,14 +11934,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 34825-2025</t>
+          <t>A 16085-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45849.38262731482</v>
+        <v>45406.37230324074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11938,13 +11953,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11981,14 +11991,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 14477-2025</t>
+          <t>A 51245-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45741.58723379629</v>
+        <v>45947.80872685185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12000,13 +12010,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12043,14 +12048,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 14482-2025</t>
+          <t>A 51246-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45741.59662037037</v>
+        <v>45947.81226851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12062,13 +12067,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12105,14 +12105,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 56904-2024</t>
+          <t>A 63825-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45628.58696759259</v>
+        <v>45278</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12124,8 +12124,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12162,14 +12167,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51245-2025</t>
+          <t>A 26278-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45947.80872685185</v>
+        <v>44347</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12181,8 +12186,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12219,14 +12229,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 51246-2025</t>
+          <t>A 12907-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45947.81226851852</v>
+        <v>45733.8203587963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12239,7 +12249,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12276,14 +12286,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 21449-2021</t>
+          <t>A 40710-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44321.46297453704</v>
+        <v>44420</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12295,13 +12305,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12338,14 +12343,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 36089-2025</t>
+          <t>A 29018-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45866</v>
+        <v>45104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12358,7 +12363,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12402,7 +12407,7 @@
         <v>45953.94951388889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12457,14 +12462,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 12907-2025</t>
+          <t>A 60301-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45733.8203587963</v>
+        <v>45258</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12482,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12514,14 +12519,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 49498-2024</t>
+          <t>A 38177-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45596.3672337963</v>
+        <v>45161.44978009259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,13 +12538,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12576,14 +12576,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 64089-2023</t>
+          <t>A 53600-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45279</v>
+        <v>45960</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12597,11 +12597,11 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12638,14 +12638,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 45229-2023</t>
+          <t>A 10882-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45191</v>
+        <v>45370</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12657,8 +12657,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12695,14 +12700,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 53600-2025</t>
+          <t>A 15012-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45960</v>
+        <v>45015</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12714,13 +12719,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>9.300000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12757,14 +12757,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 10079-2024</t>
+          <t>A 8295-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45364.42604166667</v>
+        <v>45352.43674768518</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12776,13 +12776,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12819,14 +12814,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 37550-2025</t>
+          <t>A 39707-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45879.91046296297</v>
+        <v>44818.95277777778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12838,8 +12833,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12876,14 +12876,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 49959-2023</t>
+          <t>A 54595-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45215.38530092593</v>
+        <v>45965.7556712963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12933,14 +12933,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 54595-2025</t>
+          <t>A 55035-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45965.7556712963</v>
+        <v>45967.64612268518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12990,14 +12990,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 55035-2025</t>
+          <t>A 56565-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45967.64612268518</v>
+        <v>45974</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13047,14 +13047,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 57639-2023</t>
+          <t>A 24820-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45246</v>
+        <v>45461.3465625</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13066,13 +13066,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1.8</v>
+        <v>5.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13109,14 +13104,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 16957-2025</t>
+          <t>A 55869-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45755.44732638889</v>
+        <v>45973.35285879629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13129,7 +13124,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13166,14 +13161,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 42049-2023</t>
+          <t>A 57639-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45177</v>
+        <v>45246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13191,7 +13186,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13228,14 +13223,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 55869-2025</t>
+          <t>A 12699-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45973.35285879629</v>
+        <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13247,8 +13242,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13285,14 +13285,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 56565-2025</t>
+          <t>A 45234-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45974</v>
+        <v>45191.59268518518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13342,14 +13342,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 29112-2023</t>
+          <t>A 12646-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45105.39409722222</v>
+        <v>45384.34563657407</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13399,14 +13399,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 48610-2023</t>
+          <t>A 64026-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45208</v>
+        <v>46021.47569444445</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13456,14 +13456,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 34206-2022</t>
+          <t>A 58521-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44791.65267361111</v>
+        <v>45985</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13475,13 +13475,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13518,14 +13513,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 64026-2025</t>
+          <t>A 73009-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46021.47569444445</v>
+        <v>44550.33282407407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13537,8 +13532,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13575,14 +13575,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 38177-2023</t>
+          <t>A 40339-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45161.44978009259</v>
+        <v>45555.33125</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>8.5</v>
+        <v>1.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13632,14 +13632,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 12699-2023</t>
+          <t>A 1766-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45000</v>
+        <v>46034.6880787037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13651,13 +13651,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13694,14 +13689,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 14025-2021</t>
+          <t>A 43843-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44277.65498842593</v>
+        <v>45187</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13713,8 +13708,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>7.7</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13751,14 +13751,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 14315-2025</t>
+          <t>A 60152-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45740.72116898148</v>
+        <v>45994</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>9.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13808,14 +13808,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 58521-2025</t>
+          <t>A 60166-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45985</v>
+        <v>45994</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13865,14 +13865,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 16540-2024</t>
+          <t>A 60169-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45408.4334837963</v>
+        <v>45994</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13922,14 +13922,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 40710-2021</t>
+          <t>A 348-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44420</v>
+        <v>45660</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.1</v>
+        <v>7.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13979,14 +13979,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2413-2024</t>
+          <t>A 37849-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45310</v>
+        <v>45158</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14036,14 +14036,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 45645-2022</t>
+          <t>A 60548-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44845.65557870371</v>
+        <v>45995.71252314815</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14093,14 +14093,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 40497-2024</t>
+          <t>A 55766-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45555.57101851852</v>
+        <v>45623.37702546296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.5</v>
+        <v>18.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14150,14 +14150,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 34722-2024</t>
+          <t>A 60873-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45526</v>
+        <v>45999.55505787037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14169,13 +14169,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14212,14 +14207,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 27767-2023</t>
+          <t>A 60843-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45098.41659722223</v>
+        <v>45999.48747685185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14232,7 +14227,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14269,14 +14264,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 1766-2026</t>
+          <t>A 60892-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46034.6880787037</v>
+        <v>45999.57278935185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14289,7 +14284,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.8</v>
+        <v>9.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14326,14 +14321,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 13585-2024</t>
+          <t>A 49959-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45389.85309027778</v>
+        <v>45215.38530092593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14346,7 +14341,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14383,14 +14378,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 60152-2025</t>
+          <t>A 36064-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45994</v>
+        <v>45149</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14403,7 +14398,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>9.4</v>
+        <v>1.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14440,14 +14435,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 60169-2025</t>
+          <t>A 46688-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45994</v>
+        <v>45198.51881944444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14460,7 +14455,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14497,14 +14492,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 60166-2025</t>
+          <t>A 9457-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45994</v>
+        <v>45714</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14517,7 +14512,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14554,14 +14549,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 60548-2025</t>
+          <t>A 34759-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45995.71252314815</v>
+        <v>45526</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14573,8 +14568,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14611,14 +14611,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 4977-2023</t>
+          <t>A 17770-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44958.46266203704</v>
+        <v>44682.64953703704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14668,14 +14668,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 63825-2023</t>
+          <t>A 3686-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45278</v>
+        <v>46043.44011574074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14687,13 +14687,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14730,14 +14725,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 24818-2024</t>
+          <t>A 16529-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45461.33123842593</v>
+        <v>45408.42216435185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14749,8 +14744,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14787,14 +14787,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 60892-2025</t>
+          <t>A 39257-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45999.57278935185</v>
+        <v>45166.48097222222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14844,14 +14844,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 1521-2025</t>
+          <t>A 24818-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45670</v>
+        <v>45461.33123842593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.6</v>
+        <v>9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14901,14 +14901,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 60873-2025</t>
+          <t>A 11864-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45999.55505787037</v>
+        <v>45728.41668981482</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14958,14 +14958,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 60843-2025</t>
+          <t>A 11888-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45999.48747685185</v>
+        <v>45728.45688657407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15015,14 +15015,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 3686-2026</t>
+          <t>A 62217-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46043.44011574074</v>
+        <v>45267.51355324074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15072,14 +15072,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 53472-2022</t>
+          <t>A 20565-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44879</v>
+        <v>45775.66307870371</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15091,8 +15091,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15129,14 +15134,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 52379-2023</t>
+          <t>A 53129-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45224</v>
+        <v>45229</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15149,7 +15154,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15186,14 +15191,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 17352-2024</t>
+          <t>A 62592-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45414.5908912037</v>
+        <v>44503</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15206,7 +15211,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.9</v>
+        <v>7.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15243,14 +15248,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 16537-2024</t>
+          <t>A 16957-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45408.43247685185</v>
+        <v>45755.44732638889</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15262,13 +15267,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15305,14 +15305,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 16557-2024</t>
+          <t>A 34722-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45408.45260416667</v>
+        <v>45526</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15326,11 +15326,11 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15367,14 +15367,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 17770-2022</t>
+          <t>A 2261-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44682.64953703704</v>
+        <v>46036</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15424,14 +15424,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 48707-2022</t>
+          <t>A 26023-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44859</v>
+        <v>45091.2925</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15443,8 +15443,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15481,14 +15486,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 56136-2022</t>
+          <t>A 57316-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44889</v>
+        <v>44896.32079861111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15500,8 +15505,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15538,14 +15548,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 7579-2024</t>
+          <t>A 48610-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45348</v>
+        <v>45208</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15558,7 +15568,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15595,14 +15605,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 27577-2024</t>
+          <t>A 24832-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45474.65008101852</v>
+        <v>45461.38202546296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15614,13 +15624,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15657,14 +15662,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 26022-2023</t>
+          <t>A 7579-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45091.29174768519</v>
+        <v>45348</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15676,13 +15681,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15719,14 +15719,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 15012-2023</t>
+          <t>A 41669-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45015</v>
+        <v>44425</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15776,14 +15776,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 45234-2023</t>
+          <t>A 34164-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45191.59268518518</v>
+        <v>44791.58640046296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15795,8 +15795,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15833,14 +15838,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 2261-2026</t>
+          <t>A 16537-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46036</v>
+        <v>45408.43247685185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15852,8 +15857,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15890,14 +15900,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 60397-2022</t>
+          <t>A 8589-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44910.90956018519</v>
+        <v>44613.55984953704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15909,8 +15919,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15947,14 +15962,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 17716-2025</t>
+          <t>A 52379-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45758.44623842592</v>
+        <v>45224</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15967,7 +15982,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16004,14 +16019,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 40339-2024</t>
+          <t>A 5674-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45555.33125</v>
+        <v>44960.66104166667</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16023,8 +16038,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16061,14 +16081,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 26278-2021</t>
+          <t>A 35675-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44347</v>
+        <v>45147</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,11 +16098,6 @@
       <c r="E245" t="inlineStr">
         <is>
           <t>NORA</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G245" t="n">
@@ -16130,7 +16145,7 @@
         <v>45510.49798611111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16180,14 +16195,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 9754-2022</t>
+          <t>A 1521-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44618.81180555555</v>
+        <v>45670</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16200,7 +16215,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16237,14 +16252,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 33887-2024</t>
+          <t>A 24821-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45523.3167824074</v>
+        <v>45461.34765046297</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16257,7 +16272,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.2</v>
+        <v>12.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16294,14 +16309,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 35659-2023</t>
+          <t>A 24833-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45147</v>
+        <v>45461.39246527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16314,7 +16329,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16351,14 +16366,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 17140-2022</t>
+          <t>A 61952-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44677.53418981482</v>
+        <v>45266.56415509259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16371,7 +16386,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16408,14 +16423,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 35330-2021</t>
+          <t>A 17352-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44384.81996527778</v>
+        <v>45414.5908912037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16428,7 +16443,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16465,14 +16480,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 40126-2021</t>
+          <t>A 59607-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44418</v>
+        <v>45638.74914351852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16485,7 +16500,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16522,14 +16537,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 18134-2021</t>
+          <t>A 4977-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44302</v>
+        <v>44958.46266203704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16542,7 +16557,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>16.8</v>
+        <v>4.4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16579,14 +16594,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 34026-2022</t>
+          <t>A 33887-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44791.32811342592</v>
+        <v>45523.3167824074</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16599,7 +16614,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16636,14 +16651,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 24828-2024</t>
+          <t>A 46410-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45461.3750462963</v>
+        <v>44444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16656,7 +16671,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16693,14 +16708,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 52505-2023</t>
+          <t>A 29112-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45225</v>
+        <v>45105.39409722222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16713,7 +16728,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16750,14 +16765,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 29018-2023</t>
+          <t>A 24822-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45104</v>
+        <v>45461.34818287037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16770,7 +16785,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16807,14 +16822,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 62217-2023</t>
+          <t>A 43919-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45267.51355324074</v>
+        <v>45182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16827,7 +16842,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16864,14 +16879,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 34755-2024</t>
+          <t>A 45229-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45526</v>
+        <v>45191</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16883,13 +16898,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16926,14 +16936,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 59637-2021</t>
+          <t>A 60397-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44493</v>
+        <v>44910.90956018519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16946,7 +16956,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16983,14 +16993,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 10882-2024</t>
+          <t>A 11631-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45370</v>
+        <v>44631</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17008,7 +17018,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17045,14 +17055,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 8295-2024</t>
+          <t>A 8936-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45352.43674768518</v>
+        <v>45714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17065,7 +17075,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17102,14 +17112,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 24832-2024</t>
+          <t>A 27767-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45461.38202546296</v>
+        <v>45098.41659722223</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17122,7 +17132,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17159,14 +17169,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 70200-2021</t>
+          <t>A 13563-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44534.82171296296</v>
+        <v>45388.99935185185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17179,7 +17189,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17216,14 +17226,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 22389-2023</t>
+          <t>A 64090-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45070</v>
+        <v>45279.43923611111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17235,8 +17245,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17273,14 +17288,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 35656-2024</t>
+          <t>A 58829-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45532</v>
+        <v>45252</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17293,7 +17308,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17330,14 +17345,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 11631-2022</t>
+          <t>A 25723-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44631</v>
+        <v>45090.3674537037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17349,13 +17364,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17392,14 +17402,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 5217-2022</t>
+          <t>A 59056-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44593</v>
+        <v>45636</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17411,13 +17421,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>38.4</v>
+        <v>0.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17454,14 +17459,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 37849-2023</t>
+          <t>A 18134-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45158</v>
+        <v>44302</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17474,7 +17479,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>4.7</v>
+        <v>16.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17511,14 +17516,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 24391-2024</t>
+          <t>A 9754-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45457.63850694444</v>
+        <v>44618.81180555555</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17531,7 +17536,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17568,14 +17573,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 24392-2024</t>
+          <t>A 35656-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45457.64085648148</v>
+        <v>45532</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17588,7 +17593,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17625,14 +17630,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 41676-2021</t>
+          <t>A 2413-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44425.50175925926</v>
+        <v>45310</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17645,7 +17650,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17682,14 +17687,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 35144-2023</t>
+          <t>A 21846-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45145</v>
+        <v>45784.33967592593</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17702,7 +17707,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.8</v>
+        <v>14.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17739,14 +17744,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 348-2025</t>
+          <t>A 16281-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45660</v>
+        <v>45407.36091435186</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17759,7 +17764,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17796,14 +17801,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 73009-2021</t>
+          <t>A 1566-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44550.33282407407</v>
+        <v>45670</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17815,13 +17820,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17858,14 +17858,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 38798-2021</t>
+          <t>A 54604-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44410</v>
+        <v>45617.683125</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17915,14 +17915,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 8936-2025</t>
+          <t>A 17344-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45714</v>
+        <v>45414.58052083333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17972,14 +17972,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 53365-2023</t>
+          <t>A 5562-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45229.66844907407</v>
+        <v>45693</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17991,13 +17991,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -18034,14 +18029,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 11888-2025</t>
+          <t>A 5590-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45728.45688657407</v>
+        <v>45693</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18054,7 +18049,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18091,14 +18086,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 21846-2025</t>
+          <t>A 26657-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45784.33967592593</v>
+        <v>45810.39180555556</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18110,8 +18105,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G280" t="n">
-        <v>14.6</v>
+        <v>6.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -18148,14 +18148,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 16281-2024</t>
+          <t>A 52303-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45407.36091435186</v>
+        <v>45608.75231481482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18205,14 +18205,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 1566-2025</t>
+          <t>A 23277-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45670</v>
+        <v>45453.40982638889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -18262,14 +18262,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 54604-2024</t>
+          <t>A 27878-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45617.683125</v>
+        <v>45817.443125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -18319,14 +18319,14 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 17344-2024</t>
+          <t>A 27844-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45414.58052083333</v>
+        <v>45817.39009259259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -575,7 +575,7 @@
         <v>46013.56689814815</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44263</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44841.45446759259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45980.60565972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>46013.56317129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>45751.44270833334</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,14 +1245,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 55852-2024</t>
+          <t>A 56956-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45623</v>
+        <v>45978.65591435185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,43 +1266,142 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.7</v>
+        <v>22.2</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>5</v>
-      </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tretåig hackspett
+Bronshjon
+Dropptaggsvamp
+Gullgröppa
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56956-2025 artfynd.xlsx", "A 56956-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56956-2025 karta.png", "A 56956-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56956-2025 FSC-klagomål.docx", "A 56956-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56956-2025 FSC-klagomål mail.docx", "A 56956-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56956-2025 tillsynsbegäran.docx", "A 56956-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56956-2025 tillsynsbegäran mail.docx", "A 56956-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56956-2025 prioriterade fågelarter.docx", "A 56956-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 55852-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Storspov
 Stare
@@ -1312,127 +1411,28 @@
 Tibast</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55852-2024 artfynd.xlsx", "A 55852-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55852-2024 karta.png", "A 55852-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55852-2024 FSC-klagomål.docx", "A 55852-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55852-2024 FSC-klagomål mail.docx", "A 55852-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55852-2024 tillsynsbegäran.docx", "A 55852-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55852-2024 tillsynsbegäran mail.docx", "A 55852-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 56956-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45978.65591435185</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tretåig hackspett
-Bronshjon
-Dropptaggsvamp
-Gullgröppa
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56956-2025 artfynd.xlsx", "A 56956-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56956-2025 karta.png", "A 56956-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56956-2025 FSC-klagomål.docx", "A 56956-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56956-2025 FSC-klagomål mail.docx", "A 56956-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56956-2025 tillsynsbegäran.docx", "A 56956-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56956-2025 tillsynsbegäran mail.docx", "A 56956-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56956-2025 prioriterade fågelarter.docx", "A 56956-2025")</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>44495</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45978.64929398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45989.66488425926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44439</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1816,14 +1816,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51036-2022</t>
+          <t>A 54598-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44868.3161574074</v>
+        <v>45965.77918981481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1836,16 +1836,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1870,118 +1870,118 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Drillsnäppa
+Vanlig snok</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 51036-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44868.3161574074</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Blåmossa
 Vårärt</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 51036-2022 artfynd.xlsx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 51036-2022 karta.png", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 51036-2022 FSC-klagomål.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 51036-2022 FSC-klagomål mail.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 51036-2022 tillsynsbegäran.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 51036-2022 tillsynsbegäran mail.docx", "A 51036-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 54598-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45965.77918981481</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Drillsnäppa
-Vanlig snok</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
         <v/>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
         <v>46013.57747685185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>46013.58233796297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44339.70040509259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44347</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,14 +2330,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 14306-2025</t>
+          <t>A 16554-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45740.70622685185</v>
+        <v>45408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,8 +2349,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2359,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2374,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2384,49 +2389,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16554-2024 artfynd.xlsx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16554-2024 karta.png", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16554-2024 FSC-klagomål.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16554-2024 FSC-klagomål mail.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16554-2024 tillsynsbegäran.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16554-2024 tillsynsbegäran mail.docx", "A 16554-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 7148-2021</t>
+          <t>A 42036-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44238</v>
+        <v>45903.61173611111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,19 +2440,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2466,52 +2467,52 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Väddnätfjäril</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 7148-2021 artfynd.xlsx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 7148-2021 karta.png", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 7148-2021 FSC-klagomål.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 7148-2021 FSC-klagomål mail.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 7148-2021 tillsynsbegäran.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 7148-2021 tillsynsbegäran mail.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 16554-2024</t>
+          <t>A 20659-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45408</v>
+        <v>45776.41106481481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,13 +2524,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>11.1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2563,31 +2559,31 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16554-2024 artfynd.xlsx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16554-2024 karta.png", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16554-2024 FSC-klagomål.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16554-2024 FSC-klagomål mail.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16554-2024 tillsynsbegäran.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16554-2024 tillsynsbegäran mail.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
     </row>
@@ -2601,7 +2597,7 @@
         <v>45408.61318287037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2684,14 +2680,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 32498-2025</t>
+          <t>A 1520-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45838.4570949074</v>
+        <v>45670</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2703,23 +2699,18 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2733,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2743,45 +2734,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 34826-2025</t>
+          <t>A 43148-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45849.38326388889</v>
+        <v>45910.32248842593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2793,19 +2784,14 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2833,45 +2819,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Purpurknipprot</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 42036-2025</t>
+          <t>A 14312-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45903.61173611111</v>
+        <v>45740.71707175926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2884,10 +2870,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2918,45 +2904,49 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 33136-2025</t>
+          <t>A 15327-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45840</v>
+        <v>45400.68243055556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,13 +2958,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3008,45 +2993,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 43148-2025</t>
+          <t>A 26658-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45910.32248842593</v>
+        <v>45810.39315972223</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3058,14 +3043,19 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3093,45 +3083,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Purpurknipprot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 16063-2023</t>
+          <t>A 26659-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45027</v>
+        <v>45810.39408564815</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3143,17 +3133,22 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3168,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3178,45 +3173,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Violettkantad guldvinge</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 55261-2025</t>
+          <t>A 32498-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45968.64734953704</v>
+        <v>45838.4570949074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,16 +3229,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>11.4</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3258,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3268,45 +3263,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 1520-2025</t>
+          <t>A 34826-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45670</v>
+        <v>45849.38326388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3318,17 +3313,22 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>5.9</v>
+        <v>4.6</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3353,45 +3353,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 52639-2023</t>
+          <t>A 7148-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45219</v>
+        <v>44238</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3403,13 +3403,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>7.3</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3418,10 +3413,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3436,56 +3431,52 @@
         <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Grönsångare</t>
+          <t>Väddnätfjäril</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 7148-2021 artfynd.xlsx", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 7148-2021 karta.png", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 7148-2021 FSC-klagomål.docx", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 7148-2021 FSC-klagomål mail.docx", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 7148-2021 tillsynsbegäran.docx", "A 7148-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 7148-2021 tillsynsbegäran mail.docx", "A 7148-2021")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 56959-2025</t>
+          <t>A 33136-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45978.6584375</v>
+        <v>45840</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3499,14 +3490,14 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3537,49 +3528,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56959-2025 artfynd.xlsx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56959-2025 karta.png", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56959-2025 FSC-klagomål.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56959-2025 FSC-klagomål mail.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56959-2025 tillsynsbegäran.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56959-2025 tillsynsbegäran mail.docx", "A 56959-2025")</f>
-        <v/>
-      </c>
-      <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56959-2025 prioriterade fågelarter.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 14312-2025</t>
+          <t>A 55261-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45740.71707175926</v>
+        <v>45968.64734953704</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3591,11 +3578,16 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>11.4</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3626,49 +3618,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 20659-2025</t>
+          <t>A 56959-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45776.41106481481</v>
+        <v>45978.6584375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3680,8 +3668,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>11.1</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3690,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3705,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3715,45 +3708,49 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56959-2025 artfynd.xlsx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56959-2025 karta.png", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56959-2025 FSC-klagomål.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56959-2025 FSC-klagomål mail.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56959-2025 tillsynsbegäran.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56959-2025 tillsynsbegäran mail.docx", "A 56959-2025")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56959-2025 prioriterade fågelarter.docx", "A 56959-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 15327-2024</t>
+          <t>A 52639-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45400.68243055556</v>
+        <v>45219</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3765,11 +3762,16 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>7.3</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3800,45 +3802,49 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Grönsångare</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
+        <v/>
+      </c>
+      <c r="Z37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26658-2025</t>
+          <t>A 16063-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45810.39315972223</v>
+        <v>45027</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3850,23 +3856,18 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
@@ -3880,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3890,45 +3891,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Violettkantad guldvinge</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 26659-2025</t>
+          <t>A 14306-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45810.39408564815</v>
+        <v>45740.70622685185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3940,13 +3941,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -3955,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3970,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -3980,31 +3976,35 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
+        <v/>
+      </c>
+      <c r="Z39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
         <v/>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
         <v>44876.5034375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44523</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44862.43092592592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44799.59944444444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44818.95434027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44560</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44530</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44761</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4616,14 +4616,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 47794-2021</t>
+          <t>A 35870-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44448</v>
+        <v>44802.44491898148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4635,8 +4635,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4673,14 +4678,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35870-2022</t>
+          <t>A 47794-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44802.44491898148</v>
+        <v>44448</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4692,13 +4697,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4742,7 +4742,7 @@
         <v>44865.4325462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44431.34829861111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>44491</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44807.45756944444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>44807.46988425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>44865.6330787037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>44687.4733912037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>44292</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>44284</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44791.63450231482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44838.57731481481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44420</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44714</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>44862.43146990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44862.43199074074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44428.61717592592</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44841</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>44799</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44799.73486111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>44491</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44449</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44740.53197916667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>44530</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44807.47078703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>44386.37886574074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44448</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44529.56203703704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>44453</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6493,14 +6493,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 5039-2022</t>
+          <t>A 26314-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44593</v>
+        <v>44735.59861111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6512,8 +6512,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6550,14 +6555,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26314-2022</t>
+          <t>A 5039-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44735.59861111111</v>
+        <v>44593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6569,13 +6574,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>44354.37946759259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>44707.88415509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6726,14 +6726,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35330-2021</t>
+          <t>A 39837-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44384.81996527778</v>
+        <v>45891.56561342593</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6783,14 +6783,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 34026-2022</t>
+          <t>A 62592-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44791.32811342592</v>
+        <v>44503</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>7.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6840,14 +6840,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43254-2022</t>
+          <t>A 40082-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44834</v>
+        <v>45894.46731481481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6897,14 +6897,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 46198-2023</t>
+          <t>A 20565-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45196</v>
+        <v>45775.66307870371</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6916,8 +6916,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>8.800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6954,14 +6959,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16109-2024</t>
+          <t>A 49632-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45406.46753472222</v>
+        <v>44862.43023148148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6973,8 +6978,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7011,14 +7021,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13585-2024</t>
+          <t>A 24391-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45389.85309027778</v>
+        <v>45457.63850694444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7031,7 +7041,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7068,14 +7078,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26021-2023</t>
+          <t>A 24392-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45091.29033564815</v>
+        <v>45457.64085648148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7087,13 +7097,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7130,14 +7135,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53472-2022</t>
+          <t>A 41676-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44879</v>
+        <v>44425.50175925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7150,7 +7155,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7187,14 +7192,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16540-2024</t>
+          <t>A 41588-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45408.4334837963</v>
+        <v>45901.63114583334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7207,7 +7212,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7244,14 +7249,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 53365-2023</t>
+          <t>A 12815-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45229.66844907407</v>
+        <v>45384.66650462963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7263,13 +7268,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7306,14 +7306,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 56871-2021</t>
+          <t>A 35144-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44481.78949074074</v>
+        <v>45145</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7363,14 +7363,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 24828-2024</t>
+          <t>A 4910-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45461.3750462963</v>
+        <v>44958.38488425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7420,14 +7420,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12815-2024</t>
+          <t>A 348-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45384.66650462963</v>
+        <v>45660</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>7.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7477,14 +7477,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4910-2023</t>
+          <t>A 73009-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44958.38488425926</v>
+        <v>44550.33282407407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7496,8 +7496,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7534,14 +7539,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 27577-2024</t>
+          <t>A 34164-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45474.65008101852</v>
+        <v>44791.58640046296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7559,7 +7564,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7596,14 +7601,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 38798-2021</t>
+          <t>A 26916-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44410</v>
+        <v>44740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7615,8 +7620,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7653,14 +7663,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 24389-2024</t>
+          <t>A 45216-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45457.63585648148</v>
+        <v>45191</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7673,7 +7683,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7710,14 +7720,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 64089-2023</t>
+          <t>A 38798-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45279</v>
+        <v>44410</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7729,13 +7739,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7772,14 +7777,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 59637-2021</t>
+          <t>A 26320-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44493</v>
+        <v>44735.60184027778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7791,8 +7796,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7829,14 +7839,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 70200-2021</t>
+          <t>A 39513-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44534.82171296296</v>
+        <v>45890.41581018519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7848,8 +7858,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7886,14 +7901,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 56136-2022</t>
+          <t>A 8936-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44889</v>
+        <v>45714</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7906,7 +7921,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.9</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7943,14 +7958,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41676-2021</t>
+          <t>A 53365-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44425.50175925926</v>
+        <v>45229.66844907407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7962,8 +7977,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8000,14 +8020,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 16557-2024</t>
+          <t>A 42056-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45408.45260416667</v>
+        <v>45903.64190972222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8019,13 +8039,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8062,14 +8077,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 53938-2023</t>
+          <t>A 42050-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45231</v>
+        <v>45903.63047453704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8081,8 +8096,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8119,14 +8139,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5217-2022</t>
+          <t>A 41939-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44593</v>
+        <v>45903.44396990741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8144,7 +8164,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>38.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8181,14 +8201,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4723-2023</t>
+          <t>A 42049-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44957.51490740741</v>
+        <v>45903.63034722222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8201,7 +8221,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8238,14 +8258,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 35144-2023</t>
+          <t>A 61952-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45145</v>
+        <v>45266.56415509259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8258,7 +8278,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8295,14 +8315,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 34755-2024</t>
+          <t>A 26023-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45526</v>
+        <v>45091.2925</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8316,11 +8336,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8357,14 +8377,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5049-2022</t>
+          <t>A 53938-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44593</v>
+        <v>45231</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8377,7 +8397,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8414,14 +8434,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 49632-2022</t>
+          <t>A 11888-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44862.43023148148</v>
+        <v>45728.45688657407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8433,13 +8453,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8476,14 +8491,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 10079-2024</t>
+          <t>A 13563-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45364.42604166667</v>
+        <v>45388.99935185185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8495,13 +8510,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8538,14 +8548,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48707-2022</t>
+          <t>A 16085-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44859</v>
+        <v>45406.37230324074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8558,7 +8568,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8595,14 +8605,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26320-2022</t>
+          <t>A 21846-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44735.60184027778</v>
+        <v>45784.33967592593</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8614,13 +8624,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>2.2</v>
+        <v>14.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8657,14 +8662,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 45159-2023</t>
+          <t>A 24389-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45191.49001157407</v>
+        <v>45457.63585648148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8677,7 +8682,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8714,14 +8719,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 52879-2023</t>
+          <t>A 55766-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45226.47349537037</v>
+        <v>45623.37702546296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8734,7 +8739,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>18.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8771,14 +8776,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 26916-2022</t>
+          <t>A 52879-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44740</v>
+        <v>45226.47349537037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8790,13 +8795,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8833,14 +8833,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45216-2023</t>
+          <t>A 43206-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45191</v>
+        <v>45910.44984953704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8890,14 +8890,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 39513-2025</t>
+          <t>A 9457-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45890.41581018519</v>
+        <v>45714</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8909,13 +8909,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>9.300000000000001</v>
+        <v>3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8952,14 +8947,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 32501-2025</t>
+          <t>A 38179-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45838.46260416666</v>
+        <v>45161.45337962963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8971,13 +8966,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9014,14 +9004,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 17140-2022</t>
+          <t>A 16281-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44677.53418981482</v>
+        <v>45407.36091435186</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9034,7 +9024,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9071,14 +9061,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 39837-2025</t>
+          <t>A 43535-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45891.56561342593</v>
+        <v>45184</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9091,7 +9081,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9128,14 +9118,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 40082-2025</t>
+          <t>A 35675-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45894.46731481481</v>
+        <v>45147</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9148,7 +9138,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9185,14 +9175,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 3309-2024</t>
+          <t>A 39257-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45317</v>
+        <v>45166.48097222222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9205,7 +9195,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9242,14 +9232,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 9295-2025</t>
+          <t>A 35608-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45714</v>
+        <v>44386.38070601852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9261,8 +9251,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9299,14 +9294,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 41588-2025</t>
+          <t>A 1566-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45901.63114583334</v>
+        <v>45670</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9319,7 +9314,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9356,14 +9351,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56904-2024</t>
+          <t>A 59607-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45628.58696759259</v>
+        <v>45638.74914351852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9376,7 +9371,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>8.9</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9413,14 +9408,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 34835-2025</t>
+          <t>A 34759-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45849.38855324074</v>
+        <v>45526</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9434,11 +9429,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9475,14 +9470,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 34825-2025</t>
+          <t>A 54604-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45849.38262731482</v>
+        <v>45617.683125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9494,13 +9489,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9537,14 +9527,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 14477-2025</t>
+          <t>A 60301-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45741.58723379629</v>
+        <v>45258</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9556,13 +9546,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9599,14 +9584,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 34824-2025</t>
+          <t>A 26021-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45849.38061342593</v>
+        <v>45091.29033564815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9620,11 +9605,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9661,14 +9646,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 34827-2025</t>
+          <t>A 41669-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45849.38547453703</v>
+        <v>44425</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9680,13 +9665,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9723,14 +9703,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 14482-2025</t>
+          <t>A 17344-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45741.59662037037</v>
+        <v>45414.58052083333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9742,13 +9722,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9785,14 +9760,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 42056-2025</t>
+          <t>A 24820-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45903.64190972222</v>
+        <v>45461.3465625</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9805,7 +9780,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9842,14 +9817,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 42050-2025</t>
+          <t>A 39707-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45903.63047453704</v>
+        <v>44818.95277777778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9863,11 +9838,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9904,14 +9879,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 41939-2025</t>
+          <t>A 24821-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45903.44396990741</v>
+        <v>45461.34765046297</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9923,13 +9898,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>8.699999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9966,14 +9936,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 42049-2025</t>
+          <t>A 24833-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45903.63034722222</v>
+        <v>45461.39246527778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9986,7 +9956,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10023,14 +9993,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 36089-2025</t>
+          <t>A 41696-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45866</v>
+        <v>45176</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10043,7 +10013,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10080,14 +10050,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 21449-2021</t>
+          <t>A 16109-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44321.46297453704</v>
+        <v>45406.46753472222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10099,13 +10069,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10142,14 +10107,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 24391-2024</t>
+          <t>A 5562-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45457.63850694444</v>
+        <v>45693</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10162,7 +10127,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10199,14 +10164,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 24392-2024</t>
+          <t>A 5590-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45457.64085648148</v>
+        <v>45693</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10219,7 +10184,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10256,14 +10221,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 14315-2025</t>
+          <t>A 12183-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45740.72116898148</v>
+        <v>45729.46353009259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10276,7 +10241,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10313,14 +10278,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 43206-2025</t>
+          <t>A 46410-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45910.44984953704</v>
+        <v>44444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10333,7 +10298,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10370,14 +10335,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 34206-2022</t>
+          <t>A 52303-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44791.65267361111</v>
+        <v>45608.75231481482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10389,13 +10354,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10432,14 +10392,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 17716-2025</t>
+          <t>A 23277-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45758.44623842592</v>
+        <v>45453.40982638889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10452,7 +10412,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10489,14 +10449,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 43535-2023</t>
+          <t>A 26657-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45184</v>
+        <v>45810.39180555556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10508,8 +10468,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10546,14 +10511,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 49498-2024</t>
+          <t>A 56871-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45596.3672337963</v>
+        <v>44481.78949074074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10565,13 +10530,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10608,14 +10568,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 35659-2023</t>
+          <t>A 57316-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45147</v>
+        <v>44896.32079861111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10627,8 +10587,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10665,14 +10630,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 37550-2025</t>
+          <t>A 43843-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45879.91046296297</v>
+        <v>45187</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10684,8 +10649,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10722,14 +10692,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 52505-2023</t>
+          <t>A 43919-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45225</v>
+        <v>45182</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10742,7 +10712,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10779,14 +10749,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 26022-2023</t>
+          <t>A 64090-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45091.29174768519</v>
+        <v>45279.43923611111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10800,11 +10770,11 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10841,14 +10811,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 38179-2023</t>
+          <t>A 27844-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45161.45337962963</v>
+        <v>45817.39009259259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10831,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10898,14 +10868,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 14025-2021</t>
+          <t>A 27878-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44277.65498842593</v>
+        <v>45817.443125</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10888,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>7.7</v>
+        <v>2.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10955,14 +10925,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 45645-2022</t>
+          <t>A 47030-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44845.65557870371</v>
+        <v>45929.58944444444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10945,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11012,14 +10982,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 47030-2025</t>
+          <t>A 5049-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45929.58944444444</v>
+        <v>44593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11002,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11069,14 +11039,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 40497-2024</t>
+          <t>A 59056-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45555.57101851852</v>
+        <v>45636</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11059,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11126,14 +11096,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 12183-2025</t>
+          <t>A 25723-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45729.46353009259</v>
+        <v>45090.3674537037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11116,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11183,14 +11153,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 22389-2023</t>
+          <t>A 9295-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45070</v>
+        <v>45714</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11173,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11240,14 +11210,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 48229-2025</t>
+          <t>A 4723-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45933.51694444445</v>
+        <v>44957.51490740741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11297,14 +11267,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 41696-2023</t>
+          <t>A 53129-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45176</v>
+        <v>45229</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11317,7 +11287,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11354,14 +11324,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 42049-2023</t>
+          <t>A 46688-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45177</v>
+        <v>45198.51881944444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11373,13 +11343,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11416,14 +11381,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 48775-2025</t>
+          <t>A 12646-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45937.00422453704</v>
+        <v>45384.34563657407</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11401,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11473,14 +11438,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 46544-2021</t>
+          <t>A 8589-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44445</v>
+        <v>44613.55984953704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11492,8 +11457,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11530,14 +11500,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 40126-2021</t>
+          <t>A 48229-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44418</v>
+        <v>45933.51694444445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11550,7 +11520,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11587,14 +11557,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 29669-2025</t>
+          <t>A 24822-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45825</v>
+        <v>45461.34818287037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11607,7 +11577,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11644,14 +11614,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 35608-2021</t>
+          <t>A 32501-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44386.38070601852</v>
+        <v>45838.46260416666</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11639,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11706,14 +11676,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 49675-2025</t>
+          <t>A 5674-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45939</v>
+        <v>44960.66104166667</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11725,8 +11695,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11763,14 +11738,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 49671-2025</t>
+          <t>A 46544-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45939</v>
+        <v>44445</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11758,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11820,14 +11795,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 49676-2025</t>
+          <t>A 48775-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45939</v>
+        <v>45937.00422453704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11815,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11877,14 +11852,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51002-2025</t>
+          <t>A 45159-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45947.36173611111</v>
+        <v>45191.49001157407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11872,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11934,14 +11909,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 16085-2024</t>
+          <t>A 34835-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45406.37230324074</v>
+        <v>45849.38855324074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11953,8 +11928,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11991,14 +11971,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 51245-2025</t>
+          <t>A 34824-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45947.80872685185</v>
+        <v>45849.38061342593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12010,8 +11990,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12048,14 +12033,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 51246-2025</t>
+          <t>A 34827-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45947.81226851852</v>
+        <v>45849.38547453703</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12067,8 +12052,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12105,14 +12095,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 63825-2023</t>
+          <t>A 34825-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45278</v>
+        <v>45849.38262731482</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12130,7 +12120,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12167,14 +12157,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 26278-2021</t>
+          <t>A 14477-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44347</v>
+        <v>45741.58723379629</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12188,11 +12178,11 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12229,14 +12219,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 12907-2025</t>
+          <t>A 14482-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45733.8203587963</v>
+        <v>45741.59662037037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12248,8 +12238,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12286,14 +12281,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 40710-2021</t>
+          <t>A 56904-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44420</v>
+        <v>45628.58696759259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12301,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.1</v>
+        <v>8.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12343,14 +12338,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 29018-2023</t>
+          <t>A 58829-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45104</v>
+        <v>45252</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12358,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12400,14 +12395,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 52380-2025</t>
+          <t>A 3309-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45953.94951388889</v>
+        <v>45317</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12419,13 +12414,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12462,14 +12452,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 60301-2023</t>
+          <t>A 46198-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45258</v>
+        <v>45196</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12482,7 +12472,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12519,14 +12509,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 38177-2023</t>
+          <t>A 36064-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45161.44978009259</v>
+        <v>45149</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12539,7 +12529,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>8.5</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12576,14 +12566,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53600-2025</t>
+          <t>A 11864-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45960</v>
+        <v>45728.41668981482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12595,13 +12585,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>9.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12638,14 +12623,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 10882-2024</t>
+          <t>A 43254-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45370</v>
+        <v>44834</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12657,13 +12642,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12700,14 +12680,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 15012-2023</t>
+          <t>A 16529-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45015</v>
+        <v>45408.42216435185</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12719,8 +12699,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12757,14 +12742,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 8295-2024</t>
+          <t>A 36089-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45352.43674768518</v>
+        <v>45866</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12777,7 +12762,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12814,14 +12799,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 39707-2022</t>
+          <t>A 29669-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44818.95277777778</v>
+        <v>45825</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12833,13 +12818,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12876,14 +12856,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 54595-2025</t>
+          <t>A 49498-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45965.7556712963</v>
+        <v>45596.3672337963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,6 +12873,11 @@
       <c r="E190" t="inlineStr">
         <is>
           <t>NORA</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -12933,14 +12918,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 55035-2025</t>
+          <t>A 21449-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45967.64612268518</v>
+        <v>44321.46297453704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12952,8 +12937,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12990,14 +12980,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 56565-2025</t>
+          <t>A 49671-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45974</v>
+        <v>45939</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13010,7 +13000,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13047,14 +13037,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 24820-2024</t>
+          <t>A 49676-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45461.3465625</v>
+        <v>45939</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13067,7 +13057,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13104,14 +13094,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 55869-2025</t>
+          <t>A 51002-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45973.35285879629</v>
+        <v>45947.36173611111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13124,7 +13114,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13161,14 +13151,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 57639-2023</t>
+          <t>A 49675-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45246</v>
+        <v>45939</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13180,13 +13170,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13223,14 +13208,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 12699-2023</t>
+          <t>A 37550-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45000</v>
+        <v>45879.91046296297</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13242,13 +13227,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13285,14 +13265,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 45234-2023</t>
+          <t>A 51245-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45191.59268518518</v>
+        <v>45947.80872685185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13305,7 +13285,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13342,14 +13322,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 12646-2024</t>
+          <t>A 51246-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45384.34563657407</v>
+        <v>45947.81226851852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13362,7 +13342,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>8.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13399,14 +13379,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 64026-2025</t>
+          <t>A 64089-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46021.47569444445</v>
+        <v>45279</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13418,8 +13398,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13456,14 +13441,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 58521-2025</t>
+          <t>A 45229-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45985</v>
+        <v>45191</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13476,7 +13461,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13513,14 +13498,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 73009-2021</t>
+          <t>A 10079-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44550.33282407407</v>
+        <v>45364.42604166667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13538,7 +13523,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13575,14 +13560,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 40339-2024</t>
+          <t>A 52380-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45555.33125</v>
+        <v>45953.94951388889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13594,8 +13579,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13632,14 +13622,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 1766-2026</t>
+          <t>A 49959-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46034.6880787037</v>
+        <v>45215.38530092593</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13652,7 +13642,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13689,14 +13679,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 43843-2023</t>
+          <t>A 12907-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45187</v>
+        <v>45733.8203587963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13708,13 +13698,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13751,14 +13736,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 60152-2025</t>
+          <t>A 57639-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45994</v>
+        <v>45246</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13770,8 +13755,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>9.4</v>
+        <v>1.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13808,14 +13798,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 60166-2025</t>
+          <t>A 16957-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45994</v>
+        <v>45755.44732638889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13828,7 +13818,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13865,14 +13855,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 60169-2025</t>
+          <t>A 42049-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45994</v>
+        <v>45177</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13884,8 +13874,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13922,14 +13917,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 348-2025</t>
+          <t>A 53600-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45660</v>
+        <v>45960</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13941,8 +13936,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>7.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13979,14 +13979,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 37849-2023</t>
+          <t>A 29112-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45158</v>
+        <v>45105.39409722222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14036,14 +14036,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 60548-2025</t>
+          <t>A 48610-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45995.71252314815</v>
+        <v>45208</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14093,14 +14093,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 55766-2024</t>
+          <t>A 34206-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45623.37702546296</v>
+        <v>44791.65267361111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14112,8 +14112,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>18.5</v>
+        <v>1.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14150,14 +14155,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 60873-2025</t>
+          <t>A 38177-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45999.55505787037</v>
+        <v>45161.44978009259</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14170,7 +14175,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14207,14 +14212,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 60843-2025</t>
+          <t>A 12699-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45999.48747685185</v>
+        <v>45000</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14226,8 +14231,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14264,14 +14274,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 60892-2025</t>
+          <t>A 54595-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45999.57278935185</v>
+        <v>45965.7556712963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14284,7 +14294,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14321,14 +14331,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 49959-2023</t>
+          <t>A 55035-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45215.38530092593</v>
+        <v>45967.64612268518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14341,7 +14351,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14378,14 +14388,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 36064-2023</t>
+          <t>A 55869-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45149</v>
+        <v>45973.35285879629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14398,7 +14408,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14435,14 +14445,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 46688-2023</t>
+          <t>A 14025-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45198.51881944444</v>
+        <v>44277.65498842593</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14455,7 +14465,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.4</v>
+        <v>7.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14492,14 +14502,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 9457-2025</t>
+          <t>A 56565-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45714</v>
+        <v>45974</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14512,7 +14522,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14549,14 +14559,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 34759-2024</t>
+          <t>A 14315-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45526</v>
+        <v>45740.72116898148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14568,13 +14578,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14611,14 +14616,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 17770-2022</t>
+          <t>A 16540-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44682.64953703704</v>
+        <v>45408.4334837963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14631,7 +14636,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14668,14 +14673,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 3686-2026</t>
+          <t>A 40710-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46043.44011574074</v>
+        <v>44420</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14688,7 +14693,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14725,14 +14730,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 16529-2024</t>
+          <t>A 2413-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45408.42216435185</v>
+        <v>45310</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14744,13 +14749,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14787,14 +14787,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 39257-2023</t>
+          <t>A 58521-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45166.48097222222</v>
+        <v>45985</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14844,14 +14844,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 24818-2024</t>
+          <t>A 45645-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45461.33123842593</v>
+        <v>44845.65557870371</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14901,14 +14901,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 11864-2025</t>
+          <t>A 40497-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45728.41668981482</v>
+        <v>45555.57101851852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14958,14 +14958,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 11888-2025</t>
+          <t>A 34722-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45728.45688657407</v>
+        <v>45526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14977,8 +14977,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15015,14 +15020,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 62217-2023</t>
+          <t>A 27767-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45267.51355324074</v>
+        <v>45098.41659722223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15035,7 +15040,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15072,14 +15077,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 20565-2025</t>
+          <t>A 13585-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45775.66307870371</v>
+        <v>45389.85309027778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15091,13 +15096,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15134,14 +15134,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 53129-2023</t>
+          <t>A 1766-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45229</v>
+        <v>46034.6880787037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15191,14 +15191,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 62592-2021</t>
+          <t>A 60152-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44503</v>
+        <v>45994</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15248,14 +15248,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 16957-2025</t>
+          <t>A 60169-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45755.44732638889</v>
+        <v>45994</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15305,14 +15305,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 34722-2024</t>
+          <t>A 4977-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45526</v>
+        <v>44958.46266203704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15324,13 +15324,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15367,14 +15362,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 2261-2026</t>
+          <t>A 60166-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46036</v>
+        <v>45994</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15387,7 +15382,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15424,14 +15419,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 26023-2023</t>
+          <t>A 60548-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45091.2925</v>
+        <v>45995.71252314815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15443,13 +15438,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15486,14 +15476,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 57316-2022</t>
+          <t>A 63825-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44896.32079861111</v>
+        <v>45278</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15511,7 +15501,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15548,14 +15538,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 48610-2023</t>
+          <t>A 24818-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45208</v>
+        <v>45461.33123842593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15568,7 +15558,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15605,14 +15595,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 24832-2024</t>
+          <t>A 1521-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45461.38202546296</v>
+        <v>45670</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15625,7 +15615,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15662,14 +15652,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 7579-2024</t>
+          <t>A 60892-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45348</v>
+        <v>45999.57278935185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15682,7 +15672,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.7</v>
+        <v>9.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15719,14 +15709,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 41669-2021</t>
+          <t>A 60873-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44425</v>
+        <v>45999.55505787037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15739,7 +15729,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15776,14 +15766,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 34164-2022</t>
+          <t>A 60843-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44791.58640046296</v>
+        <v>45999.48747685185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15795,13 +15785,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15838,14 +15823,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 16537-2024</t>
+          <t>A 53472-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45408.43247685185</v>
+        <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15857,13 +15842,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15900,14 +15880,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 8589-2022</t>
+          <t>A 3686-2026</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44613.55984953704</v>
+        <v>46043.44011574074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15919,13 +15899,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15969,7 +15944,7 @@
         <v>45224</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16019,14 +15994,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 5674-2023</t>
+          <t>A 17352-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44960.66104166667</v>
+        <v>45414.5908912037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16038,13 +16013,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16081,14 +16051,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 35675-2023</t>
+          <t>A 16537-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45147</v>
+        <v>45408.43247685185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16098,6 +16068,11 @@
       <c r="E245" t="inlineStr">
         <is>
           <t>NORA</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G245" t="n">
@@ -16138,14 +16113,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 31957-2024</t>
+          <t>A 16557-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45510.49798611111</v>
+        <v>45408.45260416667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16157,8 +16132,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16195,14 +16175,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 1521-2025</t>
+          <t>A 17770-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45670</v>
+        <v>44682.64953703704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16215,7 +16195,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16252,14 +16232,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 24821-2024</t>
+          <t>A 48707-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45461.34765046297</v>
+        <v>44859</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16272,7 +16252,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>12.2</v>
+        <v>7.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16309,14 +16289,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 24833-2024</t>
+          <t>A 56136-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45461.39246527778</v>
+        <v>44889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16329,7 +16309,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16366,14 +16346,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 61952-2023</t>
+          <t>A 7579-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45266.56415509259</v>
+        <v>45348</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16386,7 +16366,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16423,14 +16403,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 17352-2024</t>
+          <t>A 27577-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45414.5908912037</v>
+        <v>45474.65008101852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16442,8 +16422,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>0.9</v>
+        <v>19</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16480,14 +16465,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 59607-2024</t>
+          <t>A 26022-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45638.74914351852</v>
+        <v>45091.29174768519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16499,8 +16484,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16537,14 +16527,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 4977-2023</t>
+          <t>A 15012-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44958.46266203704</v>
+        <v>45015</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16557,7 +16547,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16594,14 +16584,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 33887-2024</t>
+          <t>A 45234-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45523.3167824074</v>
+        <v>45191.59268518518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16614,7 +16604,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16651,14 +16641,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 46410-2021</t>
+          <t>A 60397-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44444</v>
+        <v>44910.90956018519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16671,7 +16661,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16708,14 +16698,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 29112-2023</t>
+          <t>A 17716-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45105.39409722222</v>
+        <v>45758.44623842592</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16728,7 +16718,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16765,14 +16755,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 24822-2024</t>
+          <t>A 40339-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45461.34818287037</v>
+        <v>45555.33125</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16785,7 +16775,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16822,14 +16812,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 43919-2023</t>
+          <t>A 2261-2026</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45182</v>
+        <v>46036</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16842,7 +16832,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16879,14 +16869,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 45229-2023</t>
+          <t>A 64026-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45191</v>
+        <v>46021.47569444445</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16899,7 +16889,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16936,14 +16926,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 60397-2022</t>
+          <t>A 26278-2021</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44910.90956018519</v>
+        <v>44347</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16955,8 +16945,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16993,14 +16988,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 11631-2022</t>
+          <t>A 31957-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44631</v>
+        <v>45510.49798611111</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17012,13 +17007,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17055,14 +17045,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 8936-2025</t>
+          <t>A 9754-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45714</v>
+        <v>44618.81180555555</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17075,7 +17065,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17112,14 +17102,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 27767-2023</t>
+          <t>A 33887-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45098.41659722223</v>
+        <v>45523.3167824074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17132,7 +17122,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17169,14 +17159,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 13563-2024</t>
+          <t>A 35659-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45388.99935185185</v>
+        <v>45147</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17189,7 +17179,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17226,14 +17216,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 64090-2023</t>
+          <t>A 17140-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45279.43923611111</v>
+        <v>44677.53418981482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17245,13 +17235,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17288,14 +17273,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 58829-2023</t>
+          <t>A 35330-2021</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45252</v>
+        <v>44384.81996527778</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17345,14 +17330,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 25723-2023</t>
+          <t>A 40126-2021</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45090.3674537037</v>
+        <v>44418</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17365,7 +17350,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17402,14 +17387,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 59056-2024</t>
+          <t>A 18134-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45636</v>
+        <v>44302</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17422,7 +17407,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.9</v>
+        <v>16.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17459,14 +17444,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 18134-2021</t>
+          <t>A 34026-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44302</v>
+        <v>44791.32811342592</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17479,7 +17464,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>16.8</v>
+        <v>0.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17516,14 +17501,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 9754-2022</t>
+          <t>A 24828-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44618.81180555555</v>
+        <v>45461.3750462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17536,7 +17521,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17573,14 +17558,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 35656-2024</t>
+          <t>A 52505-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45532</v>
+        <v>45225</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17593,7 +17578,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17630,14 +17615,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 2413-2024</t>
+          <t>A 29018-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45310</v>
+        <v>45104</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17650,7 +17635,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17687,14 +17672,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 21846-2025</t>
+          <t>A 62217-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45784.33967592593</v>
+        <v>45267.51355324074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17707,7 +17692,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>14.6</v>
+        <v>1.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17744,14 +17729,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 16281-2024</t>
+          <t>A 34755-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45407.36091435186</v>
+        <v>45526</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17763,8 +17748,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17801,14 +17791,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 1566-2025</t>
+          <t>A 59637-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45670</v>
+        <v>44493</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17821,7 +17811,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17858,14 +17848,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 54604-2024</t>
+          <t>A 10882-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45617.683125</v>
+        <v>45370</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17877,8 +17867,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G276" t="n">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17915,14 +17910,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 17344-2024</t>
+          <t>A 8295-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45414.58052083333</v>
+        <v>45352.43674768518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17935,7 +17930,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17972,14 +17967,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 5562-2025</t>
+          <t>A 24832-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45693</v>
+        <v>45461.38202546296</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17992,7 +17987,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>5.4</v>
+        <v>2.7</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -18029,14 +18024,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 5590-2025</t>
+          <t>A 70200-2021</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45693</v>
+        <v>44534.82171296296</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18049,7 +18044,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18086,14 +18081,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 26657-2025</t>
+          <t>A 22389-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45810.39180555556</v>
+        <v>45070</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18105,13 +18100,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G280" t="n">
-        <v>6.8</v>
+        <v>2.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -18148,14 +18138,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 52303-2024</t>
+          <t>A 35656-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45608.75231481482</v>
+        <v>45532</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18168,7 +18158,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18205,14 +18195,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 23277-2024</t>
+          <t>A 11631-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45453.40982638889</v>
+        <v>44631</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18224,8 +18214,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G282" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -18262,14 +18257,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 27878-2025</t>
+          <t>A 5217-2022</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45817.443125</v>
+        <v>44593</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18281,8 +18276,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G283" t="n">
-        <v>2.9</v>
+        <v>38.4</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -18319,14 +18319,14 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 27844-2025</t>
+          <t>A 37849-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45817.39009259259</v>
+        <v>45158</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z284"/>
+  <dimension ref="A1:Z283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>46013.56689814815</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44263</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44841.45446759259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45980.60565972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>46013.56317129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>45751.44270833334</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,14 +1245,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 56956-2025</t>
+          <t>A 55852-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45978.65591435185</v>
+        <v>45623</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,26 +1266,26 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>22.2</v>
+        <v>7.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1294,15 +1294,110 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Storspov
+Stare
+Tofsvipa
+Fiskmås
+Skrattmås
+Tibast</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55852-2024 artfynd.xlsx", "A 55852-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55852-2024 karta.png", "A 55852-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55852-2024 FSC-klagomål.docx", "A 55852-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55852-2024 FSC-klagomål mail.docx", "A 55852-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55852-2024 tillsynsbegäran.docx", "A 55852-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55852-2024 tillsynsbegäran mail.docx", "A 55852-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 56956-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45978.65591435185</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tretåig hackspett
@@ -1312,127 +1407,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56956-2025 artfynd.xlsx", "A 56956-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56956-2025 karta.png", "A 56956-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56956-2025 FSC-klagomål.docx", "A 56956-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56956-2025 FSC-klagomål mail.docx", "A 56956-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56956-2025 tillsynsbegäran.docx", "A 56956-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56956-2025 tillsynsbegäran mail.docx", "A 56956-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56956-2025 prioriterade fågelarter.docx", "A 56956-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 55852-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45623</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>5</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Storspov
-Stare
-Tofsvipa
-Fiskmås
-Skrattmås
-Tibast</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55852-2024 artfynd.xlsx", "A 55852-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55852-2024 karta.png", "A 55852-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55852-2024 FSC-klagomål.docx", "A 55852-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55852-2024 FSC-klagomål mail.docx", "A 55852-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55852-2024 tillsynsbegäran.docx", "A 55852-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55852-2024 tillsynsbegäran mail.docx", "A 55852-2024")</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>44495</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45978.64929398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,14 +1633,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 59526-2025</t>
+          <t>A 45233-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45989.66488425926</v>
+        <v>44439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1652,19 +1652,14 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
@@ -1691,139 +1686,144 @@
         <v>3</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp
+Vedskivlav
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 45233-2021 artfynd.xlsx", "A 45233-2021")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 45233-2021 karta.png", "A 45233-2021")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 45233-2021 FSC-klagomål.docx", "A 45233-2021")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 45233-2021 FSC-klagomål mail.docx", "A 45233-2021")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 45233-2021 tillsynsbegäran.docx", "A 45233-2021")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 45233-2021 tillsynsbegäran mail.docx", "A 45233-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 59526-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45989.66488425926</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 59526-2025 artfynd.xlsx", "A 59526-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 59526-2025 karta.png", "A 59526-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 59526-2025 FSC-klagomål.docx", "A 59526-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 59526-2025 FSC-klagomål mail.docx", "A 59526-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 59526-2025 tillsynsbegäran.docx", "A 59526-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 59526-2025 tillsynsbegäran mail.docx", "A 59526-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 59526-2025 prioriterade fågelarter.docx", "A 59526-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 45233-2021</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44439</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Skrovlig taggsvamp
-Vedskivlav
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 45233-2021 artfynd.xlsx", "A 45233-2021")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 45233-2021 karta.png", "A 45233-2021")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 45233-2021 FSC-klagomål.docx", "A 45233-2021")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 45233-2021 FSC-klagomål mail.docx", "A 45233-2021")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 45233-2021 tillsynsbegäran.docx", "A 45233-2021")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 45233-2021 tillsynsbegäran mail.docx", "A 45233-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 54598-2025</t>
+          <t>A 51036-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45965.77918981481</v>
+        <v>44868.3161574074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1836,16 +1836,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1870,118 +1870,118 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Blåmossa
+Vårärt</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 51036-2022 artfynd.xlsx", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 51036-2022 karta.png", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 51036-2022 FSC-klagomål.docx", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 51036-2022 FSC-klagomål mail.docx", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 51036-2022 tillsynsbegäran.docx", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 51036-2022 tillsynsbegäran mail.docx", "A 51036-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 54598-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45965.77918981481</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Drillsnäppa
 Vanlig snok</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 51036-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44868.3161574074</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Vårärt</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 51036-2022 artfynd.xlsx", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 51036-2022 karta.png", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 51036-2022 FSC-klagomål.docx", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 51036-2022 FSC-klagomål mail.docx", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 51036-2022 tillsynsbegäran.docx", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 51036-2022 tillsynsbegäran mail.docx", "A 51036-2022")</f>
         <v/>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
         <v>46013.57747685185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>46013.58233796297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2160,14 +2160,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 24567-2021</t>
+          <t>A 26328-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44339.70040509259</v>
+        <v>44347</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,13 +2180,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2214,45 +2214,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 24567-2021 artfynd.xlsx", "A 24567-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26328-2021 artfynd.xlsx", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 24567-2021 karta.png", "A 24567-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26328-2021 karta.png", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 24567-2021 FSC-klagomål.docx", "A 24567-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26328-2021 FSC-klagomål.docx", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 24567-2021 FSC-klagomål mail.docx", "A 24567-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26328-2021 FSC-klagomål mail.docx", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 24567-2021 tillsynsbegäran.docx", "A 24567-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26328-2021 tillsynsbegäran.docx", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 24567-2021 tillsynsbegäran mail.docx", "A 24567-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26328-2021 tillsynsbegäran mail.docx", "A 26328-2021")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 26328-2021</t>
+          <t>A 24567-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44347</v>
+        <v>44339.70040509259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,13 +2265,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2299,31 +2299,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26328-2021 artfynd.xlsx", "A 26328-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 24567-2021 artfynd.xlsx", "A 24567-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26328-2021 karta.png", "A 26328-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 24567-2021 karta.png", "A 24567-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26328-2021 FSC-klagomål.docx", "A 26328-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 24567-2021 FSC-klagomål.docx", "A 24567-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26328-2021 FSC-klagomål mail.docx", "A 26328-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 24567-2021 FSC-klagomål mail.docx", "A 24567-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26328-2021 tillsynsbegäran.docx", "A 26328-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 24567-2021 tillsynsbegäran.docx", "A 24567-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26328-2021 tillsynsbegäran mail.docx", "A 26328-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 24567-2021 tillsynsbegäran mail.docx", "A 24567-2021")</f>
         <v/>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
         <v>45408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,14 +2420,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 42036-2025</t>
+          <t>A 14306-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45903.61173611111</v>
+        <v>45740.70622685185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,10 +2440,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2474,45 +2474,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 20659-2025</t>
+          <t>A 16642-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45776.41106481481</v>
+        <v>45408.61318287037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,8 +2528,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>11.1</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2559,45 +2568,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16642-2024 artfynd.xlsx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16642-2024 karta.png", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16642-2024 FSC-klagomål.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16642-2024 FSC-klagomål mail.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16642-2024 tillsynsbegäran.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16642-2024 tillsynsbegäran mail.docx", "A 16642-2024")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 16642-2024</t>
+          <t>A 26658-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45408.61318287037</v>
+        <v>45810.39315972223</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2615,7 +2624,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2649,45 +2658,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16642-2024 artfynd.xlsx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16642-2024 karta.png", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16642-2024 FSC-klagomål.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16642-2024 FSC-klagomål mail.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16642-2024 tillsynsbegäran.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16642-2024 tillsynsbegäran mail.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 1520-2025</t>
+          <t>A 26659-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45670</v>
+        <v>45810.39408564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,17 +2708,22 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2724,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2734,45 +2748,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 43148-2025</t>
+          <t>A 1520-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45910.32248842593</v>
+        <v>45670</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2785,31 +2799,31 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2819,45 +2833,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Purpurknipprot</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 14312-2025</t>
+          <t>A 52639-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45740.71707175926</v>
+        <v>45219</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2869,8 +2883,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>2.9</v>
+        <v>7.3</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2904,49 +2923,49 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönsångare</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 15327-2024</t>
+          <t>A 32498-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45400.68243055556</v>
+        <v>45838.4570949074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2958,17 +2977,22 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2983,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2993,45 +3017,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 26658-2025</t>
+          <t>A 34826-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45810.39315972223</v>
+        <v>45849.38326388889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,7 +3073,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3087,41 +3111,41 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 26659-2025</t>
+          <t>A 33136-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45810.39408564815</v>
+        <v>45840</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3139,17 +3163,17 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -3163,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3173,45 +3197,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32498-2025</t>
+          <t>A 14312-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45838.4570949074</v>
+        <v>45740.71707175926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3223,13 +3247,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3238,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3253,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3263,45 +3282,49 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
+        <v/>
+      </c>
+      <c r="Z31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 34826-2025</t>
+          <t>A 16063-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45849.38326388889</v>
+        <v>45027</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3313,23 +3336,18 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>4.6</v>
+        <v>7.3</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -3343,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3353,45 +3371,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Violettkantad guldvinge</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 7148-2021</t>
+          <t>A 42036-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44238</v>
+        <v>45903.61173611111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3404,19 +3422,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3431,52 +3449,52 @@
         <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Väddnätfjäril</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 7148-2021 artfynd.xlsx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 7148-2021 karta.png", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 7148-2021 FSC-klagomål.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 7148-2021 FSC-klagomål mail.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 7148-2021 tillsynsbegäran.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 7148-2021 tillsynsbegäran mail.docx", "A 7148-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33136-2025</t>
+          <t>A 43148-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45840</v>
+        <v>45910.32248842593</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3488,22 +3506,17 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3518,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3528,45 +3541,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Purpurknipprot</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 55261-2025</t>
+          <t>A 20659-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45968.64734953704</v>
+        <v>45776.41106481481</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3578,22 +3591,17 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3608,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3618,45 +3626,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 56959-2025</t>
+          <t>A 15327-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45978.6584375</v>
+        <v>45400.68243055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,16 +3676,11 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3708,49 +3711,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56959-2025 artfynd.xlsx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56959-2025 karta.png", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56959-2025 FSC-klagomål.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56959-2025 FSC-klagomål mail.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56959-2025 tillsynsbegäran.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56959-2025 tillsynsbegäran mail.docx", "A 56959-2025")</f>
-        <v/>
-      </c>
-      <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56959-2025 prioriterade fågelarter.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 52639-2023</t>
+          <t>A 55261-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45219</v>
+        <v>45968.64734953704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3764,14 +3763,14 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7.3</v>
+        <v>11.4</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3802,49 +3801,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Grönsångare</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 16063-2023</t>
+          <t>A 56959-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45027</v>
+        <v>45978.6584375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3856,11 +3851,16 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3891,45 +3891,49 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Violettkantad guldvinge</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56959-2025 artfynd.xlsx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56959-2025 karta.png", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56959-2025 FSC-klagomål.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56959-2025 FSC-klagomål mail.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56959-2025 tillsynsbegäran.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56959-2025 tillsynsbegäran mail.docx", "A 56959-2025")</f>
+        <v/>
+      </c>
+      <c r="Z38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56959-2025 prioriterade fågelarter.docx", "A 56959-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14306-2025</t>
+          <t>A 53165-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45740.70622685185</v>
+        <v>44876.5034375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3941,17 +3945,22 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3966,59 +3975,27 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
-        <v/>
-      </c>
-      <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
-        <v/>
-      </c>
-      <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
-        <v/>
-      </c>
-      <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
-        <v/>
-      </c>
-      <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
-        <v/>
-      </c>
-      <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
-        <v/>
-      </c>
-      <c r="Z39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R39" s="2" t="inlineStr"/>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 53165-2022</t>
+          <t>A 67298-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44876.5034375</v>
+        <v>44523</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4036,7 +4013,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4073,14 +4050,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 67298-2021</t>
+          <t>A 29839-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44523</v>
+        <v>44362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4094,11 +4071,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4135,14 +4112,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 29839-2021</t>
+          <t>A 40338-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44362</v>
+        <v>44419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4154,13 +4131,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4197,14 +4169,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 40338-2021</t>
+          <t>A 49633-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44419</v>
+        <v>44862.43092592592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4216,8 +4188,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4254,14 +4231,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 49633-2022</t>
+          <t>A 35673-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44862.43092592592</v>
+        <v>44799.59944444444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4279,7 +4256,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4316,14 +4293,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 35673-2022</t>
+          <t>A 39709-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44799.59944444444</v>
+        <v>44818.95434027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4341,7 +4318,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4378,14 +4355,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 39709-2022</t>
+          <t>A 74451-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44818.95434027778</v>
+        <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4397,13 +4374,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4440,14 +4412,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 74451-2021</t>
+          <t>A 68890-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44560</v>
+        <v>44530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4459,8 +4431,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4497,14 +4474,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 68890-2021</t>
+          <t>A 30422-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44530</v>
+        <v>44761</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4516,13 +4493,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4559,14 +4531,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 30422-2022</t>
+          <t>A 47794-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44761</v>
+        <v>44448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4579,7 +4551,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4623,7 +4595,7 @@
         <v>44802.44491898148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4678,14 +4650,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 47794-2021</t>
+          <t>A 50003-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44448</v>
+        <v>44865.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4697,8 +4669,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4735,14 +4712,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 50003-2022</t>
+          <t>A 42899-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44865.4325462963</v>
+        <v>44431.34829861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4760,7 +4737,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4797,14 +4774,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 42899-2021</t>
+          <t>A 19166-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44431.34829861111</v>
+        <v>44308</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4822,7 +4799,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4859,14 +4836,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59606-2021</t>
+          <t>A 59590-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
         <v>44491</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4884,7 +4861,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4921,14 +4898,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37259-2022</t>
+          <t>A 48105-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44807.45756944444</v>
+        <v>44449</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4940,13 +4917,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4983,14 +4955,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37265-2022</t>
+          <t>A 59606-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44807.46988425926</v>
+        <v>44491</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5004,11 +4976,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5045,14 +5017,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 50208-2022</t>
+          <t>A 37259-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44865.6330787037</v>
+        <v>44807.45756944444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5070,7 +5042,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5107,14 +5079,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 18636-2022</t>
+          <t>A 37265-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44687.4733912037</v>
+        <v>44807.46988425926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5126,8 +5098,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5164,14 +5141,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 16326-2021</t>
+          <t>A 50208-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44292</v>
+        <v>44865.6330787037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5183,8 +5160,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5221,14 +5203,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 15358-2021</t>
+          <t>A 26870-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44284</v>
+        <v>44740.53197916667</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5240,8 +5222,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>7.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5278,14 +5265,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 34193-2022</t>
+          <t>A 18636-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44791.63450231482</v>
+        <v>44687.4733912037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5297,13 +5284,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5340,14 +5322,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 43941-2022</t>
+          <t>A 49634-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44838.57731481481</v>
+        <v>44862.43146990741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5365,7 +5347,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8.4</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5402,14 +5384,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40643-2021</t>
+          <t>A 49635-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44420</v>
+        <v>44862.43199074074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5421,8 +5403,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5459,14 +5446,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 22650-2022</t>
+          <t>A 42743-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44714</v>
+        <v>44428.61717592592</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5480,11 +5467,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5521,14 +5508,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 19166-2021</t>
+          <t>A 44850-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44308</v>
+        <v>44841</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5546,7 +5533,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5583,14 +5570,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 49634-2022</t>
+          <t>A 35730-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44862.43146990741</v>
+        <v>44799</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5608,7 +5595,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5645,14 +5632,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 49635-2022</t>
+          <t>A 35731-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44862.43199074074</v>
+        <v>44799.73486111111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5670,7 +5657,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5707,14 +5694,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42743-2021</t>
+          <t>A 68610-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44428.61717592592</v>
+        <v>44529.56203703704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5726,13 +5713,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5769,14 +5751,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44850-2022</t>
+          <t>A 68887-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44841</v>
+        <v>44530</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5794,7 +5776,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6.9</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5831,14 +5813,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 35730-2022</t>
+          <t>A 37266-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44799</v>
+        <v>44807.47078703704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5856,7 +5838,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5893,14 +5875,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35731-2022</t>
+          <t>A 5039-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44799.73486111111</v>
+        <v>44593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5912,13 +5894,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5955,14 +5932,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59590-2021</t>
+          <t>A 49135-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44491</v>
+        <v>44453</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5974,13 +5951,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6017,14 +5989,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 48105-2021</t>
+          <t>A 35605-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44449</v>
+        <v>44386.37886574074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6036,8 +6008,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6074,14 +6051,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26870-2022</t>
+          <t>A 47788-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44740.53197916667</v>
+        <v>44448</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6093,13 +6070,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6136,14 +6108,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 68887-2021</t>
+          <t>A 26314-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44530</v>
+        <v>44735.59861111111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6161,7 +6133,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6198,14 +6170,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 37266-2022</t>
+          <t>A 16326-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44807.47078703704</v>
+        <v>44292</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6217,13 +6189,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6260,14 +6227,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 35605-2021</t>
+          <t>A 15358-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44386.37886574074</v>
+        <v>44284</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6279,13 +6246,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6322,14 +6284,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 47788-2021</t>
+          <t>A 38798-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44448</v>
+        <v>44410</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6342,7 +6304,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6379,14 +6341,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 68610-2021</t>
+          <t>A 27648-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44529.56203703704</v>
+        <v>44354.37946759259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6399,7 +6361,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>9.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6436,14 +6398,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 49135-2021</t>
+          <t>A 24389-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44453</v>
+        <v>45457.63585648148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6456,7 +6418,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6493,14 +6455,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26314-2022</t>
+          <t>A 21695-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44735.59861111111</v>
+        <v>44707.88415509259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6512,13 +6474,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6555,14 +6512,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 5039-2022</t>
+          <t>A 34193-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44593</v>
+        <v>44791.63450231482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6574,8 +6531,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6612,14 +6574,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 27648-2021</t>
+          <t>A 35608-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44354.37946759259</v>
+        <v>44386.38070601852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6631,8 +6593,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>9.6</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6669,14 +6636,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 21695-2022</t>
+          <t>A 64089-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44707.88415509259</v>
+        <v>45279</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6688,8 +6655,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6726,14 +6698,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39837-2025</t>
+          <t>A 43941-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45891.56561342593</v>
+        <v>44838.57731481481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6745,8 +6717,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>8.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6783,14 +6760,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62592-2021</t>
+          <t>A 35330-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44503</v>
+        <v>44384.81996527778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6803,7 +6780,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.4</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6840,14 +6817,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 40082-2025</t>
+          <t>A 34026-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45894.46731481481</v>
+        <v>44791.32811342592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6897,14 +6874,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 20565-2025</t>
+          <t>A 70200-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45775.66307870371</v>
+        <v>44534.82171296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6916,13 +6893,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6959,14 +6931,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 49632-2022</t>
+          <t>A 16085-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44862.43023148148</v>
+        <v>45406.37230324074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6978,13 +6950,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7021,14 +6988,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24391-2024</t>
+          <t>A 59637-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45457.63850694444</v>
+        <v>44493</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7078,14 +7045,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 24392-2024</t>
+          <t>A 63825-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45457.64085648148</v>
+        <v>45278</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7097,8 +7064,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7135,14 +7107,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 41676-2021</t>
+          <t>A 56136-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44425.50175925926</v>
+        <v>44889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7155,7 +7127,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7192,14 +7164,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41588-2025</t>
+          <t>A 26278-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45901.63114583334</v>
+        <v>44347</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7211,8 +7183,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7249,14 +7226,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 12815-2024</t>
+          <t>A 43254-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45384.66650462963</v>
+        <v>44834</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7269,7 +7246,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7306,14 +7283,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 35144-2023</t>
+          <t>A 40710-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45145</v>
+        <v>44420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7326,7 +7303,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7363,14 +7340,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 4910-2023</t>
+          <t>A 46198-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44958.38488425926</v>
+        <v>45196</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7383,7 +7360,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7420,14 +7397,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 348-2025</t>
+          <t>A 29018-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45660</v>
+        <v>45104</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7440,7 +7417,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7477,14 +7454,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 73009-2021</t>
+          <t>A 13585-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44550.33282407407</v>
+        <v>45389.85309027778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7496,13 +7473,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7539,14 +7511,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34164-2022</t>
+          <t>A 40643-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44791.58640046296</v>
+        <v>44420</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7558,13 +7530,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7601,14 +7568,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 26916-2022</t>
+          <t>A 60301-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44740</v>
+        <v>45258</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7620,13 +7587,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7663,14 +7625,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 45216-2023</t>
+          <t>A 16109-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45191</v>
+        <v>45406.46753472222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7683,7 +7645,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7720,14 +7682,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 38798-2021</t>
+          <t>A 26021-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44410</v>
+        <v>45091.29033564815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7739,8 +7701,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7777,14 +7744,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26320-2022</t>
+          <t>A 38177-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44735.60184027778</v>
+        <v>45161.44978009259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7796,13 +7763,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7839,14 +7801,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 39513-2025</t>
+          <t>A 41676-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45890.41581018519</v>
+        <v>44425.50175925926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7858,13 +7820,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>9.300000000000001</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7901,14 +7858,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 8936-2025</t>
+          <t>A 53472-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45714</v>
+        <v>44879</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7921,7 +7878,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7958,14 +7915,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 53365-2023</t>
+          <t>A 22650-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45229.66844907407</v>
+        <v>44714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7979,11 +7936,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8020,14 +7977,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 42056-2025</t>
+          <t>A 16540-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45903.64190972222</v>
+        <v>45408.4334837963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8040,7 +7997,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8077,14 +8034,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 42050-2025</t>
+          <t>A 10882-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45903.63047453704</v>
+        <v>45370</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8098,11 +8055,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8139,14 +8096,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 41939-2025</t>
+          <t>A 53365-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45903.44396990741</v>
+        <v>45229.66844907407</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8160,11 +8117,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>8.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8201,14 +8158,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 42049-2025</t>
+          <t>A 15012-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45903.63034722222</v>
+        <v>45015</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8221,7 +8178,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8258,14 +8215,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61952-2023</t>
+          <t>A 56871-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45266.56415509259</v>
+        <v>44481.78949074074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8278,7 +8235,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8315,14 +8272,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 26023-2023</t>
+          <t>A 24828-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45091.2925</v>
+        <v>45461.3750462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8334,13 +8291,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8377,14 +8329,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 53938-2023</t>
+          <t>A 8295-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45231</v>
+        <v>45352.43674768518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8397,7 +8349,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8434,14 +8386,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 11888-2025</t>
+          <t>A 39707-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45728.45688657407</v>
+        <v>44818.95277777778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8453,8 +8405,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8491,14 +8448,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 13563-2024</t>
+          <t>A 12815-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45388.99935185185</v>
+        <v>45384.66650462963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8511,7 +8468,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8548,14 +8505,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 16085-2024</t>
+          <t>A 16557-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45406.37230324074</v>
+        <v>45408.45260416667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8567,8 +8524,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8605,14 +8567,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 21846-2025</t>
+          <t>A 4910-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45784.33967592593</v>
+        <v>44958.38488425926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8625,7 +8587,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>14.6</v>
+        <v>4.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8662,14 +8624,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 24389-2024</t>
+          <t>A 27577-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45457.63585648148</v>
+        <v>45474.65008101852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8681,8 +8643,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>4.8</v>
+        <v>19</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8719,14 +8686,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 55766-2024</t>
+          <t>A 53938-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45623.37702546296</v>
+        <v>45231</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8739,7 +8706,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>18.5</v>
+        <v>2.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8776,14 +8743,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 52879-2023</t>
+          <t>A 5217-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45226.47349537037</v>
+        <v>44593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8795,8 +8762,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>0.9</v>
+        <v>38.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8833,14 +8805,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 43206-2025</t>
+          <t>A 24820-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45910.44984953704</v>
+        <v>45461.3465625</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8853,7 +8825,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8890,14 +8862,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 9457-2025</t>
+          <t>A 5590-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45714</v>
+        <v>45693</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8910,7 +8882,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8947,14 +8919,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 38179-2023</t>
+          <t>A 57639-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45161.45337962963</v>
+        <v>45246</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8966,8 +8938,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9004,14 +8981,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 16281-2024</t>
+          <t>A 4723-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45407.36091435186</v>
+        <v>44957.51490740741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9024,7 +9001,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9061,14 +9038,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 43535-2023</t>
+          <t>A 35144-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45184</v>
+        <v>45145</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9081,7 +9058,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9118,14 +9095,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 35675-2023</t>
+          <t>A 26657-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45147</v>
+        <v>45810.39180555556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9137,8 +9114,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>6.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9175,14 +9157,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 39257-2023</t>
+          <t>A 12699-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45166.48097222222</v>
+        <v>45000</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9192,6 +9174,11 @@
       <c r="E127" t="inlineStr">
         <is>
           <t>NORA</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -9232,14 +9219,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35608-2021</t>
+          <t>A 52303-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44386.38070601852</v>
+        <v>45608.75231481482</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9251,13 +9238,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9294,14 +9276,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 1566-2025</t>
+          <t>A 34755-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45670</v>
+        <v>45526</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9313,8 +9295,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9351,14 +9338,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 59607-2024</t>
+          <t>A 5049-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45638.74914351852</v>
+        <v>44593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9371,7 +9358,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9408,14 +9395,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 34759-2024</t>
+          <t>A 23277-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45526</v>
+        <v>45453.40982638889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9427,13 +9414,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9470,14 +9452,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 54604-2024</t>
+          <t>A 45234-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45617.683125</v>
+        <v>45191.59268518518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9490,7 +9472,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9527,14 +9509,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60301-2023</t>
+          <t>A 12646-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45258</v>
+        <v>45384.34563657407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9547,7 +9529,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9584,14 +9566,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 26021-2023</t>
+          <t>A 10079-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45091.29033564815</v>
+        <v>45364.42604166667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9605,11 +9587,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9646,14 +9628,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 41669-2021</t>
+          <t>A 48707-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44425</v>
+        <v>44859</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9666,7 +9648,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9703,14 +9685,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 17344-2024</t>
+          <t>A 45159-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45414.58052083333</v>
+        <v>45191.49001157407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9723,7 +9705,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9760,14 +9742,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 24820-2024</t>
+          <t>A 52879-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45461.3465625</v>
+        <v>45226.47349537037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9780,7 +9762,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9817,14 +9799,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 39707-2022</t>
+          <t>A 27878-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44818.95277777778</v>
+        <v>45817.443125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9836,13 +9818,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9879,14 +9856,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 24821-2024</t>
+          <t>A 27844-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45461.34765046297</v>
+        <v>45817.39009259259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9899,7 +9876,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>12.2</v>
+        <v>1.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9936,14 +9913,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 24833-2024</t>
+          <t>A 45216-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45461.39246527778</v>
+        <v>45191</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9993,14 +9970,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 41696-2023</t>
+          <t>A 17140-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45176</v>
+        <v>44677.53418981482</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10013,7 +9990,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10050,14 +10027,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 16109-2024</t>
+          <t>A 8589-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45406.46753472222</v>
+        <v>44613.55984953704</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10069,8 +10046,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10107,14 +10089,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 5562-2025</t>
+          <t>A 3309-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45693</v>
+        <v>45317</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10127,7 +10109,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10164,14 +10146,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 5590-2025</t>
+          <t>A 73009-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45693</v>
+        <v>44550.33282407407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10183,8 +10165,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10221,14 +10208,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 12183-2025</t>
+          <t>A 9295-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45729.46353009259</v>
+        <v>45714</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10241,7 +10228,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10278,14 +10265,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46410-2021</t>
+          <t>A 40339-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44444</v>
+        <v>45555.33125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10298,7 +10285,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10335,14 +10322,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 52303-2024</t>
+          <t>A 43843-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45608.75231481482</v>
+        <v>45187</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10354,8 +10341,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10392,14 +10384,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 23277-2024</t>
+          <t>A 52379-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45453.40982638889</v>
+        <v>45224</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10412,7 +10404,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10449,14 +10441,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 26657-2025</t>
+          <t>A 348-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45810.39180555556</v>
+        <v>45660</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10468,13 +10460,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10511,14 +10498,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 56871-2021</t>
+          <t>A 37849-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44481.78949074074</v>
+        <v>45158</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10531,7 +10518,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10568,14 +10555,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 57316-2022</t>
+          <t>A 5674-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44896.32079861111</v>
+        <v>44960.66104166667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10589,11 +10576,11 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10630,14 +10617,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 43843-2023</t>
+          <t>A 32501-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45187</v>
+        <v>45838.46260416666</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10692,14 +10679,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 43919-2023</t>
+          <t>A 21449-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45182</v>
+        <v>44321.46297453704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10711,8 +10698,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10749,14 +10741,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 64090-2023</t>
+          <t>A 24391-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45279.43923611111</v>
+        <v>45457.63850694444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10768,13 +10760,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10811,14 +10798,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 27844-2025</t>
+          <t>A 24392-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45817.39009259259</v>
+        <v>45457.64085648148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10831,7 +10818,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10868,14 +10855,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 27878-2025</t>
+          <t>A 14315-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45817.443125</v>
+        <v>45740.72116898148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10888,7 +10875,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10925,14 +10912,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 47030-2025</t>
+          <t>A 35675-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45929.58944444444</v>
+        <v>45147</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10945,7 +10932,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10982,14 +10969,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 5049-2022</t>
+          <t>A 31957-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44593</v>
+        <v>45510.49798611111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11002,7 +10989,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11039,14 +11026,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59056-2024</t>
+          <t>A 55766-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45636</v>
+        <v>45623.37702546296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11059,7 +11046,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>18.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11096,14 +11083,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 25723-2023</t>
+          <t>A 1521-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45090.3674537037</v>
+        <v>45670</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11153,14 +11140,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 9295-2025</t>
+          <t>A 49959-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45714</v>
+        <v>45215.38530092593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11173,7 +11160,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11210,14 +11197,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 4723-2023</t>
+          <t>A 36064-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44957.51490740741</v>
+        <v>45149</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11230,7 +11217,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11267,14 +11254,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 53129-2023</t>
+          <t>A 46688-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45229</v>
+        <v>45198.51881944444</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11287,7 +11274,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11324,14 +11311,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 46688-2023</t>
+          <t>A 24821-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45198.51881944444</v>
+        <v>45461.34765046297</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11344,7 +11331,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.4</v>
+        <v>12.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11381,14 +11368,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 12646-2024</t>
+          <t>A 24833-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45384.34563657407</v>
+        <v>45461.39246527778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11401,7 +11388,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>8.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11438,14 +11425,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 8589-2022</t>
+          <t>A 9457-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44613.55984953704</v>
+        <v>45714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11457,13 +11444,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11500,14 +11482,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 48229-2025</t>
+          <t>A 34759-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45933.51694444445</v>
+        <v>45526</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11519,8 +11501,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11557,14 +11544,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 24822-2024</t>
+          <t>A 61952-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45461.34818287037</v>
+        <v>45266.56415509259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11577,7 +11564,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11614,14 +11601,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 32501-2025</t>
+          <t>A 34206-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45838.46260416666</v>
+        <v>44791.65267361111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11639,7 +11626,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11676,14 +11663,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 5674-2023</t>
+          <t>A 17716-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44960.66104166667</v>
+        <v>45758.44623842592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11695,13 +11682,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11738,14 +11720,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 46544-2021</t>
+          <t>A 17770-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44445</v>
+        <v>44682.64953703704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11758,7 +11740,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11795,14 +11777,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 48775-2025</t>
+          <t>A 16529-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45937.00422453704</v>
+        <v>45408.42216435185</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11814,8 +11796,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11852,14 +11839,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 45159-2023</t>
+          <t>A 43535-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45191.49001157407</v>
+        <v>45184</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11872,7 +11859,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11909,14 +11896,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 34835-2025</t>
+          <t>A 56904-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45849.38855324074</v>
+        <v>45628.58696759259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11928,13 +11915,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>8.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11971,14 +11953,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 34824-2025</t>
+          <t>A 34835-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45849.38061342593</v>
+        <v>45849.38855324074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11996,7 +11978,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12033,14 +12015,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 34827-2025</t>
+          <t>A 34825-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45849.38547453703</v>
+        <v>45849.38262731482</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12058,7 +12040,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12095,14 +12077,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 34825-2025</t>
+          <t>A 14477-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45849.38262731482</v>
+        <v>45741.58723379629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12120,7 +12102,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12157,14 +12139,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 14477-2025</t>
+          <t>A 34824-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45741.58723379629</v>
+        <v>45849.38061342593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12182,7 +12164,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12219,14 +12201,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 14482-2025</t>
+          <t>A 34827-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45741.59662037037</v>
+        <v>45849.38547453703</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12244,7 +12226,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12281,14 +12263,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 56904-2024</t>
+          <t>A 14482-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45628.58696759259</v>
+        <v>45741.59662037037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12300,8 +12282,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12338,14 +12325,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 58829-2023</t>
+          <t>A 35659-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45252</v>
+        <v>45147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12358,7 +12345,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12395,14 +12382,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 3309-2024</t>
+          <t>A 36089-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45317</v>
+        <v>45866</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12415,7 +12402,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12452,14 +12439,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 46198-2023</t>
+          <t>A 52505-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45196</v>
+        <v>45225</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12472,7 +12459,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>8.800000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12509,14 +12496,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 36064-2023</t>
+          <t>A 39257-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45149</v>
+        <v>45166.48097222222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12529,7 +12516,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12566,14 +12553,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 11864-2025</t>
+          <t>A 24818-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45728.41668981482</v>
+        <v>45461.33123842593</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12586,7 +12573,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12623,14 +12610,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 43254-2022</t>
+          <t>A 26022-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44834</v>
+        <v>45091.29174768519</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12642,8 +12629,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12680,14 +12672,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 16529-2024</t>
+          <t>A 11864-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45408.42216435185</v>
+        <v>45728.41668981482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12699,13 +12691,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12742,14 +12729,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 36089-2025</t>
+          <t>A 49498-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45866</v>
+        <v>45596.3672337963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,8 +12748,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12799,14 +12791,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 29669-2025</t>
+          <t>A 38179-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45825</v>
+        <v>45161.45337962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12819,7 +12811,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12856,14 +12848,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 49498-2024</t>
+          <t>A 14025-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45596.3672337963</v>
+        <v>44277.65498842593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,13 +12867,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12918,14 +12905,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 21449-2021</t>
+          <t>A 45645-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44321.46297453704</v>
+        <v>44845.65557870371</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12937,13 +12924,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12980,14 +12962,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 49671-2025</t>
+          <t>A 11888-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45939</v>
+        <v>45728.45688657407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13000,7 +12982,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13037,14 +13019,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 49676-2025</t>
+          <t>A 62217-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45939</v>
+        <v>45267.51355324074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13057,7 +13039,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13094,14 +13076,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 51002-2025</t>
+          <t>A 20565-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45947.36173611111</v>
+        <v>45775.66307870371</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13113,8 +13095,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13151,14 +13138,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 49675-2025</t>
+          <t>A 53129-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45939</v>
+        <v>45229</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13171,7 +13158,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13208,14 +13195,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 37550-2025</t>
+          <t>A 17352-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45879.91046296297</v>
+        <v>45414.5908912037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13228,7 +13215,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13265,14 +13252,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 51245-2025</t>
+          <t>A 37550-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45947.80872685185</v>
+        <v>45879.91046296297</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13285,7 +13272,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13322,14 +13309,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 51246-2025</t>
+          <t>A 40497-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45947.81226851852</v>
+        <v>45555.57101851852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13342,7 +13329,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13379,14 +13366,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 64089-2023</t>
+          <t>A 12183-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45279</v>
+        <v>45729.46353009259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13398,13 +13385,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13441,14 +13423,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 45229-2023</t>
+          <t>A 62592-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45191</v>
+        <v>44503</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13461,7 +13443,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13498,14 +13480,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 10079-2024</t>
+          <t>A 22389-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45364.42604166667</v>
+        <v>45070</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13517,13 +13499,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13560,14 +13537,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 52380-2025</t>
+          <t>A 59607-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45953.94951388889</v>
+        <v>45638.74914351852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13579,13 +13556,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13622,14 +13594,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 49959-2023</t>
+          <t>A 16957-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45215.38530092593</v>
+        <v>45755.44732638889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13642,7 +13614,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13679,14 +13651,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 12907-2025</t>
+          <t>A 41696-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45733.8203587963</v>
+        <v>45176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13699,7 +13671,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13736,14 +13708,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 57639-2023</t>
+          <t>A 42049-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45246</v>
+        <v>45177</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13761,7 +13733,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13798,14 +13770,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 16957-2025</t>
+          <t>A 34722-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45755.44732638889</v>
+        <v>45526</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13817,8 +13789,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13855,14 +13832,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 42049-2023</t>
+          <t>A 4977-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45177</v>
+        <v>44958.46266203704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13874,13 +13851,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13917,14 +13889,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 53600-2025</t>
+          <t>A 26023-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45960</v>
+        <v>45091.2925</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13938,11 +13910,11 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>9.300000000000001</v>
+        <v>2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13979,14 +13951,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 29112-2023</t>
+          <t>A 46544-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45105.39409722222</v>
+        <v>44445</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14036,14 +14008,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 48610-2023</t>
+          <t>A 40126-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45208</v>
+        <v>44418</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14056,7 +14028,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14093,14 +14065,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 34206-2022</t>
+          <t>A 57316-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44791.65267361111</v>
+        <v>44896.32079861111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14118,7 +14090,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14155,14 +14127,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 38177-2023</t>
+          <t>A 48610-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45161.44978009259</v>
+        <v>45208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14175,7 +14147,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14212,14 +14184,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 12699-2023</t>
+          <t>A 24832-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45000</v>
+        <v>45461.38202546296</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14231,13 +14203,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14274,14 +14241,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 54595-2025</t>
+          <t>A 33887-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45965.7556712963</v>
+        <v>45523.3167824074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14294,7 +14261,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14331,14 +14298,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 55035-2025</t>
+          <t>A 46410-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45967.64612268518</v>
+        <v>44444</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14351,7 +14318,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14388,14 +14355,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 55869-2025</t>
+          <t>A 29112-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45973.35285879629</v>
+        <v>45105.39409722222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14408,7 +14375,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14445,14 +14412,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 14025-2021</t>
+          <t>A 7579-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44277.65498842593</v>
+        <v>45348</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14465,7 +14432,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14502,14 +14469,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 56565-2025</t>
+          <t>A 24822-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45974</v>
+        <v>45461.34818287037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14522,7 +14489,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.1</v>
+        <v>5.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14559,14 +14526,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 14315-2025</t>
+          <t>A 43919-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45740.72116898148</v>
+        <v>45182</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14579,7 +14546,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14616,14 +14583,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 16540-2024</t>
+          <t>A 49632-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45408.4334837963</v>
+        <v>44862.43023148148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14635,8 +14602,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14673,14 +14645,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 40710-2021</t>
+          <t>A 41669-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44420</v>
+        <v>44425</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14693,7 +14665,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14730,14 +14702,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 2413-2024</t>
+          <t>A 34164-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45310</v>
+        <v>44791.58640046296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14749,8 +14721,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14787,14 +14764,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 58521-2025</t>
+          <t>A 45229-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45985</v>
+        <v>45191</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14807,7 +14784,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14844,14 +14821,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 45645-2022</t>
+          <t>A 26320-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44845.65557870371</v>
+        <v>44735.60184027778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14863,8 +14840,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14901,14 +14883,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 40497-2024</t>
+          <t>A 60397-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45555.57101851852</v>
+        <v>44910.90956018519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14921,7 +14903,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14958,14 +14940,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 34722-2024</t>
+          <t>A 26916-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45526</v>
+        <v>44740</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14979,11 +14961,11 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15020,14 +15002,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 27767-2023</t>
+          <t>A 11631-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45098.41659722223</v>
+        <v>44631</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15039,8 +15021,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15077,14 +15064,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 13585-2024</t>
+          <t>A 8936-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45389.85309027778</v>
+        <v>45714</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15097,7 +15084,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15134,14 +15121,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 1766-2026</t>
+          <t>A 16537-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46034.6880787037</v>
+        <v>45408.43247685185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15153,8 +15140,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15191,14 +15183,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 60152-2025</t>
+          <t>A 39513-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45994</v>
+        <v>45890.41581018519</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15210,8 +15202,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15248,14 +15245,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 60169-2025</t>
+          <t>A 27767-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45994</v>
+        <v>45098.41659722223</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15268,7 +15265,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15305,14 +15302,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 4977-2023</t>
+          <t>A 13563-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44958.46266203704</v>
+        <v>45388.99935185185</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15325,7 +15322,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15362,14 +15359,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 60166-2025</t>
+          <t>A 39837-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45994</v>
+        <v>45891.56561342593</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15382,7 +15379,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15419,14 +15416,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 60548-2025</t>
+          <t>A 40082-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45995.71252314815</v>
+        <v>45894.46731481481</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15439,7 +15436,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15476,14 +15473,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 63825-2023</t>
+          <t>A 64090-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45278</v>
+        <v>45279.43923611111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15501,7 +15498,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15538,14 +15535,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 24818-2024</t>
+          <t>A 58829-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45461.33123842593</v>
+        <v>45252</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15558,7 +15555,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15595,14 +15592,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 1521-2025</t>
+          <t>A 25723-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45670</v>
+        <v>45090.3674537037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15652,14 +15649,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 60892-2025</t>
+          <t>A 41588-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45999.57278935185</v>
+        <v>45901.63114583334</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15672,7 +15669,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>9.1</v>
+        <v>0.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15709,14 +15706,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 60873-2025</t>
+          <t>A 59056-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45999.55505787037</v>
+        <v>45636</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15729,7 +15726,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15766,14 +15763,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 60843-2025</t>
+          <t>A 42056-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45999.48747685185</v>
+        <v>45903.64190972222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15786,7 +15783,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15823,14 +15820,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 53472-2022</t>
+          <t>A 42050-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44879</v>
+        <v>45903.63047453704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15842,8 +15839,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15880,14 +15882,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 3686-2026</t>
+          <t>A 41939-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46043.44011574074</v>
+        <v>45903.44396990741</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15899,8 +15901,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15937,14 +15944,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 52379-2023</t>
+          <t>A 18134-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45224</v>
+        <v>44302</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15957,7 +15964,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.9</v>
+        <v>16.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15994,14 +16001,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 17352-2024</t>
+          <t>A 42049-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45414.5908912037</v>
+        <v>45903.63034722222</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16014,7 +16021,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16051,14 +16058,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 16537-2024</t>
+          <t>A 9754-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45408.43247685185</v>
+        <v>44618.81180555555</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16070,13 +16077,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16113,14 +16115,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 16557-2024</t>
+          <t>A 35656-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45408.45260416667</v>
+        <v>45532</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16132,13 +16134,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16175,14 +16172,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 17770-2022</t>
+          <t>A 43206-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44682.64953703704</v>
+        <v>45910.44984953704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16195,7 +16192,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16232,14 +16229,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 48707-2022</t>
+          <t>A 2413-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44859</v>
+        <v>45310</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16252,7 +16249,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>7.2</v>
+        <v>4.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16289,14 +16286,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 56136-2022</t>
+          <t>A 47030-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44889</v>
+        <v>45929.58944444444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16309,7 +16306,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>5.9</v>
+        <v>2.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16346,14 +16343,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 7579-2024</t>
+          <t>A 21846-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45348</v>
+        <v>45784.33967592593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16366,7 +16363,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.7</v>
+        <v>14.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16403,14 +16400,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 27577-2024</t>
+          <t>A 16281-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45474.65008101852</v>
+        <v>45407.36091435186</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16422,13 +16419,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>19</v>
+        <v>5.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16465,14 +16457,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 26022-2023</t>
+          <t>A 48229-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45091.29174768519</v>
+        <v>45933.51694444445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16484,13 +16476,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16527,14 +16514,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 15012-2023</t>
+          <t>A 48775-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45015</v>
+        <v>45937.00422453704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16547,7 +16534,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16584,14 +16571,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 45234-2023</t>
+          <t>A 29669-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45191.59268518518</v>
+        <v>45825</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16604,7 +16591,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16641,14 +16628,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 60397-2022</t>
+          <t>A 1566-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44910.90956018519</v>
+        <v>45670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16661,7 +16648,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16698,14 +16685,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 17716-2025</t>
+          <t>A 49675-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45758.44623842592</v>
+        <v>45939</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16718,7 +16705,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16755,14 +16742,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 40339-2024</t>
+          <t>A 49671-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45555.33125</v>
+        <v>45939</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16775,7 +16762,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16812,14 +16799,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 2261-2026</t>
+          <t>A 49676-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46036</v>
+        <v>45939</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16832,7 +16819,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16869,14 +16856,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 64026-2025</t>
+          <t>A 54604-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46021.47569444445</v>
+        <v>45617.683125</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16889,7 +16876,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16926,14 +16913,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 26278-2021</t>
+          <t>A 51002-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44347</v>
+        <v>45947.36173611111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16945,13 +16932,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16988,14 +16970,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 31957-2024</t>
+          <t>A 51245-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45510.49798611111</v>
+        <v>45947.80872685185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17008,7 +16990,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17045,14 +17027,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 9754-2022</t>
+          <t>A 51246-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44618.81180555555</v>
+        <v>45947.81226851852</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17065,7 +17047,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17102,14 +17084,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 33887-2024</t>
+          <t>A 12907-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45523.3167824074</v>
+        <v>45733.8203587963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17122,7 +17104,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17159,14 +17141,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 35659-2023</t>
+          <t>A 17344-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45147</v>
+        <v>45414.58052083333</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17179,7 +17161,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17216,14 +17198,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 17140-2022</t>
+          <t>A 52380-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44677.53418981482</v>
+        <v>45953.94951388889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17235,8 +17217,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17273,14 +17260,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 35330-2021</t>
+          <t>A 53600-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44384.81996527778</v>
+        <v>45960</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17292,8 +17279,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>1.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17330,14 +17322,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 40126-2021</t>
+          <t>A 5562-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44418</v>
+        <v>45693</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17350,7 +17342,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17387,14 +17379,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 18134-2021</t>
+          <t>A 54595-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44302</v>
+        <v>45965.7556712963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17407,7 +17399,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>16.8</v>
+        <v>0.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17444,14 +17436,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 34026-2022</t>
+          <t>A 55035-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44791.32811342592</v>
+        <v>45967.64612268518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17464,7 +17456,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17501,14 +17493,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 24828-2024</t>
+          <t>A 56565-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45461.3750462963</v>
+        <v>45974</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17521,7 +17513,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17558,14 +17550,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 52505-2023</t>
+          <t>A 55869-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45225</v>
+        <v>45973.35285879629</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17578,7 +17570,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17615,14 +17607,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 29018-2023</t>
+          <t>A 58521-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45104</v>
+        <v>45985</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17635,7 +17627,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17672,14 +17664,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 62217-2023</t>
+          <t>A 1766-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45267.51355324074</v>
+        <v>46034.6880787037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17692,7 +17684,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17729,14 +17721,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 34755-2024</t>
+          <t>A 60152-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45526</v>
+        <v>45994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17748,13 +17740,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>1.7</v>
+        <v>9.4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17791,14 +17778,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 59637-2021</t>
+          <t>A 60166-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44493</v>
+        <v>45994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17811,7 +17798,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17848,14 +17835,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 10882-2024</t>
+          <t>A 60169-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45370</v>
+        <v>45994</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17867,13 +17854,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17910,14 +17892,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 8295-2024</t>
+          <t>A 60548-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45352.43674768518</v>
+        <v>45995.71252314815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17930,7 +17912,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17967,14 +17949,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 24832-2024</t>
+          <t>A 60873-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45461.38202546296</v>
+        <v>45999.55505787037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17987,7 +17969,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -18024,14 +18006,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 70200-2021</t>
+          <t>A 60843-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44534.82171296296</v>
+        <v>45999.48747685185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18044,7 +18026,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18081,14 +18063,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 22389-2023</t>
+          <t>A 60892-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45070</v>
+        <v>45999.57278935185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18101,7 +18083,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.3</v>
+        <v>9.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -18138,14 +18120,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 35656-2024</t>
+          <t>A 3686-2026</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45532</v>
+        <v>46043.44011574074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18158,7 +18140,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18195,14 +18177,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 11631-2022</t>
+          <t>A 2261-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44631</v>
+        <v>46036</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18214,13 +18196,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G282" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -18254,17 +18231,17 @@
       </c>
       <c r="R282" s="2" t="inlineStr"/>
     </row>
-    <row r="283" ht="15" customHeight="1">
+    <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 5217-2022</t>
+          <t>A 64026-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44593</v>
+        <v>46021.47569444445</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18276,13 +18253,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>38.4</v>
+        <v>2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -18315,63 +18287,6 @@
         <v>0</v>
       </c>
       <c r="R283" s="2" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>A 37849-2023</t>
-        </is>
-      </c>
-      <c r="B284" s="1" t="n">
-        <v>45158</v>
-      </c>
-      <c r="C284" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G284" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="n">
-        <v>0</v>
-      </c>
-      <c r="K284" t="n">
-        <v>0</v>
-      </c>
-      <c r="L284" t="n">
-        <v>0</v>
-      </c>
-      <c r="M284" t="n">
-        <v>0</v>
-      </c>
-      <c r="N284" t="n">
-        <v>0</v>
-      </c>
-      <c r="O284" t="n">
-        <v>0</v>
-      </c>
-      <c r="P284" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q284" t="n">
-        <v>0</v>
-      </c>
-      <c r="R284" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -575,7 +575,7 @@
         <v>46013.56689814815</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44263</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44841.45446759259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45980.60565972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>46013.56317129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>45751.44270833334</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>45623</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>45978.65591435185</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44495</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45978.64929398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45989.66488425926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1816,14 +1816,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51036-2022</t>
+          <t>A 54598-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44868.3161574074</v>
+        <v>45965.77918981481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1836,16 +1836,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1870,118 +1870,118 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Drillsnäppa
+Vanlig snok</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 51036-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44868.3161574074</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Blåmossa
 Vårärt</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 51036-2022 artfynd.xlsx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 51036-2022 karta.png", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 51036-2022 FSC-klagomål.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 51036-2022 FSC-klagomål mail.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 51036-2022 tillsynsbegäran.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 51036-2022 tillsynsbegäran mail.docx", "A 51036-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 54598-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45965.77918981481</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Drillsnäppa
-Vanlig snok</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
         <v/>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
         <v>46013.57747685185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>46013.58233796297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2160,14 +2160,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 26328-2021</t>
+          <t>A 24567-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44347</v>
+        <v>44339.70040509259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,13 +2180,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2214,45 +2214,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26328-2021 artfynd.xlsx", "A 26328-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 24567-2021 artfynd.xlsx", "A 24567-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26328-2021 karta.png", "A 26328-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 24567-2021 karta.png", "A 24567-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26328-2021 FSC-klagomål.docx", "A 26328-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 24567-2021 FSC-klagomål.docx", "A 24567-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26328-2021 FSC-klagomål mail.docx", "A 26328-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 24567-2021 FSC-klagomål mail.docx", "A 24567-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26328-2021 tillsynsbegäran.docx", "A 26328-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 24567-2021 tillsynsbegäran.docx", "A 24567-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26328-2021 tillsynsbegäran mail.docx", "A 26328-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 24567-2021 tillsynsbegäran mail.docx", "A 24567-2021")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24567-2021</t>
+          <t>A 26328-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44339.70040509259</v>
+        <v>44347</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2265,13 +2265,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2299,31 +2299,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 24567-2021 artfynd.xlsx", "A 24567-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26328-2021 artfynd.xlsx", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 24567-2021 karta.png", "A 24567-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26328-2021 karta.png", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 24567-2021 FSC-klagomål.docx", "A 24567-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26328-2021 FSC-klagomål.docx", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 24567-2021 FSC-klagomål mail.docx", "A 24567-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26328-2021 FSC-klagomål mail.docx", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 24567-2021 tillsynsbegäran.docx", "A 24567-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26328-2021 tillsynsbegäran.docx", "A 26328-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 24567-2021 tillsynsbegäran mail.docx", "A 24567-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26328-2021 tillsynsbegäran mail.docx", "A 26328-2021")</f>
         <v/>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
         <v>45408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,14 +2420,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 14306-2025</t>
+          <t>A 16642-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45740.70622685185</v>
+        <v>45408.61318287037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,8 +2439,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2449,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2464,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2474,49 +2479,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16642-2024 artfynd.xlsx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16642-2024 karta.png", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16642-2024 FSC-klagomål.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16642-2024 FSC-klagomål mail.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16642-2024 tillsynsbegäran.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16642-2024 tillsynsbegäran mail.docx", "A 16642-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 16642-2024</t>
+          <t>A 1520-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45408.61318287037</v>
+        <v>45670</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2528,23 +2529,18 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -2558,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2568,45 +2564,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16642-2024 artfynd.xlsx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16642-2024 karta.png", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16642-2024 FSC-klagomål.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16642-2024 FSC-klagomål mail.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16642-2024 tillsynsbegäran.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16642-2024 tillsynsbegäran mail.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 26658-2025</t>
+          <t>A 15327-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45810.39315972223</v>
+        <v>45400.68243055556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2618,23 +2614,18 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
@@ -2648,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2658,45 +2649,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 26659-2025</t>
+          <t>A 26658-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45810.39408564815</v>
+        <v>45810.39315972223</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2714,7 +2705,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2752,41 +2743,41 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 1520-2025</t>
+          <t>A 26659-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45670</v>
+        <v>45810.39408564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2798,17 +2789,22 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2823,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2833,45 +2829,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52639-2023</t>
+          <t>A 14312-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45219</v>
+        <v>45740.71707175926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2883,13 +2879,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2923,35 +2914,35 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Grönsångare</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
         <v/>
       </c>
     </row>
@@ -2965,7 +2956,7 @@
         <v>45838.4570949074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3055,7 +3046,7 @@
         <v>45849.38326388889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3138,14 +3129,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 33136-2025</t>
+          <t>A 42036-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45840</v>
+        <v>45903.61173611111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3157,13 +3148,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3197,45 +3183,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 14312-2025</t>
+          <t>A 33136-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45740.71707175926</v>
+        <v>45840</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3247,11 +3233,16 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3282,49 +3273,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
-        <v/>
-      </c>
-      <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 16063-2023</t>
+          <t>A 43148-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45027</v>
+        <v>45910.32248842593</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,16 +3324,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3361,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3371,45 +3358,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Violettkantad guldvinge</t>
+          <t>Purpurknipprot</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 42036-2025</t>
+          <t>A 55261-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45903.61173611111</v>
+        <v>45968.64734953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3421,8 +3408,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>11.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3456,45 +3448,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 43148-2025</t>
+          <t>A 56959-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45910.32248842593</v>
+        <v>45978.6584375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3506,18 +3498,23 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -3531,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3541,45 +3538,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Purpurknipprot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56959-2025 artfynd.xlsx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56959-2025 karta.png", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56959-2025 FSC-klagomål.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56959-2025 FSC-klagomål mail.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56959-2025 tillsynsbegäran.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56959-2025 tillsynsbegäran mail.docx", "A 56959-2025")</f>
+        <v/>
+      </c>
+      <c r="Z34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56959-2025 prioriterade fågelarter.docx", "A 56959-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 20659-2025</t>
+          <t>A 52639-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45776.41106481481</v>
+        <v>45219</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3591,8 +3592,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>11.1</v>
+        <v>7.3</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3601,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3616,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3626,45 +3632,49 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Grönsångare</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 15327-2024</t>
+          <t>A 16063-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45400.68243055556</v>
+        <v>45027</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3677,7 +3687,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>7.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3711,45 +3721,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Violettkantad guldvinge</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 55261-2025</t>
+          <t>A 14306-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45968.64734953704</v>
+        <v>45740.70622685185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3761,16 +3771,11 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>11.4</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3801,45 +3806,49 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
+        <v/>
+      </c>
+      <c r="Z37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 56959-2025</t>
+          <t>A 20659-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45978.6584375</v>
+        <v>45776.41106481481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3851,13 +3860,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>11.1</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3866,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3881,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3891,35 +3895,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56959-2025 artfynd.xlsx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56959-2025 karta.png", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56959-2025 FSC-klagomål.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56959-2025 FSC-klagomål mail.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56959-2025 tillsynsbegäran.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56959-2025 tillsynsbegäran mail.docx", "A 56959-2025")</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56959-2025 prioriterade fågelarter.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
         <v>44876.5034375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44523</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>44362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44862.43092592592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44799.59944444444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44818.95434027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>44530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44761</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4531,14 +4531,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 47794-2021</t>
+          <t>A 35870-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44448</v>
+        <v>44802.44491898148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4550,8 +4550,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4588,14 +4593,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 35870-2022</t>
+          <t>A 47794-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44802.44491898148</v>
+        <v>44448</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4607,13 +4612,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>44865.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44431.34829861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4774,14 +4774,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 19166-2021</t>
+          <t>A 59606-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44308</v>
+        <v>44491</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4795,11 +4795,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4836,14 +4836,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59590-2021</t>
+          <t>A 37259-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44491</v>
+        <v>44807.45756944444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4857,11 +4857,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4898,14 +4898,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 48105-2021</t>
+          <t>A 37265-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44449</v>
+        <v>44807.46988425926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4917,8 +4917,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4955,14 +4960,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59606-2021</t>
+          <t>A 50208-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44491</v>
+        <v>44865.6330787037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4976,11 +4981,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5017,14 +5022,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 37259-2022</t>
+          <t>A 18636-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44807.45756944444</v>
+        <v>44687.4733912037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5036,13 +5041,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5079,14 +5079,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 37265-2022</t>
+          <t>A 16326-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44807.46988425926</v>
+        <v>44292</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5098,13 +5098,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5141,14 +5136,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 50208-2022</t>
+          <t>A 15358-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44865.6330787037</v>
+        <v>44284</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5160,13 +5155,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5203,14 +5193,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26870-2022</t>
+          <t>A 34193-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44740.53197916667</v>
+        <v>44791.63450231482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5228,7 +5218,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5265,14 +5255,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18636-2022</t>
+          <t>A 43941-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44687.4733912037</v>
+        <v>44838.57731481481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5284,8 +5274,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>8.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5322,14 +5317,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 49634-2022</t>
+          <t>A 40643-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44862.43146990741</v>
+        <v>44420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5341,13 +5336,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5384,14 +5374,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49635-2022</t>
+          <t>A 22650-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44862.43199074074</v>
+        <v>44714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5405,11 +5395,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5446,14 +5436,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 42743-2021</t>
+          <t>A 19166-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44428.61717592592</v>
+        <v>44308</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5461,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5508,14 +5498,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44850-2022</t>
+          <t>A 49634-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44841</v>
+        <v>44862.43146990741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5533,7 +5523,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.9</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5570,14 +5560,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 35730-2022</t>
+          <t>A 49635-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44799</v>
+        <v>44862.43199074074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5595,7 +5585,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5632,14 +5622,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35731-2022</t>
+          <t>A 44850-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44799.73486111111</v>
+        <v>44841</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5657,7 +5647,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.8</v>
+        <v>6.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5694,14 +5684,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 68610-2021</t>
+          <t>A 42743-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44529.56203703704</v>
+        <v>44428.61717592592</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5713,8 +5703,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5751,14 +5746,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 68887-2021</t>
+          <t>A 35730-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44530</v>
+        <v>44799</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5776,7 +5771,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5813,14 +5808,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 37266-2022</t>
+          <t>A 35731-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44807.47078703704</v>
+        <v>44799.73486111111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5838,7 +5833,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5875,14 +5870,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 5039-2022</t>
+          <t>A 59590-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44593</v>
+        <v>44491</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5894,8 +5889,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5932,14 +5932,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 49135-2021</t>
+          <t>A 48105-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44453</v>
+        <v>44449</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5989,14 +5989,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35605-2021</t>
+          <t>A 26870-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44386.37886574074</v>
+        <v>44740.53197916667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>7.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6051,14 +6051,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 47788-2021</t>
+          <t>A 68887-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44448</v>
+        <v>44530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6070,8 +6070,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6108,14 +6113,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 26314-2022</t>
+          <t>A 37266-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44735.59861111111</v>
+        <v>44807.47078703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6133,7 +6138,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6170,14 +6175,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16326-2021</t>
+          <t>A 35605-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44292</v>
+        <v>44386.37886574074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6189,8 +6194,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6227,14 +6237,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15358-2021</t>
+          <t>A 47788-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44284</v>
+        <v>44448</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6247,7 +6257,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6284,14 +6294,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 38798-2021</t>
+          <t>A 68610-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44410</v>
+        <v>44529.56203703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6304,7 +6314,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6341,14 +6351,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 27648-2021</t>
+          <t>A 5039-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44354.37946759259</v>
+        <v>44593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6361,7 +6371,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>9.6</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6398,14 +6408,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 24389-2024</t>
+          <t>A 49135-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45457.63585648148</v>
+        <v>44453</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6418,7 +6428,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6455,14 +6465,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 21695-2022</t>
+          <t>A 26314-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44707.88415509259</v>
+        <v>44735.59861111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6474,8 +6484,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6512,14 +6527,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 34193-2022</t>
+          <t>A 27648-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44791.63450231482</v>
+        <v>44354.37946759259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6531,13 +6546,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>9.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6574,14 +6584,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35608-2021</t>
+          <t>A 21695-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44386.38070601852</v>
+        <v>44707.88415509259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6593,13 +6603,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6636,14 +6641,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 64089-2023</t>
+          <t>A 20565-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45279</v>
+        <v>45775.66307870371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6661,7 +6666,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6698,14 +6703,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43941-2022</t>
+          <t>A 62592-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44838.57731481481</v>
+        <v>44503</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6717,13 +6722,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6760,14 +6760,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 35330-2021</t>
+          <t>A 4910-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44384.81996527778</v>
+        <v>44958.38488425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6817,14 +6817,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 34026-2022</t>
+          <t>A 12815-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44791.32811342592</v>
+        <v>45384.66650462963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6874,14 +6874,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 70200-2021</t>
+          <t>A 34164-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44534.82171296296</v>
+        <v>44791.58640046296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6893,8 +6893,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6931,14 +6936,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16085-2024</t>
+          <t>A 45216-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45406.37230324074</v>
+        <v>45191</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6951,7 +6956,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6988,14 +6993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 59637-2021</t>
+          <t>A 61952-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44493</v>
+        <v>45266.56415509259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7045,14 +7050,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 63825-2023</t>
+          <t>A 26023-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45278</v>
+        <v>45091.2925</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7066,11 +7071,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7107,14 +7112,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56136-2022</t>
+          <t>A 53938-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44889</v>
+        <v>45231</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7127,7 +7132,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.9</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7164,14 +7169,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 26278-2021</t>
+          <t>A 16085-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44347</v>
+        <v>45406.37230324074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7181,11 +7186,6 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>NORA</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -7226,14 +7226,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43254-2022</t>
+          <t>A 13563-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44834</v>
+        <v>45388.99935185185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7283,14 +7283,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 40710-2021</t>
+          <t>A 24389-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44420</v>
+        <v>45457.63585648148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7340,14 +7340,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46198-2023</t>
+          <t>A 55766-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45196</v>
+        <v>45623.37702546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7397,14 +7397,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29018-2023</t>
+          <t>A 52879-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45104</v>
+        <v>45226.47349537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7454,14 +7454,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13585-2024</t>
+          <t>A 17344-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45389.85309027778</v>
+        <v>45414.58052083333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7511,14 +7511,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40643-2021</t>
+          <t>A 9457-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44420</v>
+        <v>45714</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7568,14 +7568,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60301-2023</t>
+          <t>A 38179-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45258</v>
+        <v>45161.45337962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7625,14 +7625,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 16109-2024</t>
+          <t>A 43535-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45406.46753472222</v>
+        <v>45184</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7682,14 +7682,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26021-2023</t>
+          <t>A 49632-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45091.29033564815</v>
+        <v>44862.43023148148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7703,11 +7703,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7744,14 +7744,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 38177-2023</t>
+          <t>A 35675-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45161.44978009259</v>
+        <v>45147</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>8.5</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7801,14 +7801,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 41676-2021</t>
+          <t>A 39257-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44425.50175925926</v>
+        <v>45166.48097222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7858,14 +7858,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 53472-2022</t>
+          <t>A 35608-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44879</v>
+        <v>44386.38070601852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7877,8 +7877,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7915,14 +7920,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 22650-2022</t>
+          <t>A 59607-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44714</v>
+        <v>45638.74914351852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7934,13 +7939,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7977,14 +7977,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 16540-2024</t>
+          <t>A 34759-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45408.4334837963</v>
+        <v>45526</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7996,8 +7996,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8034,14 +8039,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 10882-2024</t>
+          <t>A 5562-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45370</v>
+        <v>45693</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8053,13 +8058,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8096,14 +8096,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 53365-2023</t>
+          <t>A 5590-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45229.66844907407</v>
+        <v>45693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8115,13 +8115,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8158,14 +8153,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 15012-2023</t>
+          <t>A 64026-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45015</v>
+        <v>46021.47569444445</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8178,7 +8173,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8215,14 +8210,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 56871-2021</t>
+          <t>A 60301-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44481.78949074074</v>
+        <v>45258</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8235,7 +8230,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8272,14 +8267,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 24828-2024</t>
+          <t>A 26021-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45461.3750462963</v>
+        <v>45091.29033564815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8291,8 +8286,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8329,14 +8329,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 8295-2024</t>
+          <t>A 41669-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45352.43674768518</v>
+        <v>44425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8386,14 +8386,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39707-2022</t>
+          <t>A 52303-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44818.95277777778</v>
+        <v>45608.75231481482</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8405,13 +8405,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8448,14 +8443,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 12815-2024</t>
+          <t>A 23277-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45384.66650462963</v>
+        <v>45453.40982638889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8468,7 +8463,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8505,14 +8500,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 16557-2024</t>
+          <t>A 24820-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45408.45260416667</v>
+        <v>45461.3465625</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8524,13 +8519,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>5.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8567,14 +8557,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 4910-2023</t>
+          <t>A 26657-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44958.38488425926</v>
+        <v>45810.39180555556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8586,8 +8576,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8624,14 +8619,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 27577-2024</t>
+          <t>A 39707-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45474.65008101852</v>
+        <v>44818.95277777778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8649,7 +8644,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>19</v>
+        <v>6.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8686,14 +8681,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 53938-2023</t>
+          <t>A 2261-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45231</v>
+        <v>46036</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8706,7 +8701,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8743,14 +8738,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 5217-2022</t>
+          <t>A 24821-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44593</v>
+        <v>45461.34765046297</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8762,13 +8757,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>38.4</v>
+        <v>12.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8805,14 +8795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 24820-2024</t>
+          <t>A 24833-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45461.3465625</v>
+        <v>45461.39246527778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8825,7 +8815,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8862,14 +8852,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 5590-2025</t>
+          <t>A 26916-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45693</v>
+        <v>44740</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8881,8 +8871,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8919,14 +8914,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 57639-2023</t>
+          <t>A 27844-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45246</v>
+        <v>45817.39009259259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8938,13 +8933,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8981,14 +8971,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 4723-2023</t>
+          <t>A 41696-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44957.51490740741</v>
+        <v>45176</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9001,7 +8991,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9038,14 +9028,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35144-2023</t>
+          <t>A 16109-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45145</v>
+        <v>45406.46753472222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9058,7 +9048,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9095,14 +9085,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 26657-2025</t>
+          <t>A 27878-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45810.39180555556</v>
+        <v>45817.443125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9114,13 +9104,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9157,14 +9142,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 12699-2023</t>
+          <t>A 26320-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45000</v>
+        <v>44735.60184027778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9182,7 +9167,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9219,14 +9204,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 52303-2024</t>
+          <t>A 12183-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45608.75231481482</v>
+        <v>45729.46353009259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9239,7 +9224,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9276,14 +9261,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 34755-2024</t>
+          <t>A 39513-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45526</v>
+        <v>45890.41581018519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9297,11 +9282,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9338,14 +9323,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 5049-2022</t>
+          <t>A 46410-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44593</v>
+        <v>44444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9358,7 +9343,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9395,14 +9380,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 23277-2024</t>
+          <t>A 56871-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45453.40982638889</v>
+        <v>44481.78949074074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9415,7 +9400,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9452,14 +9437,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 45234-2023</t>
+          <t>A 57316-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45191.59268518518</v>
+        <v>44896.32079861111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9471,8 +9456,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9509,14 +9499,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 12646-2024</t>
+          <t>A 43843-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45384.34563657407</v>
+        <v>45187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9528,8 +9518,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>8.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9566,14 +9561,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 10079-2024</t>
+          <t>A 43919-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45364.42604166667</v>
+        <v>45182</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9585,13 +9580,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9628,14 +9618,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 48707-2022</t>
+          <t>A 39837-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44859</v>
+        <v>45891.56561342593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9648,7 +9638,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9685,14 +9675,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45159-2023</t>
+          <t>A 40082-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45191.49001157407</v>
+        <v>45894.46731481481</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9705,7 +9695,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9742,14 +9732,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 52879-2023</t>
+          <t>A 64090-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45226.47349537037</v>
+        <v>45279.43923611111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9761,8 +9751,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9799,14 +9794,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 27878-2025</t>
+          <t>A 32501-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45817.443125</v>
+        <v>45838.46260416666</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9818,8 +9813,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9856,14 +9856,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 27844-2025</t>
+          <t>A 5049-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45817.39009259259</v>
+        <v>44593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9913,14 +9913,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45216-2023</t>
+          <t>A 59056-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45191</v>
+        <v>45636</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9970,14 +9970,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 17140-2022</t>
+          <t>A 25723-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44677.53418981482</v>
+        <v>45090.3674537037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10027,14 +10027,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8589-2022</t>
+          <t>A 41588-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44613.55984953704</v>
+        <v>45901.63114583334</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10046,13 +10046,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10089,14 +10084,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 3309-2024</t>
+          <t>A 9295-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45317</v>
+        <v>45714</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10146,14 +10141,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 73009-2021</t>
+          <t>A 4723-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44550.33282407407</v>
+        <v>44957.51490740741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10165,13 +10160,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10208,14 +10198,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 9295-2025</t>
+          <t>A 53129-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45714</v>
+        <v>45229</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10228,7 +10218,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10265,14 +10255,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 40339-2024</t>
+          <t>A 46688-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45555.33125</v>
+        <v>45198.51881944444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10285,7 +10275,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10322,14 +10312,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 43843-2023</t>
+          <t>A 34835-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45187</v>
+        <v>45849.38855324074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10347,7 +10337,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10384,14 +10374,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 52379-2023</t>
+          <t>A 34824-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45224</v>
+        <v>45849.38061342593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10403,8 +10393,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10441,14 +10436,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 348-2025</t>
+          <t>A 34827-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45660</v>
+        <v>45849.38547453703</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10460,8 +10455,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10498,14 +10498,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 37849-2023</t>
+          <t>A 42056-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45158</v>
+        <v>45903.64190972222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10555,14 +10555,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 5674-2023</t>
+          <t>A 12646-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44960.66104166667</v>
+        <v>45384.34563657407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10574,13 +10574,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10617,14 +10612,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 32501-2025</t>
+          <t>A 34825-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45838.46260416666</v>
+        <v>45849.38262731482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10642,7 +10637,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10679,14 +10674,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 21449-2021</t>
+          <t>A 14477-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44321.46297453704</v>
+        <v>45741.58723379629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10704,7 +10699,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10741,14 +10736,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 24391-2024</t>
+          <t>A 42050-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45457.63850694444</v>
+        <v>45903.63047453704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10760,8 +10755,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10798,14 +10798,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 24392-2024</t>
+          <t>A 41939-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45457.64085648148</v>
+        <v>45903.44396990741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10817,8 +10817,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10855,14 +10860,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 14315-2025</t>
+          <t>A 14482-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45740.72116898148</v>
+        <v>45741.59662037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10874,8 +10879,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10912,14 +10922,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 35675-2023</t>
+          <t>A 8589-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45147</v>
+        <v>44613.55984953704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10931,8 +10941,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10969,14 +10984,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 31957-2024</t>
+          <t>A 56904-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45510.49798611111</v>
+        <v>45628.58696759259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10989,7 +11004,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>8.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11026,14 +11041,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 55766-2024</t>
+          <t>A 42049-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45623.37702546296</v>
+        <v>45903.63034722222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11046,7 +11061,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>18.5</v>
+        <v>2.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11083,14 +11098,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 1521-2025</t>
+          <t>A 24822-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45670</v>
+        <v>45461.34818287037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11103,7 +11118,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11140,14 +11155,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 49959-2023</t>
+          <t>A 5674-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45215.38530092593</v>
+        <v>44960.66104166667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11159,8 +11174,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11197,14 +11217,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 36064-2023</t>
+          <t>A 46544-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45149</v>
+        <v>44445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11217,7 +11237,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11254,14 +11274,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 46688-2023</t>
+          <t>A 36089-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45198.51881944444</v>
+        <v>45866</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11274,7 +11294,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11311,14 +11331,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 24821-2024</t>
+          <t>A 49498-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45461.34765046297</v>
+        <v>45596.3672337963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11330,8 +11350,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>12.2</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11368,14 +11393,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 24833-2024</t>
+          <t>A 45159-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45461.39246527778</v>
+        <v>45191.49001157407</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11388,7 +11413,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11425,14 +11450,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 9457-2025</t>
+          <t>A 43206-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45714</v>
+        <v>45910.44984953704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11445,7 +11470,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11482,14 +11507,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 34759-2024</t>
+          <t>A 37550-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45526</v>
+        <v>45879.91046296297</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11501,13 +11526,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11544,14 +11564,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 61952-2023</t>
+          <t>A 58829-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45266.56415509259</v>
+        <v>45252</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11564,7 +11584,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11601,14 +11621,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 34206-2022</t>
+          <t>A 3309-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44791.65267361111</v>
+        <v>45317</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11620,13 +11640,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11663,14 +11678,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 17716-2025</t>
+          <t>A 46198-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45758.44623842592</v>
+        <v>45196</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11683,7 +11698,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11720,14 +11735,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 17770-2022</t>
+          <t>A 36064-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44682.64953703704</v>
+        <v>45149</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11740,7 +11755,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11777,14 +11792,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 16529-2024</t>
+          <t>A 11864-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45408.42216435185</v>
+        <v>45728.41668981482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11796,13 +11811,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11839,14 +11849,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 43535-2023</t>
+          <t>A 43254-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45184</v>
+        <v>44834</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11859,7 +11869,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11896,14 +11906,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 56904-2024</t>
+          <t>A 16529-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45628.58696759259</v>
+        <v>45408.42216435185</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11915,8 +11925,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>8.9</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11953,14 +11968,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 34835-2025</t>
+          <t>A 21449-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45849.38855324074</v>
+        <v>44321.46297453704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11978,7 +11993,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12015,14 +12030,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 34825-2025</t>
+          <t>A 47030-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45849.38262731482</v>
+        <v>45929.58944444444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12034,13 +12049,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12077,14 +12087,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 14477-2025</t>
+          <t>A 64089-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45741.58723379629</v>
+        <v>45279</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12102,7 +12112,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12139,14 +12149,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 34824-2025</t>
+          <t>A 45229-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45849.38061342593</v>
+        <v>45191</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12158,13 +12168,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12201,14 +12206,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 34827-2025</t>
+          <t>A 10079-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45849.38547453703</v>
+        <v>45364.42604166667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12226,7 +12231,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12263,14 +12268,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 14482-2025</t>
+          <t>A 48229-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45741.59662037037</v>
+        <v>45933.51694444445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12282,13 +12287,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12325,14 +12325,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 35659-2023</t>
+          <t>A 49959-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45147</v>
+        <v>45215.38530092593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12382,14 +12382,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 36089-2025</t>
+          <t>A 57639-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45866</v>
+        <v>45246</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12401,8 +12401,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12439,14 +12444,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 52505-2023</t>
+          <t>A 16957-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45225</v>
+        <v>45755.44732638889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12459,7 +12464,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12496,14 +12501,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 39257-2023</t>
+          <t>A 48775-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45166.48097222222</v>
+        <v>45937.00422453704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12516,7 +12521,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12553,14 +12558,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 24818-2024</t>
+          <t>A 42049-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45461.33123842593</v>
+        <v>45177</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12572,8 +12577,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12610,14 +12620,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 26022-2023</t>
+          <t>A 29112-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45091.29174768519</v>
+        <v>45105.39409722222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12629,13 +12639,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12672,14 +12677,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 11864-2025</t>
+          <t>A 29669-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45728.41668981482</v>
+        <v>45825</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12692,7 +12697,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12729,14 +12734,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 49498-2024</t>
+          <t>A 48610-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45596.3672337963</v>
+        <v>45208</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12748,13 +12753,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12791,14 +12791,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 38179-2023</t>
+          <t>A 34206-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45161.45337962963</v>
+        <v>44791.65267361111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12810,8 +12810,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12848,14 +12853,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 14025-2021</t>
+          <t>A 38177-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44277.65498842593</v>
+        <v>45161.44978009259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12868,7 +12873,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12905,14 +12910,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 45645-2022</t>
+          <t>A 12699-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44845.65557870371</v>
+        <v>45000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12924,8 +12929,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12962,14 +12972,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 11888-2025</t>
+          <t>A 49671-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45728.45688657407</v>
+        <v>45939</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12992,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13019,14 +13029,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62217-2023</t>
+          <t>A 49676-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45267.51355324074</v>
+        <v>45939</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13039,7 +13049,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13076,14 +13086,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 20565-2025</t>
+          <t>A 14025-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45775.66307870371</v>
+        <v>44277.65498842593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13095,13 +13105,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>0.7</v>
+        <v>7.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13138,14 +13143,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53129-2023</t>
+          <t>A 51002-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45229</v>
+        <v>45947.36173611111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13158,7 +13163,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13195,14 +13200,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 17352-2024</t>
+          <t>A 49675-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45414.5908912037</v>
+        <v>45939</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13215,7 +13220,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13252,14 +13257,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 37550-2025</t>
+          <t>A 14315-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45879.91046296297</v>
+        <v>45740.72116898148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13272,7 +13277,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13309,14 +13314,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 40497-2024</t>
+          <t>A 51245-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45555.57101851852</v>
+        <v>45947.80872685185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13329,7 +13334,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13366,14 +13371,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 12183-2025</t>
+          <t>A 51246-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45729.46353009259</v>
+        <v>45947.81226851852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13386,7 +13391,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13423,14 +13428,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 62592-2021</t>
+          <t>A 16540-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44503</v>
+        <v>45408.4334837963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13443,7 +13448,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>7.4</v>
+        <v>1.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13480,14 +13485,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 22389-2023</t>
+          <t>A 40710-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45070</v>
+        <v>44420</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13500,7 +13505,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13537,14 +13542,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 59607-2024</t>
+          <t>A 2413-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45638.74914351852</v>
+        <v>45310</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13557,7 +13562,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13594,14 +13599,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 16957-2025</t>
+          <t>A 52380-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45755.44732638889</v>
+        <v>45953.94951388889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13613,8 +13618,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13651,14 +13661,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 41696-2023</t>
+          <t>A 45645-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45176</v>
+        <v>44845.65557870371</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13671,7 +13681,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13708,14 +13718,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 42049-2023</t>
+          <t>A 40497-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45177</v>
+        <v>45555.57101851852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13727,13 +13737,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13770,14 +13775,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 34722-2024</t>
+          <t>A 12907-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45526</v>
+        <v>45733.8203587963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13789,13 +13794,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13832,14 +13832,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 4977-2023</t>
+          <t>A 34722-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44958.46266203704</v>
+        <v>45526</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13851,8 +13851,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13889,14 +13894,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 26023-2023</t>
+          <t>A 27767-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45091.2925</v>
+        <v>45098.41659722223</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13908,13 +13913,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13951,14 +13951,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 46544-2021</t>
+          <t>A 13585-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44445</v>
+        <v>45389.85309027778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14008,14 +14008,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 40126-2021</t>
+          <t>A 53600-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44418</v>
+        <v>45960</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14027,8 +14027,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>4.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14065,14 +14070,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 57316-2022</t>
+          <t>A 4977-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44896.32079861111</v>
+        <v>44958.46266203704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14084,13 +14089,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14127,14 +14127,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 48610-2023</t>
+          <t>A 54595-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45208</v>
+        <v>45965.7556712963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14184,14 +14184,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 24832-2024</t>
+          <t>A 55035-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45461.38202546296</v>
+        <v>45967.64612268518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14241,14 +14241,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 33887-2024</t>
+          <t>A 63825-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45523.3167824074</v>
+        <v>45278</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14260,8 +14260,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14298,14 +14303,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 46410-2021</t>
+          <t>A 24818-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44444</v>
+        <v>45461.33123842593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14318,7 +14323,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14355,14 +14360,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 29112-2023</t>
+          <t>A 1521-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45105.39409722222</v>
+        <v>45670</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14375,7 +14380,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14412,14 +14417,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 7579-2024</t>
+          <t>A 55869-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45348</v>
+        <v>45973.35285879629</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14432,7 +14437,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14469,14 +14474,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 24822-2024</t>
+          <t>A 53472-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45461.34818287037</v>
+        <v>44879</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14489,7 +14494,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14526,14 +14531,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 43919-2023</t>
+          <t>A 56565-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45182</v>
+        <v>45974</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14546,7 +14551,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14583,14 +14588,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 49632-2022</t>
+          <t>A 52379-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44862.43023148148</v>
+        <v>45224</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14600,11 +14605,6 @@
       <c r="E220" t="inlineStr">
         <is>
           <t>NORA</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -14645,14 +14645,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 41669-2021</t>
+          <t>A 17352-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44425</v>
+        <v>45414.5908912037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14702,14 +14702,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 34164-2022</t>
+          <t>A 16537-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44791.58640046296</v>
+        <v>45408.43247685185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14723,11 +14723,11 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14764,14 +14764,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 45229-2023</t>
+          <t>A 16557-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45191</v>
+        <v>45408.45260416667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14783,8 +14783,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14821,14 +14826,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 26320-2022</t>
+          <t>A 17770-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44735.60184027778</v>
+        <v>44682.64953703704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14840,13 +14845,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14883,14 +14883,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 60397-2022</t>
+          <t>A 58521-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44910.90956018519</v>
+        <v>45985</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14940,14 +14940,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 26916-2022</t>
+          <t>A 48707-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44740</v>
+        <v>44859</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14959,13 +14959,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15002,14 +14997,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 11631-2022</t>
+          <t>A 56136-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44631</v>
+        <v>44889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15021,13 +15016,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>2.6</v>
+        <v>5.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15064,14 +15054,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 8936-2025</t>
+          <t>A 1766-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45714</v>
+        <v>46034.6880787037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15084,7 +15074,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15121,14 +15111,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 16537-2024</t>
+          <t>A 7579-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45408.43247685185</v>
+        <v>45348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15140,13 +15130,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15183,14 +15168,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 39513-2025</t>
+          <t>A 27577-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45890.41581018519</v>
+        <v>45474.65008101852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15204,11 +15189,11 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>9.300000000000001</v>
+        <v>19</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15245,14 +15230,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 27767-2023</t>
+          <t>A 26022-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45098.41659722223</v>
+        <v>45091.29174768519</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15264,8 +15249,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15302,14 +15292,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 13563-2024</t>
+          <t>A 60152-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45388.99935185185</v>
+        <v>45994</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15322,7 +15312,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>9.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15359,14 +15349,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 39837-2025</t>
+          <t>A 60169-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45891.56561342593</v>
+        <v>45994</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15379,7 +15369,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15416,14 +15406,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 40082-2025</t>
+          <t>A 15012-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45894.46731481481</v>
+        <v>45015</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15473,14 +15463,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 64090-2023</t>
+          <t>A 45234-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45279.43923611111</v>
+        <v>45191.59268518518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15492,13 +15482,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15535,14 +15520,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 58829-2023</t>
+          <t>A 60166-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45252</v>
+        <v>45994</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15555,7 +15540,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15592,14 +15577,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 25723-2023</t>
+          <t>A 60548-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45090.3674537037</v>
+        <v>45995.71252314815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15612,7 +15597,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15649,14 +15634,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 41588-2025</t>
+          <t>A 60397-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45901.63114583334</v>
+        <v>44910.90956018519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15669,7 +15654,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15706,14 +15691,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 59056-2024</t>
+          <t>A 17716-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45636</v>
+        <v>45758.44623842592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15726,7 +15711,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15763,14 +15748,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 42056-2025</t>
+          <t>A 60892-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45903.64190972222</v>
+        <v>45999.57278935185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15783,7 +15768,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.7</v>
+        <v>9.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15820,14 +15805,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 42050-2025</t>
+          <t>A 60873-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45903.63047453704</v>
+        <v>45999.55505787037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15839,13 +15824,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15882,14 +15862,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 41939-2025</t>
+          <t>A 60843-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45903.44396990741</v>
+        <v>45999.48747685185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15901,13 +15881,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>8.699999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15944,14 +15919,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 18134-2021</t>
+          <t>A 40339-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44302</v>
+        <v>45555.33125</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15964,7 +15939,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>16.8</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16001,14 +15976,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 42049-2025</t>
+          <t>A 3686-2026</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45903.63034722222</v>
+        <v>46043.44011574074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +15996,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16058,14 +16033,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 9754-2022</t>
+          <t>A 26278-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44618.81180555555</v>
+        <v>44347</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16077,8 +16052,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16115,14 +16095,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 35656-2024</t>
+          <t>A 31957-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45532</v>
+        <v>45510.49798611111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16115,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16172,14 +16152,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 43206-2025</t>
+          <t>A 9754-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45910.44984953704</v>
+        <v>44618.81180555555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16192,7 +16172,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16229,14 +16209,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 2413-2024</t>
+          <t>A 33887-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45310</v>
+        <v>45523.3167824074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16249,7 +16229,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16286,14 +16266,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 47030-2025</t>
+          <t>A 35659-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45929.58944444444</v>
+        <v>45147</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16306,7 +16286,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16343,14 +16323,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 21846-2025</t>
+          <t>A 17140-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45784.33967592593</v>
+        <v>44677.53418981482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16343,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>14.6</v>
+        <v>0.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16400,14 +16380,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 16281-2024</t>
+          <t>A 35330-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45407.36091435186</v>
+        <v>44384.81996527778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16420,7 +16400,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16457,14 +16437,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 48229-2025</t>
+          <t>A 40126-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45933.51694444445</v>
+        <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16477,7 +16457,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16514,14 +16494,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 48775-2025</t>
+          <t>A 18134-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45937.00422453704</v>
+        <v>44302</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16534,7 +16514,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.7</v>
+        <v>16.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16571,14 +16551,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 29669-2025</t>
+          <t>A 34026-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45825</v>
+        <v>44791.32811342592</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16591,7 +16571,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16628,14 +16608,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 1566-2025</t>
+          <t>A 24828-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45670</v>
+        <v>45461.3750462963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16648,7 +16628,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16685,14 +16665,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 49675-2025</t>
+          <t>A 52505-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45939</v>
+        <v>45225</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16705,7 +16685,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16742,14 +16722,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 49671-2025</t>
+          <t>A 29018-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45939</v>
+        <v>45104</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16762,7 +16742,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.2</v>
+        <v>6.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16799,14 +16779,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 49676-2025</t>
+          <t>A 62217-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45939</v>
+        <v>45267.51355324074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16819,7 +16799,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16856,14 +16836,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 54604-2024</t>
+          <t>A 34755-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45617.683125</v>
+        <v>45526</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16875,8 +16855,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16913,14 +16898,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 51002-2025</t>
+          <t>A 59637-2021</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45947.36173611111</v>
+        <v>44493</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16933,7 +16918,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16970,14 +16955,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 51245-2025</t>
+          <t>A 10882-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45947.80872685185</v>
+        <v>45370</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16989,8 +16974,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17027,14 +17017,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 51246-2025</t>
+          <t>A 8295-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45947.81226851852</v>
+        <v>45352.43674768518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17047,7 +17037,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17084,14 +17074,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 12907-2025</t>
+          <t>A 24832-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45733.8203587963</v>
+        <v>45461.38202546296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17104,7 +17094,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17141,14 +17131,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 17344-2024</t>
+          <t>A 70200-2021</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45414.58052083333</v>
+        <v>44534.82171296296</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17161,7 +17151,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17198,14 +17188,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 52380-2025</t>
+          <t>A 22389-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45953.94951388889</v>
+        <v>45070</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17217,13 +17207,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17260,14 +17245,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 53600-2025</t>
+          <t>A 35656-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45960</v>
+        <v>45532</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17279,13 +17264,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>9.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17322,14 +17302,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 5562-2025</t>
+          <t>A 11631-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45693</v>
+        <v>44631</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17341,8 +17321,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17379,14 +17364,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 54595-2025</t>
+          <t>A 5217-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45965.7556712963</v>
+        <v>44593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17398,8 +17383,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>0.9</v>
+        <v>38.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17436,14 +17426,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 55035-2025</t>
+          <t>A 37849-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45967.64612268518</v>
+        <v>45158</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17456,7 +17446,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17493,14 +17483,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 56565-2025</t>
+          <t>A 24391-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45974</v>
+        <v>45457.63850694444</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17513,7 +17503,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17550,14 +17540,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 55869-2025</t>
+          <t>A 24392-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45973.35285879629</v>
+        <v>45457.64085648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17570,7 +17560,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17607,14 +17597,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 58521-2025</t>
+          <t>A 41676-2021</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45985</v>
+        <v>44425.50175925926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17627,7 +17617,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17664,14 +17654,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 1766-2026</t>
+          <t>A 35144-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>46034.6880787037</v>
+        <v>45145</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17684,7 +17674,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17721,14 +17711,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 60152-2025</t>
+          <t>A 348-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45994</v>
+        <v>45660</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17741,7 +17731,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>9.4</v>
+        <v>7.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17778,14 +17768,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 60166-2025</t>
+          <t>A 73009-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45994</v>
+        <v>44550.33282407407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17797,8 +17787,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17835,14 +17830,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 60169-2025</t>
+          <t>A 38798-2021</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45994</v>
+        <v>44410</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17855,7 +17850,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17892,14 +17887,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 60548-2025</t>
+          <t>A 8936-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45995.71252314815</v>
+        <v>45714</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17912,7 +17907,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17949,14 +17944,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 60873-2025</t>
+          <t>A 53365-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45999.55505787037</v>
+        <v>45229.66844907407</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17968,8 +17963,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G278" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -18006,14 +18006,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 60843-2025</t>
+          <t>A 11888-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45999.48747685185</v>
+        <v>45728.45688657407</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18063,14 +18063,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 60892-2025</t>
+          <t>A 21846-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45999.57278935185</v>
+        <v>45784.33967592593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>9.1</v>
+        <v>14.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -18120,14 +18120,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 3686-2026</t>
+          <t>A 16281-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46043.44011574074</v>
+        <v>45407.36091435186</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18177,14 +18177,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 2261-2026</t>
+          <t>A 1566-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>46036</v>
+        <v>45670</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -18234,14 +18234,14 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 64026-2025</t>
+          <t>A 54604-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>46021.47569444445</v>
+        <v>45617.683125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -575,7 +575,7 @@
         <v>46013.56689814815</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44263</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44841.45446759259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45980.60565972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>46013.56317129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>45751.44270833334</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,14 +1245,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 55852-2024</t>
+          <t>A 56956-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45623</v>
+        <v>45978.65591435185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,43 +1266,142 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.7</v>
+        <v>22.2</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>5</v>
-      </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tretåig hackspett
+Bronshjon
+Dropptaggsvamp
+Gullgröppa
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56956-2025 artfynd.xlsx", "A 56956-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56956-2025 karta.png", "A 56956-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56956-2025 FSC-klagomål.docx", "A 56956-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56956-2025 FSC-klagomål mail.docx", "A 56956-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56956-2025 tillsynsbegäran.docx", "A 56956-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56956-2025 tillsynsbegäran mail.docx", "A 56956-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56956-2025 prioriterade fågelarter.docx", "A 56956-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 55852-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Storspov
 Stare
@@ -1312,127 +1411,28 @@
 Tibast</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55852-2024 artfynd.xlsx", "A 55852-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55852-2024 karta.png", "A 55852-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55852-2024 FSC-klagomål.docx", "A 55852-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55852-2024 FSC-klagomål mail.docx", "A 55852-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55852-2024 tillsynsbegäran.docx", "A 55852-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55852-2024 tillsynsbegäran mail.docx", "A 55852-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 56956-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45978.65591435185</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tretåig hackspett
-Bronshjon
-Dropptaggsvamp
-Gullgröppa
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56956-2025 artfynd.xlsx", "A 56956-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56956-2025 karta.png", "A 56956-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56956-2025 FSC-klagomål.docx", "A 56956-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56956-2025 FSC-klagomål mail.docx", "A 56956-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56956-2025 tillsynsbegäran.docx", "A 56956-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56956-2025 tillsynsbegäran mail.docx", "A 56956-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56956-2025 prioriterade fågelarter.docx", "A 56956-2025")</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>44495</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45978.64929398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,14 +1633,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 45233-2021</t>
+          <t>A 59526-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44439</v>
+        <v>45989.66488425926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1652,14 +1652,19 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
@@ -1686,144 +1691,139 @@
         <v>3</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 59526-2025 artfynd.xlsx", "A 59526-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 59526-2025 karta.png", "A 59526-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 59526-2025 FSC-klagomål.docx", "A 59526-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 59526-2025 FSC-klagomål mail.docx", "A 59526-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 59526-2025 tillsynsbegäran.docx", "A 59526-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 59526-2025 tillsynsbegäran mail.docx", "A 59526-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 59526-2025 prioriterade fågelarter.docx", "A 59526-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 45233-2021</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44439</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Skrovlig taggsvamp
 Vedskivlav
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 45233-2021 artfynd.xlsx", "A 45233-2021")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 45233-2021 karta.png", "A 45233-2021")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 45233-2021 FSC-klagomål.docx", "A 45233-2021")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 45233-2021 FSC-klagomål mail.docx", "A 45233-2021")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 45233-2021 tillsynsbegäran.docx", "A 45233-2021")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 45233-2021 tillsynsbegäran mail.docx", "A 45233-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 59526-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45989.66488425926</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 59526-2025 artfynd.xlsx", "A 59526-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 59526-2025 karta.png", "A 59526-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 59526-2025 FSC-klagomål.docx", "A 59526-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 59526-2025 FSC-klagomål mail.docx", "A 59526-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 59526-2025 tillsynsbegäran.docx", "A 59526-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 59526-2025 tillsynsbegäran mail.docx", "A 59526-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 59526-2025 prioriterade fågelarter.docx", "A 59526-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 54598-2025</t>
+          <t>A 63535-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45965.77918981481</v>
+        <v>46013.57747685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1836,19 +1836,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1863,297 +1863,297 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>2</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Kryddtofsskivling
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 63535-2025 artfynd.xlsx", "A 63535-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 63535-2025 karta.png", "A 63535-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 63535-2025 FSC-klagomål.docx", "A 63535-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 63535-2025 FSC-klagomål mail.docx", "A 63535-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 63535-2025 tillsynsbegäran.docx", "A 63535-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 63535-2025 tillsynsbegäran mail.docx", "A 63535-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 63537-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46013.58233796297</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Skogshakmossa</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 63537-2025 artfynd.xlsx", "A 63537-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 63537-2025 karta.png", "A 63537-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 63537-2025 FSC-klagomål.docx", "A 63537-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 63537-2025 FSC-klagomål mail.docx", "A 63537-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 63537-2025 tillsynsbegäran.docx", "A 63537-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 63537-2025 tillsynsbegäran mail.docx", "A 63537-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 54598-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45965.77918981481</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Drillsnäppa
 Vanlig snok</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 51036-2022</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44868.3161574074</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C18" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>3.2</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Blåmossa
 Vårärt</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 51036-2022 artfynd.xlsx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 51036-2022 karta.png", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 51036-2022 FSC-klagomål.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 51036-2022 FSC-klagomål mail.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 51036-2022 tillsynsbegäran.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 51036-2022 tillsynsbegäran mail.docx", "A 51036-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 63535-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>46013.57747685185</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Kryddtofsskivling
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 63535-2025 artfynd.xlsx", "A 63535-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 63535-2025 karta.png", "A 63535-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 63535-2025 FSC-klagomål.docx", "A 63535-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 63535-2025 FSC-klagomål mail.docx", "A 63535-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 63535-2025 tillsynsbegäran.docx", "A 63535-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 63535-2025 tillsynsbegäran mail.docx", "A 63535-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 63537-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>46013.58233796297</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Skogshakmossa</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 63537-2025 artfynd.xlsx", "A 63537-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 63537-2025 karta.png", "A 63537-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 63537-2025 FSC-klagomål.docx", "A 63537-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 63537-2025 FSC-klagomål mail.docx", "A 63537-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 63537-2025 tillsynsbegäran.docx", "A 63537-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 63537-2025 tillsynsbegäran mail.docx", "A 63537-2025")</f>
         <v/>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
         <v>44339.70040509259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44347</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>45408.61318287037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>45670</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45400.68243055556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>45810.39315972223</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>45810.39408564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2860,14 +2860,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 14312-2025</t>
+          <t>A 42036-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45740.71707175926</v>
+        <v>45903.61173611111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2880,10 +2880,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2914,49 +2914,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 32498-2025</t>
+          <t>A 14312-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45838.4570949074</v>
+        <v>45740.71707175926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2968,13 +2964,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -2983,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2998,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3008,45 +2999,49 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 34826-2025</t>
+          <t>A 43148-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45849.38326388889</v>
+        <v>45910.32248842593</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3058,19 +3053,14 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3098,45 +3088,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Purpurknipprot</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 42036-2025</t>
+          <t>A 32498-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45903.61173611111</v>
+        <v>45838.4570949074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3148,17 +3138,22 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3173,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3183,45 +3178,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 33136-2025</t>
+          <t>A 34826-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45840</v>
+        <v>45849.38326388889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3239,16 +3234,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3263,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3273,45 +3268,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 43148-2025</t>
+          <t>A 33136-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45910.32248842593</v>
+        <v>45840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3323,32 +3318,37 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3358,31 +3358,31 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Purpurknipprot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
         <v>45968.64734953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45978.6584375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>45219</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>45027</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45740.70622685185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45776.41106481481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>44876.5034375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44523</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>44362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44862.43092592592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44799.59944444444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44818.95434027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4355,14 +4355,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 74451-2021</t>
+          <t>A 68890-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44560</v>
+        <v>44530</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4374,8 +4374,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4412,14 +4417,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 68890-2021</t>
+          <t>A 74451-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44530</v>
+        <v>44560</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4431,13 +4436,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>44761</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4531,14 +4531,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 35870-2022</t>
+          <t>A 47794-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44802.44491898148</v>
+        <v>44448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4550,13 +4550,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4593,14 +4588,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 47794-2021</t>
+          <t>A 35870-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44448</v>
+        <v>44802.44491898148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4612,8 +4607,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>44865.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44431.34829861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44491</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44807.45756944444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44807.46988425926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44865.6330787037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>44687.4733912037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44292</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>44284</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44791.63450231482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>44838.57731481481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44308</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44862.43146990741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44862.43199074074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5622,14 +5622,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 44850-2022</t>
+          <t>A 42743-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44841</v>
+        <v>44428.61717592592</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5684,14 +5684,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42743-2021</t>
+          <t>A 44850-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44428.61717592592</v>
+        <v>44841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>6.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>44799</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44799.73486111111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44491</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44449</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44740.53197916667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>44807.47078703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>44386.37886574074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44448</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44529.56203703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44453</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44735.59861111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>44354.37946759259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>44707.88415509259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>45775.66307870371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44503</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44958.38488425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>45384.66650462963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44791.58640046296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>45191</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6993,14 +6993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61952-2023</t>
+          <t>A 26023-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45266.56415509259</v>
+        <v>45091.2925</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7012,8 +7012,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7050,14 +7055,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26023-2023</t>
+          <t>A 53938-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45091.2925</v>
+        <v>45231</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7069,13 +7074,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7112,14 +7112,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53938-2023</t>
+          <t>A 61952-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45231</v>
+        <v>45266.56415509259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7169,14 +7169,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16085-2024</t>
+          <t>A 1566-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45406.37230324074</v>
+        <v>45670</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7226,14 +7226,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 13563-2024</t>
+          <t>A 49632-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45388.99935185185</v>
+        <v>44862.43023148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7245,8 +7245,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7283,14 +7288,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 24389-2024</t>
+          <t>A 54604-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45457.63585648148</v>
+        <v>45617.683125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7303,7 +7308,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7340,14 +7345,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 55766-2024</t>
+          <t>A 13563-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45623.37702546296</v>
+        <v>45388.99935185185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7360,7 +7365,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>18.5</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7397,14 +7402,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 52879-2023</t>
+          <t>A 16085-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45226.47349537037</v>
+        <v>45406.37230324074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7417,7 +7422,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7461,7 +7466,7 @@
         <v>45414.58052083333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7511,14 +7516,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 9457-2025</t>
+          <t>A 24389-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45714</v>
+        <v>45457.63585648148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7531,7 +7536,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7568,14 +7573,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 38179-2023</t>
+          <t>A 55766-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45161.45337962963</v>
+        <v>45623.37702546296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7588,7 +7593,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>18.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7625,14 +7630,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43535-2023</t>
+          <t>A 26916-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45184</v>
+        <v>44740</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7644,8 +7649,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7682,14 +7692,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 49632-2022</t>
+          <t>A 52879-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44862.43023148148</v>
+        <v>45226.47349537037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7699,11 +7709,6 @@
       <c r="E102" t="inlineStr">
         <is>
           <t>NORA</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -7744,14 +7749,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35675-2023</t>
+          <t>A 9457-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45147</v>
+        <v>45714</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7764,7 +7769,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7801,14 +7806,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 39257-2023</t>
+          <t>A 26320-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45166.48097222222</v>
+        <v>44735.60184027778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7820,8 +7825,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7858,14 +7868,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 35608-2021</t>
+          <t>A 38179-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44386.38070601852</v>
+        <v>45161.45337962963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7877,13 +7887,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7920,14 +7925,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 59607-2024</t>
+          <t>A 39513-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45638.74914351852</v>
+        <v>45890.41581018519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7939,8 +7944,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7977,14 +7987,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34759-2024</t>
+          <t>A 43535-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45526</v>
+        <v>45184</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7996,13 +8006,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>6.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8039,14 +8044,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 5562-2025</t>
+          <t>A 35675-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45693</v>
+        <v>45147</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8064,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8096,14 +8101,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5590-2025</t>
+          <t>A 39257-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45693</v>
+        <v>45166.48097222222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8121,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8153,14 +8158,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 64026-2025</t>
+          <t>A 39837-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46021.47569444445</v>
+        <v>45891.56561342593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8178,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8210,14 +8215,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60301-2023</t>
+          <t>A 5562-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45258</v>
+        <v>45693</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8235,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8267,14 +8272,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 26021-2023</t>
+          <t>A 5590-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45091.29033564815</v>
+        <v>45693</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8286,13 +8291,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8329,14 +8329,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 41669-2021</t>
+          <t>A 40082-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44425</v>
+        <v>45894.46731481481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8386,14 +8386,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 52303-2024</t>
+          <t>A 35608-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45608.75231481482</v>
+        <v>44386.38070601852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8405,8 +8405,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8443,14 +8448,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 23277-2024</t>
+          <t>A 59607-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45453.40982638889</v>
+        <v>45638.74914351852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8463,7 +8468,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8500,14 +8505,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 24820-2024</t>
+          <t>A 34759-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45461.3465625</v>
+        <v>45526</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8519,8 +8524,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8557,14 +8567,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26657-2025</t>
+          <t>A 41588-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45810.39180555556</v>
+        <v>45901.63114583334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8576,13 +8586,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>6.8</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8619,14 +8624,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 39707-2022</t>
+          <t>A 52303-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44818.95277777778</v>
+        <v>45608.75231481482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8638,13 +8643,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8681,14 +8681,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 2261-2026</t>
+          <t>A 23277-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46036</v>
+        <v>45453.40982638889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.4</v>
+        <v>5.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8738,14 +8738,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 24821-2024</t>
+          <t>A 60301-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45461.34765046297</v>
+        <v>45258</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>12.2</v>
+        <v>6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8795,14 +8795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 24833-2024</t>
+          <t>A 26657-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45461.39246527778</v>
+        <v>45810.39180555556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8814,8 +8814,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>6.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8852,14 +8857,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 26916-2022</t>
+          <t>A 26021-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44740</v>
+        <v>45091.29033564815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8873,11 +8878,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8914,14 +8919,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 27844-2025</t>
+          <t>A 42056-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45817.39009259259</v>
+        <v>45903.64190972222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8934,7 +8939,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8971,14 +8976,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 41696-2023</t>
+          <t>A 42050-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45176</v>
+        <v>45903.63047453704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8990,8 +8995,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9028,14 +9038,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 16109-2024</t>
+          <t>A 41939-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45406.46753472222</v>
+        <v>45903.44396990741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9047,8 +9057,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9085,14 +9100,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 27878-2025</t>
+          <t>A 41669-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45817.443125</v>
+        <v>44425</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9120,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9142,14 +9157,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26320-2022</t>
+          <t>A 42049-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44735.60184027778</v>
+        <v>45903.63034722222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9161,13 +9176,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9204,14 +9214,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 12183-2025</t>
+          <t>A 27844-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45729.46353009259</v>
+        <v>45817.39009259259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9224,7 +9234,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9261,14 +9271,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 39513-2025</t>
+          <t>A 24820-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45890.41581018519</v>
+        <v>45461.3465625</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9280,13 +9290,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>9.300000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9323,14 +9328,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 46410-2021</t>
+          <t>A 27878-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44444</v>
+        <v>45817.443125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9343,7 +9348,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9380,14 +9385,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 56871-2021</t>
+          <t>A 39707-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44481.78949074074</v>
+        <v>44818.95277777778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9399,8 +9404,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9437,14 +9447,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 57316-2022</t>
+          <t>A 24821-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44896.32079861111</v>
+        <v>45461.34765046297</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9456,13 +9466,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>12.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9499,14 +9504,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 43843-2023</t>
+          <t>A 24833-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45187</v>
+        <v>45461.39246527778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9518,13 +9523,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9561,14 +9561,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 43919-2023</t>
+          <t>A 41696-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45182</v>
+        <v>45176</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9618,14 +9618,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 39837-2025</t>
+          <t>A 16109-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45891.56561342593</v>
+        <v>45406.46753472222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9675,14 +9675,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 40082-2025</t>
+          <t>A 43206-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45894.46731481481</v>
+        <v>45910.44984953704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9732,14 +9732,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 64090-2023</t>
+          <t>A 12183-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45279.43923611111</v>
+        <v>45729.46353009259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9751,13 +9751,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9794,14 +9789,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 32501-2025</t>
+          <t>A 46410-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45838.46260416666</v>
+        <v>44444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9813,13 +9808,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9856,14 +9846,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 5049-2022</t>
+          <t>A 56871-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44593</v>
+        <v>44481.78949074074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9876,7 +9866,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9913,14 +9903,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 59056-2024</t>
+          <t>A 57316-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45636</v>
+        <v>44896.32079861111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9932,8 +9922,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9970,14 +9965,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 25723-2023</t>
+          <t>A 43843-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45090.3674537037</v>
+        <v>45187</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9989,8 +9984,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10027,14 +10027,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 41588-2025</t>
+          <t>A 43919-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45901.63114583334</v>
+        <v>45182</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10084,14 +10084,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 9295-2025</t>
+          <t>A 32501-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45714</v>
+        <v>45838.46260416666</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10103,8 +10103,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10141,14 +10146,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 4723-2023</t>
+          <t>A 64090-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44957.51490740741</v>
+        <v>45279.43923611111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10160,8 +10165,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10198,14 +10208,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 53129-2023</t>
+          <t>A 47030-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45229</v>
+        <v>45929.58944444444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10218,7 +10228,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10255,14 +10265,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46688-2023</t>
+          <t>A 5049-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45198.51881944444</v>
+        <v>44593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10275,7 +10285,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10312,14 +10322,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 34835-2025</t>
+          <t>A 59056-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45849.38855324074</v>
+        <v>45636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10331,13 +10341,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10374,14 +10379,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 34824-2025</t>
+          <t>A 25723-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45849.38061342593</v>
+        <v>45090.3674537037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10393,13 +10398,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10436,14 +10436,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 34827-2025</t>
+          <t>A 9295-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45849.38547453703</v>
+        <v>45714</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10453,11 +10453,6 @@
       <c r="E149" t="inlineStr">
         <is>
           <t>NORA</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -10498,14 +10493,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 42056-2025</t>
+          <t>A 4723-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45903.64190972222</v>
+        <v>44957.51490740741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10518,7 +10513,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10555,14 +10550,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 12646-2024</t>
+          <t>A 34835-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45384.34563657407</v>
+        <v>45849.38855324074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10574,8 +10569,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>8.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10612,14 +10612,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 34825-2025</t>
+          <t>A 34824-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45849.38262731482</v>
+        <v>45849.38061342593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10674,14 +10674,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 14477-2025</t>
+          <t>A 34827-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45741.58723379629</v>
+        <v>45849.38547453703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10736,14 +10736,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 42050-2025</t>
+          <t>A 48229-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45903.63047453704</v>
+        <v>45933.51694444445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10755,13 +10755,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10798,14 +10793,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 41939-2025</t>
+          <t>A 34825-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45903.44396990741</v>
+        <v>45849.38262731482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10819,11 +10814,11 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>8.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10860,14 +10855,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 14482-2025</t>
+          <t>A 14477-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45741.59662037037</v>
+        <v>45741.58723379629</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10885,7 +10880,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10922,14 +10917,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 8589-2022</t>
+          <t>A 14482-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44613.55984953704</v>
+        <v>45741.59662037037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10947,7 +10942,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10991,7 +10986,7 @@
         <v>45628.58696759259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11041,14 +11036,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 42049-2025</t>
+          <t>A 53129-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45903.63034722222</v>
+        <v>45229</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11061,7 +11056,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11098,14 +11093,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 24822-2024</t>
+          <t>A 46688-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45461.34818287037</v>
+        <v>45198.51881944444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11118,7 +11113,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11155,14 +11150,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 5674-2023</t>
+          <t>A 12646-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44960.66104166667</v>
+        <v>45384.34563657407</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11174,13 +11169,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>2.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11217,14 +11207,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 46544-2021</t>
+          <t>A 48775-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44445</v>
+        <v>45937.00422453704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11237,7 +11227,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11274,14 +11264,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 36089-2025</t>
+          <t>A 8589-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45866</v>
+        <v>44613.55984953704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11293,8 +11283,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11331,14 +11326,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 49498-2024</t>
+          <t>A 36089-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45596.3672337963</v>
+        <v>45866</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11350,13 +11345,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11393,14 +11383,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 45159-2023</t>
+          <t>A 24822-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45191.49001157407</v>
+        <v>45461.34818287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11413,7 +11403,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11450,14 +11440,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 43206-2025</t>
+          <t>A 49498-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45910.44984953704</v>
+        <v>45596.3672337963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11469,8 +11459,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11507,14 +11502,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 37550-2025</t>
+          <t>A 29669-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45879.91046296297</v>
+        <v>45825</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11527,7 +11522,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11564,14 +11559,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 58829-2023</t>
+          <t>A 49671-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45252</v>
+        <v>45939</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11584,7 +11579,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11621,14 +11616,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 3309-2024</t>
+          <t>A 49676-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45317</v>
+        <v>45939</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11641,7 +11636,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11678,14 +11673,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 46198-2023</t>
+          <t>A 51002-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45196</v>
+        <v>45947.36173611111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11698,7 +11693,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>8.800000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11735,14 +11730,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 36064-2023</t>
+          <t>A 49675-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45149</v>
+        <v>45939</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11755,7 +11750,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11792,14 +11787,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 11864-2025</t>
+          <t>A 5674-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45728.41668981482</v>
+        <v>44960.66104166667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11811,8 +11806,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11849,14 +11849,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 43254-2022</t>
+          <t>A 46544-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44834</v>
+        <v>44445</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11906,14 +11906,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 16529-2024</t>
+          <t>A 51245-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45408.42216435185</v>
+        <v>45947.80872685185</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11925,13 +11925,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11968,14 +11963,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 21449-2021</t>
+          <t>A 51246-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44321.46297453704</v>
+        <v>45947.81226851852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11985,11 +11980,6 @@
       <c r="E175" t="inlineStr">
         <is>
           <t>NORA</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -12030,14 +12020,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 47030-2025</t>
+          <t>A 37550-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45929.58944444444</v>
+        <v>45879.91046296297</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12050,7 +12040,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12087,14 +12077,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 64089-2023</t>
+          <t>A 52380-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45279</v>
+        <v>45953.94951388889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12112,7 +12102,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12149,14 +12139,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 45229-2023</t>
+          <t>A 45159-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45191</v>
+        <v>45191.49001157407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12169,7 +12159,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12206,14 +12196,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 10079-2024</t>
+          <t>A 12907-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45364.42604166667</v>
+        <v>45733.8203587963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12225,13 +12215,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12268,14 +12253,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 48229-2025</t>
+          <t>A 53600-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45933.51694444445</v>
+        <v>45960</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12287,8 +12272,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>2.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12325,14 +12315,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 49959-2023</t>
+          <t>A 58829-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45215.38530092593</v>
+        <v>45252</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12345,7 +12335,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12382,14 +12372,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 57639-2023</t>
+          <t>A 3309-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45246</v>
+        <v>45317</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12401,13 +12391,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12444,14 +12429,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 16957-2025</t>
+          <t>A 46198-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45755.44732638889</v>
+        <v>45196</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12464,7 +12449,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12501,14 +12486,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 48775-2025</t>
+          <t>A 36064-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45937.00422453704</v>
+        <v>45149</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12521,7 +12506,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12558,14 +12543,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 42049-2023</t>
+          <t>A 11864-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45177</v>
+        <v>45728.41668981482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12577,13 +12562,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12620,14 +12600,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 29112-2023</t>
+          <t>A 64026-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45105.39409722222</v>
+        <v>46021.47569444445</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12640,7 +12620,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12677,14 +12657,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 29669-2025</t>
+          <t>A 54595-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45825</v>
+        <v>45965.7556712963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12697,7 +12677,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12734,14 +12714,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 48610-2023</t>
+          <t>A 55035-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45208</v>
+        <v>45967.64612268518</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12754,7 +12734,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12791,14 +12771,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 34206-2022</t>
+          <t>A 43254-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44791.65267361111</v>
+        <v>44834</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12810,13 +12790,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12853,14 +12828,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 38177-2023</t>
+          <t>A 16529-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45161.44978009259</v>
+        <v>45408.42216435185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12872,8 +12847,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12910,14 +12890,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 12699-2023</t>
+          <t>A 55869-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45000</v>
+        <v>45973.35285879629</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12929,13 +12909,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12972,14 +12947,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 49671-2025</t>
+          <t>A 56565-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45939</v>
+        <v>45974</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12992,7 +12967,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13029,14 +13004,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 49676-2025</t>
+          <t>A 21449-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45939</v>
+        <v>44321.46297453704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13048,8 +13023,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13086,14 +13066,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14025-2021</t>
+          <t>A 2261-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44277.65498842593</v>
+        <v>46036</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13086,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>7.7</v>
+        <v>0.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13143,14 +13123,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 51002-2025</t>
+          <t>A 58521-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45947.36173611111</v>
+        <v>45985</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13143,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13200,14 +13180,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 49675-2025</t>
+          <t>A 64089-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45939</v>
+        <v>45279</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13219,8 +13199,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13257,14 +13242,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 14315-2025</t>
+          <t>A 45229-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45740.72116898148</v>
+        <v>45191</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13262,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13314,14 +13299,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 51245-2025</t>
+          <t>A 10079-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45947.80872685185</v>
+        <v>45364.42604166667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13333,8 +13318,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13371,14 +13361,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 51246-2025</t>
+          <t>A 49959-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45947.81226851852</v>
+        <v>45215.38530092593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13391,7 +13381,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13428,14 +13418,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 16540-2024</t>
+          <t>A 57639-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45408.4334837963</v>
+        <v>45246</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13447,8 +13437,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13485,14 +13480,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 40710-2021</t>
+          <t>A 16957-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44420</v>
+        <v>45755.44732638889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13505,7 +13500,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13542,14 +13537,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 2413-2024</t>
+          <t>A 42049-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45310</v>
+        <v>45177</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13561,8 +13556,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13599,14 +13599,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 52380-2025</t>
+          <t>A 1766-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45953.94951388889</v>
+        <v>46034.6880787037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13618,13 +13618,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13661,14 +13656,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 45645-2022</t>
+          <t>A 60152-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44845.65557870371</v>
+        <v>45994</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13681,7 +13676,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.7</v>
+        <v>9.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13718,14 +13713,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 40497-2024</t>
+          <t>A 60169-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45555.57101851852</v>
+        <v>45994</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13738,7 +13733,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13775,14 +13770,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 12907-2025</t>
+          <t>A 60166-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45733.8203587963</v>
+        <v>45994</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13795,7 +13790,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13832,14 +13827,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 34722-2024</t>
+          <t>A 60548-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45526</v>
+        <v>45995.71252314815</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13851,13 +13846,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13894,14 +13884,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 27767-2023</t>
+          <t>A 29112-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45098.41659722223</v>
+        <v>45105.39409722222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13914,7 +13904,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13951,14 +13941,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 13585-2024</t>
+          <t>A 48610-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45389.85309027778</v>
+        <v>45208</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13971,7 +13961,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14008,14 +13998,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 53600-2025</t>
+          <t>A 34206-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45960</v>
+        <v>44791.65267361111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14029,11 +14019,11 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>9.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14070,14 +14060,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 4977-2023</t>
+          <t>A 38177-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44958.46266203704</v>
+        <v>45161.44978009259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14090,7 +14080,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.4</v>
+        <v>8.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14127,14 +14117,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 54595-2025</t>
+          <t>A 12699-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45965.7556712963</v>
+        <v>45000</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14146,8 +14136,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14184,14 +14179,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 55035-2025</t>
+          <t>A 60892-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45967.64612268518</v>
+        <v>45999.57278935185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14204,7 +14199,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.4</v>
+        <v>9.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14241,14 +14236,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 63825-2023</t>
+          <t>A 60873-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45278</v>
+        <v>45999.55505787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14260,13 +14255,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14303,14 +14293,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 24818-2024</t>
+          <t>A 14025-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45461.33123842593</v>
+        <v>44277.65498842593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14313,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14360,14 +14350,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 1521-2025</t>
+          <t>A 60843-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45670</v>
+        <v>45999.48747685185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14370,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14417,14 +14407,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 55869-2025</t>
+          <t>A 14315-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45973.35285879629</v>
+        <v>45740.72116898148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14427,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14474,14 +14464,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 53472-2022</t>
+          <t>A 3686-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44879</v>
+        <v>46043.44011574074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14484,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14531,14 +14521,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 56565-2025</t>
+          <t>A 16540-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45974</v>
+        <v>45408.4334837963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14541,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14588,14 +14578,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 52379-2023</t>
+          <t>A 40710-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45224</v>
+        <v>44420</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14598,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14645,14 +14635,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 17352-2024</t>
+          <t>A 2413-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45414.5908912037</v>
+        <v>45310</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14655,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14702,14 +14692,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 16537-2024</t>
+          <t>A 45645-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45408.43247685185</v>
+        <v>44845.65557870371</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14721,13 +14711,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14764,14 +14749,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 16557-2024</t>
+          <t>A 40497-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45408.45260416667</v>
+        <v>45555.57101851852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14783,13 +14768,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14826,14 +14806,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 17770-2022</t>
+          <t>A 34722-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44682.64953703704</v>
+        <v>45526</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14845,8 +14825,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14883,14 +14868,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 58521-2025</t>
+          <t>A 27767-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45985</v>
+        <v>45098.41659722223</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14888,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14940,14 +14925,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 48707-2022</t>
+          <t>A 13585-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44859</v>
+        <v>45389.85309027778</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14945,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14997,14 +14982,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 56136-2022</t>
+          <t>A 4977-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44889</v>
+        <v>44958.46266203704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15002,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15054,14 +15039,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 1766-2026</t>
+          <t>A 63825-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46034.6880787037</v>
+        <v>45278</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15073,8 +15058,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15111,14 +15101,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 7579-2024</t>
+          <t>A 24818-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45348</v>
+        <v>45461.33123842593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15131,7 +15121,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15168,14 +15158,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 27577-2024</t>
+          <t>A 1521-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45474.65008101852</v>
+        <v>45670</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15187,13 +15177,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>19</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15230,14 +15215,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 26022-2023</t>
+          <t>A 53472-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45091.29174768519</v>
+        <v>44879</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15249,13 +15234,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15292,14 +15272,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 60152-2025</t>
+          <t>A 52379-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45994</v>
+        <v>45224</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15292,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>9.4</v>
+        <v>0.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15349,14 +15329,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 60169-2025</t>
+          <t>A 17352-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45994</v>
+        <v>45414.5908912037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15349,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15406,14 +15386,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 15012-2023</t>
+          <t>A 16537-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45015</v>
+        <v>45408.43247685185</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15425,8 +15405,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15463,14 +15448,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 45234-2023</t>
+          <t>A 16557-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45191.59268518518</v>
+        <v>45408.45260416667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15482,8 +15467,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15520,14 +15510,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 60166-2025</t>
+          <t>A 17770-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45994</v>
+        <v>44682.64953703704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15530,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15577,14 +15567,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 60548-2025</t>
+          <t>A 48707-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45995.71252314815</v>
+        <v>44859</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15587,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.7</v>
+        <v>7.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15634,14 +15624,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 60397-2022</t>
+          <t>A 56136-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44910.90956018519</v>
+        <v>44889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15644,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15691,14 +15681,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 17716-2025</t>
+          <t>A 7579-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45758.44623842592</v>
+        <v>45348</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15701,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15748,14 +15738,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 60892-2025</t>
+          <t>A 27577-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45999.57278935185</v>
+        <v>45474.65008101852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15767,8 +15757,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>9.1</v>
+        <v>19</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15805,14 +15800,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 60873-2025</t>
+          <t>A 26022-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45999.55505787037</v>
+        <v>45091.29174768519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15824,8 +15819,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15862,14 +15862,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 60843-2025</t>
+          <t>A 15012-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45999.48747685185</v>
+        <v>45015</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15919,14 +15919,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 40339-2024</t>
+          <t>A 45234-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45555.33125</v>
+        <v>45191.59268518518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15976,14 +15976,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 3686-2026</t>
+          <t>A 60397-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46043.44011574074</v>
+        <v>44910.90956018519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16033,14 +16033,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 26278-2021</t>
+          <t>A 17716-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44347</v>
+        <v>45758.44623842592</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16052,13 +16052,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16095,14 +16090,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 31957-2024</t>
+          <t>A 40339-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45510.49798611111</v>
+        <v>45555.33125</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16115,7 +16110,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16152,14 +16147,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 9754-2022</t>
+          <t>A 26278-2021</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44618.81180555555</v>
+        <v>44347</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16171,8 +16166,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16209,14 +16209,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 33887-2024</t>
+          <t>A 31957-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45523.3167824074</v>
+        <v>45510.49798611111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16266,14 +16266,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 35659-2023</t>
+          <t>A 9754-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45147</v>
+        <v>44618.81180555555</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16323,14 +16323,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 17140-2022</t>
+          <t>A 33887-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44677.53418981482</v>
+        <v>45523.3167824074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16380,14 +16380,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 35330-2021</t>
+          <t>A 35659-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44384.81996527778</v>
+        <v>45147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16437,14 +16437,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 40126-2021</t>
+          <t>A 17140-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44418</v>
+        <v>44677.53418981482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16494,14 +16494,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 18134-2021</t>
+          <t>A 35330-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44302</v>
+        <v>44384.81996527778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>16.8</v>
+        <v>1.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16551,14 +16551,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 34026-2022</t>
+          <t>A 40126-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44791.32811342592</v>
+        <v>44418</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16608,14 +16608,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 24828-2024</t>
+          <t>A 18134-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45461.3750462963</v>
+        <v>44302</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>4.8</v>
+        <v>16.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16665,14 +16665,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 52505-2023</t>
+          <t>A 34026-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45225</v>
+        <v>44791.32811342592</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16722,14 +16722,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 29018-2023</t>
+          <t>A 24828-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45104</v>
+        <v>45461.3750462963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16779,14 +16779,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 62217-2023</t>
+          <t>A 52505-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45267.51355324074</v>
+        <v>45225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16836,14 +16836,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 34755-2024</t>
+          <t>A 29018-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45526</v>
+        <v>45104</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16855,13 +16855,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>1.7</v>
+        <v>6.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16898,14 +16893,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 59637-2021</t>
+          <t>A 62217-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44493</v>
+        <v>45267.51355324074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16918,7 +16913,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16955,14 +16950,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 10882-2024</t>
+          <t>A 34755-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45370</v>
+        <v>45526</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16976,11 +16971,11 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17017,14 +17012,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 8295-2024</t>
+          <t>A 59637-2021</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45352.43674768518</v>
+        <v>44493</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17037,7 +17032,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17074,14 +17069,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 24832-2024</t>
+          <t>A 10882-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45461.38202546296</v>
+        <v>45370</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17093,8 +17088,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>2.7</v>
+        <v>5.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17131,14 +17131,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 70200-2021</t>
+          <t>A 8295-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44534.82171296296</v>
+        <v>45352.43674768518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17188,14 +17188,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 22389-2023</t>
+          <t>A 24832-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45070</v>
+        <v>45461.38202546296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17245,14 +17245,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 35656-2024</t>
+          <t>A 70200-2021</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45532</v>
+        <v>44534.82171296296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17302,14 +17302,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 11631-2022</t>
+          <t>A 22389-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44631</v>
+        <v>45070</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17321,13 +17321,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17364,14 +17359,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 5217-2022</t>
+          <t>A 35656-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44593</v>
+        <v>45532</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17383,13 +17378,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>38.4</v>
+        <v>1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17426,14 +17416,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 37849-2023</t>
+          <t>A 11631-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45158</v>
+        <v>44631</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17445,8 +17435,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17483,14 +17478,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 24391-2024</t>
+          <t>A 5217-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45457.63850694444</v>
+        <v>44593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17502,8 +17497,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>1.2</v>
+        <v>38.4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17540,14 +17540,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 24392-2024</t>
+          <t>A 37849-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45457.64085648148</v>
+        <v>45158</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17597,14 +17597,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 41676-2021</t>
+          <t>A 24391-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44425.50175925926</v>
+        <v>45457.63850694444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17654,14 +17654,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 35144-2023</t>
+          <t>A 24392-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45145</v>
+        <v>45457.64085648148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17711,14 +17711,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 348-2025</t>
+          <t>A 41676-2021</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45660</v>
+        <v>44425.50175925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>7.3</v>
+        <v>3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17768,14 +17768,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 73009-2021</t>
+          <t>A 35144-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44550.33282407407</v>
+        <v>45145</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17787,13 +17787,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17830,14 +17825,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 38798-2021</t>
+          <t>A 348-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44410</v>
+        <v>45660</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17850,7 +17845,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.6</v>
+        <v>7.3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17887,14 +17882,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 8936-2025</t>
+          <t>A 73009-2021</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45714</v>
+        <v>44550.33282407407</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17906,8 +17901,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17944,14 +17944,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 53365-2023</t>
+          <t>A 38798-2021</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45229.66844907407</v>
+        <v>44410</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17963,13 +17963,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -18006,14 +18001,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 11888-2025</t>
+          <t>A 8936-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45728.45688657407</v>
+        <v>45714</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18026,7 +18021,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18063,14 +18058,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 21846-2025</t>
+          <t>A 53365-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45784.33967592593</v>
+        <v>45229.66844907407</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18082,8 +18077,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G280" t="n">
-        <v>14.6</v>
+        <v>2.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -18120,14 +18120,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 16281-2024</t>
+          <t>A 11888-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45407.36091435186</v>
+        <v>45728.45688657407</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18177,14 +18177,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 1566-2025</t>
+          <t>A 21846-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45670</v>
+        <v>45784.33967592593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.5</v>
+        <v>14.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -18234,14 +18234,14 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 54604-2024</t>
+          <t>A 16281-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45617.683125</v>
+        <v>45407.36091435186</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -575,7 +575,7 @@
         <v>46013.56689814815</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44263</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44841.45446759259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45980.60565972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>46013.56317129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>45751.44270833334</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>45978.65591435185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45623</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44495</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45978.64929398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45989.66488425926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44439</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1816,14 +1816,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 63535-2025</t>
+          <t>A 54598-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46013.57747685185</v>
+        <v>45965.77918981481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1836,19 +1836,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1863,211 +1863,211 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>2</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Drillsnäppa
+Vanlig snok</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 63535-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46013.57747685185</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Kryddtofsskivling
 Blåsippa</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 63535-2025 artfynd.xlsx", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 63535-2025 karta.png", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 63535-2025 FSC-klagomål.docx", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 63535-2025 FSC-klagomål mail.docx", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 63535-2025 tillsynsbegäran.docx", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 63535-2025 tillsynsbegäran mail.docx", "A 63535-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 63537-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>46013.58233796297</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Ask
 Skogshakmossa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 63537-2025 artfynd.xlsx", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 63537-2025 karta.png", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 63537-2025 FSC-klagomål.docx", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 63537-2025 FSC-klagomål mail.docx", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 63537-2025 tillsynsbegäran.docx", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 63537-2025 tillsynsbegäran mail.docx", "A 63537-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 54598-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45965.77918981481</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Drillsnäppa
-Vanlig snok</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
         <v/>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
         <v>44868.3161574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44339.70040509259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44347</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>45408.61318287037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,14 +2510,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 1520-2025</t>
+          <t>A 15327-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45670</v>
+        <v>45400.68243055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2564,45 +2564,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 15327-2024</t>
+          <t>A 1520-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45400.68243055556</v>
+        <v>45670</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2649,45 +2649,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 26658-2025</t>
+          <t>A 42036-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45810.39315972223</v>
+        <v>45903.61173611111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2699,23 +2699,18 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2729,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2739,45 +2734,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 26659-2025</t>
+          <t>A 26658-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45810.39408564815</v>
+        <v>45810.39315972223</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2795,7 +2790,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2833,41 +2828,41 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 42036-2025</t>
+          <t>A 26659-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45903.61173611111</v>
+        <v>45810.39408564815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,17 +2874,22 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2914,45 +2914,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 14312-2025</t>
+          <t>A 43148-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45740.71707175926</v>
+        <v>45910.32248842593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2965,16 +2965,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2999,49 +2999,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Purpurknipprot</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 43148-2025</t>
+          <t>A 14312-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45910.32248842593</v>
+        <v>45740.71707175926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3054,17 +3050,17 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3078,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3088,31 +3084,35 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Purpurknipprot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
+        <v/>
+      </c>
+      <c r="Z29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
         <v/>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
         <v>45838.4570949074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>45849.38326388889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>45840</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         <v>45968.64734953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45978.6584375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>45219</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>45027</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45740.70622685185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45776.41106481481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>44876.5034375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44523</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>44362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44862.43092592592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44799.59944444444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44818.95434027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4355,14 +4355,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 68890-2021</t>
+          <t>A 74451-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44530</v>
+        <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4374,13 +4374,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4417,14 +4412,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 74451-2021</t>
+          <t>A 68890-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44560</v>
+        <v>44530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4436,8 +4431,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>44761</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4531,14 +4531,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 47794-2021</t>
+          <t>A 35870-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44448</v>
+        <v>44802.44491898148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4550,8 +4550,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4588,14 +4593,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 35870-2022</t>
+          <t>A 47794-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44802.44491898148</v>
+        <v>44448</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4607,13 +4612,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>44865.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44431.34829861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44491</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4836,14 +4836,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 37259-2022</t>
+          <t>A 37265-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44807.45756944444</v>
+        <v>44807.46988425926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4898,14 +4898,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37265-2022</t>
+          <t>A 37259-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44807.46988425926</v>
+        <v>44807.45756944444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4967,7 +4967,7 @@
         <v>44865.6330787037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>44687.4733912037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44292</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>44284</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44791.63450231482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>44838.57731481481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44308</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44862.43146990741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44862.43199074074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44428.61717592592</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44799</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44799.73486111111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44491</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44449</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44740.53197916667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>44807.47078703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>44386.37886574074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44448</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44529.56203703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6351,14 +6351,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 5039-2022</t>
+          <t>A 49135-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44593</v>
+        <v>44453</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6408,14 +6408,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 49135-2021</t>
+          <t>A 5039-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44453</v>
+        <v>44593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>44735.59861111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>44354.37946759259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>44707.88415509259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>45775.66307870371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44503</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6760,14 +6760,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4910-2023</t>
+          <t>A 12815-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44958.38488425926</v>
+        <v>45384.66650462963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6817,14 +6817,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 12815-2024</t>
+          <t>A 34164-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45384.66650462963</v>
+        <v>44791.58640046296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6836,8 +6836,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6874,14 +6879,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 34164-2022</t>
+          <t>A 4910-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44791.58640046296</v>
+        <v>44958.38488425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6893,13 +6898,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6943,7 +6943,7 @@
         <v>45191</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6993,14 +6993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 26023-2023</t>
+          <t>A 16281-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45091.2925</v>
+        <v>45407.36091435186</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7012,13 +7012,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7055,14 +7050,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 53938-2023</t>
+          <t>A 49632-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45231</v>
+        <v>44862.43023148148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7074,8 +7069,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7112,14 +7112,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61952-2023</t>
+          <t>A 1566-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45266.56415509259</v>
+        <v>45670</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7169,14 +7169,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1566-2025</t>
+          <t>A 55869-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45670</v>
+        <v>45973.35285879629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7226,14 +7226,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 49632-2022</t>
+          <t>A 61952-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44862.43023148148</v>
+        <v>45266.56415509259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7245,13 +7245,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7295,7 +7290,7 @@
         <v>45617.683125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7345,14 +7340,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 13563-2024</t>
+          <t>A 26023-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45388.99935185185</v>
+        <v>45091.2925</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7362,6 +7357,11 @@
       <c r="E96" t="inlineStr">
         <is>
           <t>NORA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -7402,14 +7402,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 16085-2024</t>
+          <t>A 53938-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45406.37230324074</v>
+        <v>45231</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7459,14 +7459,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 17344-2024</t>
+          <t>A 26916-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45414.58052083333</v>
+        <v>44740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7478,8 +7478,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7516,14 +7521,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 24389-2024</t>
+          <t>A 26320-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45457.63585648148</v>
+        <v>44735.60184027778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7535,8 +7540,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7573,14 +7583,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 55766-2024</t>
+          <t>A 39513-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45623.37702546296</v>
+        <v>45890.41581018519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7592,8 +7602,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>18.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7630,14 +7645,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26916-2022</t>
+          <t>A 17344-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44740</v>
+        <v>45414.58052083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7649,13 +7664,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7692,14 +7702,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 52879-2023</t>
+          <t>A 13563-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45226.47349537037</v>
+        <v>45388.99935185185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7722,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7749,14 +7759,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 9457-2025</t>
+          <t>A 16085-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45714</v>
+        <v>45406.37230324074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7779,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7806,14 +7816,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 26320-2022</t>
+          <t>A 56565-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44735.60184027778</v>
+        <v>45974</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7825,13 +7835,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7868,14 +7873,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 38179-2023</t>
+          <t>A 39837-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45161.45337962963</v>
+        <v>45891.56561342593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7888,7 +7893,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7925,14 +7930,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 39513-2025</t>
+          <t>A 40082-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45890.41581018519</v>
+        <v>45894.46731481481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7944,13 +7949,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>9.300000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7987,14 +7987,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43535-2023</t>
+          <t>A 24389-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45184</v>
+        <v>45457.63585648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8044,14 +8044,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 35675-2023</t>
+          <t>A 55766-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45147</v>
+        <v>45623.37702546296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>18.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8101,14 +8101,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 39257-2023</t>
+          <t>A 5562-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45166.48097222222</v>
+        <v>45693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8158,14 +8158,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 39837-2025</t>
+          <t>A 5590-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45891.56561342593</v>
+        <v>45693</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8215,14 +8215,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 5562-2025</t>
+          <t>A 52879-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45693</v>
+        <v>45226.47349537037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8272,14 +8272,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5590-2025</t>
+          <t>A 9457-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45693</v>
+        <v>45714</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8329,14 +8329,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 40082-2025</t>
+          <t>A 41588-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45894.46731481481</v>
+        <v>45901.63114583334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8386,14 +8386,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 35608-2021</t>
+          <t>A 38179-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44386.38070601852</v>
+        <v>45161.45337962963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8405,13 +8405,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8448,14 +8443,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 59607-2024</t>
+          <t>A 43535-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45638.74914351852</v>
+        <v>45184</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8468,7 +8463,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>6.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8505,14 +8500,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 34759-2024</t>
+          <t>A 35675-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45526</v>
+        <v>45147</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8524,13 +8519,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8567,14 +8557,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41588-2025</t>
+          <t>A 39257-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45901.63114583334</v>
+        <v>45166.48097222222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8587,7 +8577,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8624,14 +8614,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 52303-2024</t>
+          <t>A 42056-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45608.75231481482</v>
+        <v>45903.64190972222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8644,7 +8634,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8681,14 +8671,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 23277-2024</t>
+          <t>A 42050-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45453.40982638889</v>
+        <v>45903.63047453704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8700,8 +8690,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8738,14 +8733,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60301-2023</t>
+          <t>A 41939-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45258</v>
+        <v>45903.44396990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8757,8 +8752,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8795,14 +8795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 26657-2025</t>
+          <t>A 35608-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45810.39180555556</v>
+        <v>44386.38070601852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8857,14 +8857,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 26021-2023</t>
+          <t>A 59607-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45091.29033564815</v>
+        <v>45638.74914351852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8876,13 +8876,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8919,14 +8914,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 42056-2025</t>
+          <t>A 42049-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45903.64190972222</v>
+        <v>45903.63034722222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8939,7 +8934,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8976,14 +8971,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42050-2025</t>
+          <t>A 34759-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45903.63047453704</v>
+        <v>45526</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9001,7 +8996,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9038,14 +9033,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 41939-2025</t>
+          <t>A 52303-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45903.44396990741</v>
+        <v>45608.75231481482</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9057,13 +9052,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>8.699999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9100,14 +9090,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 41669-2021</t>
+          <t>A 23277-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44425</v>
+        <v>45453.40982638889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9120,7 +9110,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9157,14 +9147,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 42049-2025</t>
+          <t>A 26657-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45903.63034722222</v>
+        <v>45810.39180555556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9176,8 +9166,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>6.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9214,14 +9209,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 27844-2025</t>
+          <t>A 60301-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45817.39009259259</v>
+        <v>45258</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9234,7 +9229,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9271,14 +9266,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 24820-2024</t>
+          <t>A 43206-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45461.3465625</v>
+        <v>45910.44984953704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9291,7 +9286,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9328,14 +9323,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 27878-2025</t>
+          <t>A 26021-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45817.443125</v>
+        <v>45091.29033564815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9347,8 +9342,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9385,14 +9385,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 39707-2022</t>
+          <t>A 27844-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44818.95277777778</v>
+        <v>45817.39009259259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9404,13 +9404,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9447,14 +9442,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 24821-2024</t>
+          <t>A 41669-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45461.34765046297</v>
+        <v>44425</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9467,7 +9462,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>12.2</v>
+        <v>5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9504,14 +9499,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 24833-2024</t>
+          <t>A 27878-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45461.39246527778</v>
+        <v>45817.443125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9524,7 +9519,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9561,14 +9556,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 41696-2023</t>
+          <t>A 24820-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45176</v>
+        <v>45461.3465625</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9581,7 +9576,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9618,14 +9613,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 16109-2024</t>
+          <t>A 39707-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45406.46753472222</v>
+        <v>44818.95277777778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9637,8 +9632,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9675,14 +9675,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 43206-2025</t>
+          <t>A 24821-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45910.44984953704</v>
+        <v>45461.34765046297</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.5</v>
+        <v>12.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9732,14 +9732,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 12183-2025</t>
+          <t>A 24833-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45729.46353009259</v>
+        <v>45461.39246527778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9789,14 +9789,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 46410-2021</t>
+          <t>A 41696-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44444</v>
+        <v>45176</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9846,14 +9846,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56871-2021</t>
+          <t>A 16109-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44481.78949074074</v>
+        <v>45406.46753472222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9903,14 +9903,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 57316-2022</t>
+          <t>A 12183-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44896.32079861111</v>
+        <v>45729.46353009259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9922,13 +9922,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9965,14 +9960,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 43843-2023</t>
+          <t>A 46410-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45187</v>
+        <v>44444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9984,13 +9979,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10027,14 +10017,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 43919-2023</t>
+          <t>A 58521-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45182</v>
+        <v>45985</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10047,7 +10037,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10084,14 +10074,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 32501-2025</t>
+          <t>A 47030-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45838.46260416666</v>
+        <v>45929.58944444444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10103,13 +10093,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10146,14 +10131,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 64090-2023</t>
+          <t>A 56871-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45279.43923611111</v>
+        <v>44481.78949074074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10165,13 +10150,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10208,14 +10188,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47030-2025</t>
+          <t>A 57316-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45929.58944444444</v>
+        <v>44896.32079861111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10227,8 +10207,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10265,14 +10250,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 5049-2022</t>
+          <t>A 43843-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44593</v>
+        <v>45187</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10284,8 +10269,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10322,14 +10312,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 59056-2024</t>
+          <t>A 43919-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45636</v>
+        <v>45182</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10342,7 +10332,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10379,14 +10369,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 25723-2023</t>
+          <t>A 48229-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45090.3674537037</v>
+        <v>45933.51694444445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10399,7 +10389,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10436,14 +10426,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 9295-2025</t>
+          <t>A 64090-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45714</v>
+        <v>45279.43923611111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10455,8 +10445,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10493,14 +10488,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 4723-2023</t>
+          <t>A 32501-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44957.51490740741</v>
+        <v>45838.46260416666</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10512,8 +10507,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10550,14 +10550,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 34835-2025</t>
+          <t>A 48775-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45849.38855324074</v>
+        <v>45937.00422453704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10569,13 +10569,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10612,14 +10607,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 34824-2025</t>
+          <t>A 5049-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45849.38061342593</v>
+        <v>44593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10631,13 +10626,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10674,14 +10664,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 34827-2025</t>
+          <t>A 59056-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45849.38547453703</v>
+        <v>45636</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10693,13 +10683,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10736,14 +10721,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 48229-2025</t>
+          <t>A 25723-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45933.51694444445</v>
+        <v>45090.3674537037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10756,7 +10741,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10793,14 +10778,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 34825-2025</t>
+          <t>A 9295-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45849.38262731482</v>
+        <v>45714</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10812,13 +10797,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10855,14 +10835,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 14477-2025</t>
+          <t>A 4723-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45741.58723379629</v>
+        <v>44957.51490740741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10874,13 +10854,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10917,14 +10892,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 14482-2025</t>
+          <t>A 29669-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45741.59662037037</v>
+        <v>45825</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10936,13 +10911,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10979,14 +10949,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56904-2024</t>
+          <t>A 34835-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45628.58696759259</v>
+        <v>45849.38855324074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10998,8 +10968,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>8.9</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11036,14 +11011,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 53129-2023</t>
+          <t>A 34824-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45229</v>
+        <v>45849.38061342593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11055,8 +11030,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11093,14 +11073,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 46688-2023</t>
+          <t>A 34827-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45198.51881944444</v>
+        <v>45849.38547453703</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11112,8 +11092,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11150,14 +11135,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 12646-2024</t>
+          <t>A 53129-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45384.34563657407</v>
+        <v>45229</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11170,7 +11155,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11207,14 +11192,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 48775-2025</t>
+          <t>A 46688-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45937.00422453704</v>
+        <v>45198.51881944444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11227,7 +11212,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11264,14 +11249,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 8589-2022</t>
+          <t>A 34825-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44613.55984953704</v>
+        <v>45849.38262731482</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11289,7 +11274,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11326,14 +11311,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 36089-2025</t>
+          <t>A 14477-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45866</v>
+        <v>45741.58723379629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11345,8 +11330,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11383,14 +11373,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 24822-2024</t>
+          <t>A 14482-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45461.34818287037</v>
+        <v>45741.59662037037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11402,8 +11392,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11440,14 +11435,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49498-2024</t>
+          <t>A 49671-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45596.3672337963</v>
+        <v>45939</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11459,13 +11454,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11502,14 +11492,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 29669-2025</t>
+          <t>A 49676-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45825</v>
+        <v>45939</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11522,7 +11512,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11559,14 +11549,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49671-2025</t>
+          <t>A 51002-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45939</v>
+        <v>45947.36173611111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11579,7 +11569,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11616,14 +11606,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 49676-2025</t>
+          <t>A 12646-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45939</v>
+        <v>45384.34563657407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11636,7 +11626,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11673,14 +11663,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 51002-2025</t>
+          <t>A 49675-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45947.36173611111</v>
+        <v>45939</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11693,7 +11683,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11730,14 +11720,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 49675-2025</t>
+          <t>A 56904-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45939</v>
+        <v>45628.58696759259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11750,7 +11740,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.7</v>
+        <v>8.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11787,14 +11777,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 5674-2023</t>
+          <t>A 51245-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44960.66104166667</v>
+        <v>45947.80872685185</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11806,13 +11796,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11849,14 +11834,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 46544-2021</t>
+          <t>A 51246-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44445</v>
+        <v>45947.81226851852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11869,7 +11854,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11906,14 +11891,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 51245-2025</t>
+          <t>A 8589-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45947.80872685185</v>
+        <v>44613.55984953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11925,8 +11910,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11963,14 +11953,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 51246-2025</t>
+          <t>A 24822-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45947.81226851852</v>
+        <v>45461.34818287037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11983,7 +11973,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>5.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12020,14 +12010,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 37550-2025</t>
+          <t>A 52380-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45879.91046296297</v>
+        <v>45953.94951388889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12039,8 +12029,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12077,14 +12072,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 52380-2025</t>
+          <t>A 36089-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45953.94951388889</v>
+        <v>45866</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12096,13 +12091,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12139,14 +12129,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 45159-2023</t>
+          <t>A 5674-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45191.49001157407</v>
+        <v>44960.66104166667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12158,8 +12148,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12203,7 +12198,7 @@
         <v>45733.8203587963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12253,14 +12248,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 53600-2025</t>
+          <t>A 46544-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45960</v>
+        <v>44445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12272,13 +12267,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>9.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12315,14 +12305,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 58829-2023</t>
+          <t>A 49498-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45252</v>
+        <v>45596.3672337963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12334,8 +12324,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12372,14 +12367,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 3309-2024</t>
+          <t>A 45159-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45317</v>
+        <v>45191.49001157407</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12392,7 +12387,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12429,14 +12424,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 46198-2023</t>
+          <t>A 53600-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45196</v>
+        <v>45960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12448,8 +12443,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12486,14 +12486,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 36064-2023</t>
+          <t>A 37550-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45149</v>
+        <v>45879.91046296297</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12543,14 +12543,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 11864-2025</t>
+          <t>A 54595-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45728.41668981482</v>
+        <v>45965.7556712963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12600,14 +12600,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 64026-2025</t>
+          <t>A 55035-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46021.47569444445</v>
+        <v>45967.64612268518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12657,14 +12657,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 54595-2025</t>
+          <t>A 58829-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45965.7556712963</v>
+        <v>45252</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12714,14 +12714,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 55035-2025</t>
+          <t>A 3309-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45967.64612268518</v>
+        <v>45317</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12771,14 +12771,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 43254-2022</t>
+          <t>A 46198-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44834</v>
+        <v>45196</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12828,14 +12828,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 16529-2024</t>
+          <t>A 36064-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45408.42216435185</v>
+        <v>45149</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12847,13 +12847,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12890,14 +12885,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 55869-2025</t>
+          <t>A 11864-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45973.35285879629</v>
+        <v>45728.41668981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12910,7 +12905,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12947,14 +12942,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 56565-2025</t>
+          <t>A 43254-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45974</v>
+        <v>44834</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12967,7 +12962,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13004,14 +12999,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 21449-2021</t>
+          <t>A 16529-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44321.46297453704</v>
+        <v>45408.42216435185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13029,7 +13024,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13066,14 +13061,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 2261-2026</t>
+          <t>A 1766-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46036</v>
+        <v>46034.6880787037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13086,7 +13081,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13123,14 +13118,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 58521-2025</t>
+          <t>A 60152-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45985</v>
+        <v>45994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13143,7 +13138,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.3</v>
+        <v>9.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13180,14 +13175,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 64089-2023</t>
+          <t>A 60169-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45279</v>
+        <v>45994</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13199,13 +13194,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13242,14 +13232,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 45229-2023</t>
+          <t>A 60166-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45191</v>
+        <v>45994</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13262,7 +13252,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13299,14 +13289,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 10079-2024</t>
+          <t>A 60548-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45364.42604166667</v>
+        <v>45995.71252314815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13316,11 +13306,6 @@
       <c r="E198" t="inlineStr">
         <is>
           <t>NORA</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -13361,14 +13346,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 49959-2023</t>
+          <t>A 21449-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45215.38530092593</v>
+        <v>44321.46297453704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13380,8 +13365,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13418,14 +13408,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 57639-2023</t>
+          <t>A 60892-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45246</v>
+        <v>45999.57278935185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13437,13 +13427,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.8</v>
+        <v>9.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13480,14 +13465,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 16957-2025</t>
+          <t>A 60873-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45755.44732638889</v>
+        <v>45999.55505787037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13500,7 +13485,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13537,14 +13522,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 42049-2023</t>
+          <t>A 60843-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45177</v>
+        <v>45999.48747685185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13556,13 +13541,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13599,14 +13579,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 1766-2026</t>
+          <t>A 3686-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46034.6880787037</v>
+        <v>46043.44011574074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13619,7 +13599,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13656,14 +13636,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 60152-2025</t>
+          <t>A 64089-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45994</v>
+        <v>45279</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13675,8 +13655,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>9.4</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13713,14 +13698,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 60169-2025</t>
+          <t>A 45229-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45994</v>
+        <v>45191</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13733,7 +13718,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13770,14 +13755,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 60166-2025</t>
+          <t>A 10079-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45994</v>
+        <v>45364.42604166667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13789,8 +13774,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13827,14 +13817,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 60548-2025</t>
+          <t>A 49959-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45995.71252314815</v>
+        <v>45215.38530092593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13847,7 +13837,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13884,14 +13874,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 29112-2023</t>
+          <t>A 57639-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45105.39409722222</v>
+        <v>45246</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13903,8 +13893,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13941,14 +13936,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 48610-2023</t>
+          <t>A 16957-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45208</v>
+        <v>45755.44732638889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13961,7 +13956,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13998,14 +13993,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 34206-2022</t>
+          <t>A 42049-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44791.65267361111</v>
+        <v>45177</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14023,7 +14018,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14060,14 +14055,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 38177-2023</t>
+          <t>A 29112-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45161.44978009259</v>
+        <v>45105.39409722222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14080,7 +14075,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14117,14 +14112,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 12699-2023</t>
+          <t>A 48610-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45000</v>
+        <v>45208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14136,13 +14131,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14179,14 +14169,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 60892-2025</t>
+          <t>A 34206-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45999.57278935185</v>
+        <v>44791.65267361111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14198,8 +14188,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>9.1</v>
+        <v>1.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14236,14 +14231,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 60873-2025</t>
+          <t>A 38177-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45999.55505787037</v>
+        <v>45161.44978009259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14256,7 +14251,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14293,14 +14288,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 14025-2021</t>
+          <t>A 12699-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44277.65498842593</v>
+        <v>45000</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14312,8 +14307,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>7.7</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14350,14 +14350,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 60843-2025</t>
+          <t>A 14025-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45999.48747685185</v>
+        <v>44277.65498842593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>5.8</v>
+        <v>7.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14414,7 +14414,7 @@
         <v>45740.72116898148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14464,14 +14464,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 3686-2026</t>
+          <t>A 16540-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46043.44011574074</v>
+        <v>45408.4334837963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14521,14 +14521,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 16540-2024</t>
+          <t>A 40710-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45408.4334837963</v>
+        <v>44420</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14578,14 +14578,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 40710-2021</t>
+          <t>A 2413-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44420</v>
+        <v>45310</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14635,14 +14635,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 2413-2024</t>
+          <t>A 45645-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45310</v>
+        <v>44845.65557870371</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14692,14 +14692,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 45645-2022</t>
+          <t>A 40497-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44845.65557870371</v>
+        <v>45555.57101851852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14749,14 +14749,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 40497-2024</t>
+          <t>A 34722-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45555.57101851852</v>
+        <v>45526</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14768,8 +14768,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14806,14 +14811,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 34722-2024</t>
+          <t>A 27767-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45526</v>
+        <v>45098.41659722223</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14825,13 +14830,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14868,14 +14868,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 27767-2023</t>
+          <t>A 64026-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45098.41659722223</v>
+        <v>46021.47569444445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14932,7 +14932,7 @@
         <v>45389.85309027778</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44958.46266203704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15039,14 +15039,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 63825-2023</t>
+          <t>A 2261-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45278</v>
+        <v>46036</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15058,13 +15058,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15101,14 +15096,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 24818-2024</t>
+          <t>A 63825-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45461.33123842593</v>
+        <v>45278</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15120,8 +15115,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15158,14 +15158,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 1521-2025</t>
+          <t>A 24818-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45670</v>
+        <v>45461.33123842593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15215,14 +15215,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 53472-2022</t>
+          <t>A 1521-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44879</v>
+        <v>45670</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15272,14 +15272,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 52379-2023</t>
+          <t>A 53472-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45224</v>
+        <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15329,14 +15329,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 17352-2024</t>
+          <t>A 52379-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45414.5908912037</v>
+        <v>45224</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15386,14 +15386,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 16537-2024</t>
+          <t>A 17352-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45408.43247685185</v>
+        <v>45414.5908912037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15405,13 +15405,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15448,14 +15443,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 16557-2024</t>
+          <t>A 16537-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45408.45260416667</v>
+        <v>45408.43247685185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15469,11 +15464,11 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15510,14 +15505,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 17770-2022</t>
+          <t>A 16557-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44682.64953703704</v>
+        <v>45408.45260416667</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15529,8 +15524,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15567,14 +15567,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 48707-2022</t>
+          <t>A 17770-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44859</v>
+        <v>44682.64953703704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15624,14 +15624,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 56136-2022</t>
+          <t>A 48707-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44889</v>
+        <v>44859</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15681,14 +15681,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 7579-2024</t>
+          <t>A 56136-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45348</v>
+        <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15738,14 +15738,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 27577-2024</t>
+          <t>A 7579-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45474.65008101852</v>
+        <v>45348</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15757,13 +15757,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>19</v>
+        <v>1.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15800,14 +15795,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 26022-2023</t>
+          <t>A 27577-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45091.29174768519</v>
+        <v>45474.65008101852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15821,11 +15816,11 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.1</v>
+        <v>19</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15862,14 +15857,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 15012-2023</t>
+          <t>A 26022-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45015</v>
+        <v>45091.29174768519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15881,8 +15876,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15919,14 +15919,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 45234-2023</t>
+          <t>A 15012-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45191.59268518518</v>
+        <v>45015</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15976,14 +15976,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 60397-2022</t>
+          <t>A 45234-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44910.90956018519</v>
+        <v>45191.59268518518</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16033,14 +16033,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 17716-2025</t>
+          <t>A 60397-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45758.44623842592</v>
+        <v>44910.90956018519</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16090,14 +16090,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 40339-2024</t>
+          <t>A 17716-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45555.33125</v>
+        <v>45758.44623842592</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16147,14 +16147,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 26278-2021</t>
+          <t>A 40339-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44347</v>
+        <v>45555.33125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16166,13 +16166,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16209,14 +16204,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 31957-2024</t>
+          <t>A 26278-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45510.49798611111</v>
+        <v>44347</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16228,8 +16223,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16266,14 +16266,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 9754-2022</t>
+          <t>A 31957-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44618.81180555555</v>
+        <v>45510.49798611111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16323,14 +16323,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 33887-2024</t>
+          <t>A 9754-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45523.3167824074</v>
+        <v>44618.81180555555</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16380,14 +16380,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 35659-2023</t>
+          <t>A 33887-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45147</v>
+        <v>45523.3167824074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16437,14 +16437,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 17140-2022</t>
+          <t>A 35659-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44677.53418981482</v>
+        <v>45147</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16494,14 +16494,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 35330-2021</t>
+          <t>A 17140-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44384.81996527778</v>
+        <v>44677.53418981482</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16551,14 +16551,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 40126-2021</t>
+          <t>A 35330-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44418</v>
+        <v>44384.81996527778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16608,14 +16608,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 18134-2021</t>
+          <t>A 40126-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44302</v>
+        <v>44418</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>16.8</v>
+        <v>4.2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16665,14 +16665,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 34026-2022</t>
+          <t>A 18134-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44791.32811342592</v>
+        <v>44302</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.8</v>
+        <v>16.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16722,14 +16722,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 24828-2024</t>
+          <t>A 34026-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45461.3750462963</v>
+        <v>44791.32811342592</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16779,14 +16779,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 52505-2023</t>
+          <t>A 24828-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45225</v>
+        <v>45461.3750462963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16836,14 +16836,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 29018-2023</t>
+          <t>A 52505-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45104</v>
+        <v>45225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16893,14 +16893,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 62217-2023</t>
+          <t>A 29018-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45267.51355324074</v>
+        <v>45104</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.1</v>
+        <v>6.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16950,14 +16950,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 34755-2024</t>
+          <t>A 62217-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45526</v>
+        <v>45267.51355324074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16969,13 +16969,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17012,14 +17007,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 59637-2021</t>
+          <t>A 34755-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44493</v>
+        <v>45526</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17031,8 +17026,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17069,14 +17069,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 10882-2024</t>
+          <t>A 59637-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45370</v>
+        <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17088,13 +17088,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17131,14 +17126,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 8295-2024</t>
+          <t>A 10882-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45352.43674768518</v>
+        <v>45370</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17150,8 +17145,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G264" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17188,14 +17188,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 24832-2024</t>
+          <t>A 8295-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45461.38202546296</v>
+        <v>45352.43674768518</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17245,14 +17245,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 70200-2021</t>
+          <t>A 24832-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44534.82171296296</v>
+        <v>45461.38202546296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17302,14 +17302,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 22389-2023</t>
+          <t>A 70200-2021</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45070</v>
+        <v>44534.82171296296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17359,14 +17359,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 35656-2024</t>
+          <t>A 22389-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45532</v>
+        <v>45070</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17416,14 +17416,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 11631-2022</t>
+          <t>A 35656-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44631</v>
+        <v>45532</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17435,13 +17435,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17478,14 +17473,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 5217-2022</t>
+          <t>A 11631-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44593</v>
+        <v>44631</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17499,11 +17494,11 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G270" t="n">
-        <v>38.4</v>
+        <v>2.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17540,14 +17535,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 37849-2023</t>
+          <t>A 5217-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45158</v>
+        <v>44593</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17559,8 +17554,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>4.7</v>
+        <v>38.4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17597,14 +17597,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 24391-2024</t>
+          <t>A 37849-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45457.63850694444</v>
+        <v>45158</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17654,14 +17654,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 24392-2024</t>
+          <t>A 24391-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45457.64085648148</v>
+        <v>45457.63850694444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17711,14 +17711,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 41676-2021</t>
+          <t>A 24392-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44425.50175925926</v>
+        <v>45457.64085648148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17768,14 +17768,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 35144-2023</t>
+          <t>A 41676-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45145</v>
+        <v>44425.50175925926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17825,14 +17825,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 348-2025</t>
+          <t>A 35144-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45660</v>
+        <v>45145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>7.3</v>
+        <v>0.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17882,14 +17882,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 73009-2021</t>
+          <t>A 348-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44550.33282407407</v>
+        <v>45660</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17901,13 +17901,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>2.6</v>
+        <v>7.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17944,14 +17939,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 38798-2021</t>
+          <t>A 73009-2021</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44410</v>
+        <v>44550.33282407407</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17963,8 +17958,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G278" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -18001,14 +18001,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 8936-2025</t>
+          <t>A 38798-2021</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45714</v>
+        <v>44410</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18058,14 +18058,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 53365-2023</t>
+          <t>A 8936-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45229.66844907407</v>
+        <v>45714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18077,13 +18077,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G280" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -18120,14 +18115,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 11888-2025</t>
+          <t>A 53365-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45728.45688657407</v>
+        <v>45229.66844907407</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18139,8 +18134,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18177,14 +18177,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 21846-2025</t>
+          <t>A 11888-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45784.33967592593</v>
+        <v>45728.45688657407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>14.6</v>
+        <v>1.4</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -18234,14 +18234,14 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 16281-2024</t>
+          <t>A 21846-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45407.36091435186</v>
+        <v>45784.33967592593</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>5.7</v>
+        <v>14.6</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -575,7 +575,7 @@
         <v>46013.56689814815</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44263</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44841.45446759259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45980.60565972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>46013.56317129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>45751.44270833334</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>45978.65591435185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45623</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44495</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45978.64929398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45989.66488425926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44439</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1816,14 +1816,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 54598-2025</t>
+          <t>A 51036-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45965.77918981481</v>
+        <v>44868.3161574074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1836,16 +1836,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1870,290 +1870,290 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Blåmossa
+Vårärt</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 51036-2022 artfynd.xlsx", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 51036-2022 karta.png", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 51036-2022 FSC-klagomål.docx", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 51036-2022 FSC-klagomål mail.docx", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 51036-2022 tillsynsbegäran.docx", "A 51036-2022")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 51036-2022 tillsynsbegäran mail.docx", "A 51036-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 54598-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45965.77918981481</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Drillsnäppa
 Vanlig snok</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 63535-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>46013.57747685185</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>1.9</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Kryddtofsskivling
 Blåsippa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 63535-2025 artfynd.xlsx", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 63535-2025 karta.png", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 63535-2025 FSC-klagomål.docx", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 63535-2025 FSC-klagomål mail.docx", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 63535-2025 tillsynsbegäran.docx", "A 63535-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 63535-2025 tillsynsbegäran mail.docx", "A 63535-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 63537-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>46013.58233796297</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Ask
 Skogshakmossa</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 63537-2025 artfynd.xlsx", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 63537-2025 karta.png", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 63537-2025 FSC-klagomål.docx", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 63537-2025 FSC-klagomål mail.docx", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 63537-2025 tillsynsbegäran.docx", "A 63537-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 63537-2025 tillsynsbegäran mail.docx", "A 63537-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 51036-2022</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44868.3161574074</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Vårärt</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 51036-2022 artfynd.xlsx", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 51036-2022 karta.png", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 51036-2022 FSC-klagomål.docx", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 51036-2022 FSC-klagomål mail.docx", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 51036-2022 tillsynsbegäran.docx", "A 51036-2022")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 51036-2022 tillsynsbegäran mail.docx", "A 51036-2022")</f>
         <v/>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
         <v>44339.70040509259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44347</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,14 +2330,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 16554-2024</t>
+          <t>A 20659-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45408</v>
+        <v>45776.41106481481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,13 +2349,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>11.1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2389,45 +2384,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16554-2024 artfynd.xlsx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16554-2024 karta.png", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16554-2024 FSC-klagomål.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16554-2024 FSC-klagomål mail.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16554-2024 tillsynsbegäran.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16554-2024 tillsynsbegäran mail.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 16642-2024</t>
+          <t>A 14306-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45408.61318287037</v>
+        <v>45740.70622685185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,13 +2434,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2454,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2469,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2479,45 +2469,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16642-2024 artfynd.xlsx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16642-2024 karta.png", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16642-2024 FSC-klagomål.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16642-2024 FSC-klagomål mail.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16642-2024 tillsynsbegäran.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16642-2024 tillsynsbegäran mail.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 15327-2024</t>
+          <t>A 42036-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45400.68243055556</v>
+        <v>45903.61173611111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2530,7 +2524,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2564,45 +2558,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 1520-2025</t>
+          <t>A 15327-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45670</v>
+        <v>45400.68243055556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2615,7 +2609,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2649,45 +2643,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 42036-2025</t>
+          <t>A 43148-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45903.61173611111</v>
+        <v>45910.32248842593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2700,16 +2694,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2724,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2734,45 +2728,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Purpurknipprot</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 26658-2025</t>
+          <t>A 16554-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45810.39315972223</v>
+        <v>45408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2790,7 +2784,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2824,45 +2818,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16554-2024 artfynd.xlsx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16554-2024 karta.png", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16554-2024 FSC-klagomål.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16554-2024 FSC-klagomål mail.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16554-2024 tillsynsbegäran.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16554-2024 tillsynsbegäran mail.docx", "A 16554-2024")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 26659-2025</t>
+          <t>A 55261-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45810.39408564815</v>
+        <v>45968.64734953704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2880,17 +2874,17 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>11.4</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
@@ -2904,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2914,45 +2908,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43148-2025</t>
+          <t>A 26658-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45910.32248842593</v>
+        <v>45810.39315972223</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,14 +2958,19 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2999,45 +2998,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Purpurknipprot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 14312-2025</t>
+          <t>A 26659-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45740.71707175926</v>
+        <v>45810.39408564815</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,8 +3048,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3059,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -3074,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3084,49 +3088,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 32498-2025</t>
+          <t>A 16642-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45838.4570949074</v>
+        <v>45408.61318287037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3178,45 +3178,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16642-2024 artfynd.xlsx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16642-2024 karta.png", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16642-2024 FSC-klagomål.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16642-2024 FSC-klagomål mail.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16642-2024 tillsynsbegäran.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16642-2024 tillsynsbegäran mail.docx", "A 16642-2024")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 34826-2025</t>
+          <t>A 32498-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45849.38326388889</v>
+        <v>45838.4570949074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3272,41 +3272,41 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 33136-2025</t>
+          <t>A 34826-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45840</v>
+        <v>45849.38326388889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3358,45 +3358,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 55261-2025</t>
+          <t>A 33136-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45968.64734953704</v>
+        <v>45840</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>11.4</v>
+        <v>4.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3448,31 +3448,31 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
         <v>45978.6584375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3573,14 +3573,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 52639-2023</t>
+          <t>A 16063-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45219</v>
+        <v>45027</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3590,18 +3590,13 @@
       <c r="E35" t="inlineStr">
         <is>
           <t>NORA</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>7.3</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3632,49 +3627,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Grönsångare</t>
+          <t>Violettkantad guldvinge</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 16063-2023</t>
+          <t>A 1520-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45027</v>
+        <v>45670</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3687,7 +3678,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3721,45 +3712,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Violettkantad guldvinge</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14306-2025</t>
+          <t>A 52639-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45740.70622685185</v>
+        <v>45219</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3771,8 +3762,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>7.3</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3806,49 +3802,49 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönsångare</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 20659-2025</t>
+          <t>A 14312-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45776.41106481481</v>
+        <v>45740.71707175926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3861,7 +3857,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>11.1</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3870,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3885,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3895,31 +3891,35 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
+        <v/>
+      </c>
+      <c r="Z38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
         <v/>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
         <v>44876.5034375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44523</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>44362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44862.43092592592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44799.59944444444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44818.95434027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>44530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44761</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>44802.44491898148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44448</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44865.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44431.34829861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44491</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4836,14 +4836,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 37265-2022</t>
+          <t>A 37259-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44807.46988425926</v>
+        <v>44807.45756944444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4898,14 +4898,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37259-2022</t>
+          <t>A 37265-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44807.45756944444</v>
+        <v>44807.46988425926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4967,7 +4967,7 @@
         <v>44865.6330787037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>44687.4733912037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44292</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>44284</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44791.63450231482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>44838.57731481481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44308</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44862.43146990741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44862.43199074074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44428.61717592592</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44799</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44799.73486111111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44491</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44449</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44740.53197916667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>44807.47078703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>44386.37886574074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44448</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44529.56203703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6351,14 +6351,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 49135-2021</t>
+          <t>A 5039-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44453</v>
+        <v>44593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6408,14 +6408,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 5039-2022</t>
+          <t>A 49135-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44593</v>
+        <v>44453</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>44735.59861111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>44354.37946759259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>44707.88415509259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6641,14 +6641,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 20565-2025</t>
+          <t>A 35330-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45775.66307870371</v>
+        <v>44384.81996527778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6660,13 +6660,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6703,14 +6698,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 62592-2021</t>
+          <t>A 34026-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44503</v>
+        <v>44791.32811342592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6723,7 +6718,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>7.4</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6760,14 +6755,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12815-2024</t>
+          <t>A 43254-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45384.66650462963</v>
+        <v>44834</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6780,7 +6775,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6817,14 +6812,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 34164-2022</t>
+          <t>A 46198-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44791.58640046296</v>
+        <v>45196</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6836,13 +6831,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6879,14 +6869,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 4910-2023</t>
+          <t>A 13585-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44958.38488425926</v>
+        <v>45389.85309027778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6899,7 +6889,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6936,14 +6926,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 45216-2023</t>
+          <t>A 16109-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45191</v>
+        <v>45406.46753472222</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6956,7 +6946,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6993,14 +6983,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 16281-2024</t>
+          <t>A 2413-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45407.36091435186</v>
+        <v>45310</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7013,7 +7003,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7050,14 +7040,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 49632-2022</t>
+          <t>A 26021-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44862.43023148148</v>
+        <v>45091.29033564815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7071,11 +7061,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7112,14 +7102,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 1566-2025</t>
+          <t>A 53472-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45670</v>
+        <v>44879</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7132,7 +7122,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7169,14 +7159,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 55869-2025</t>
+          <t>A 48229-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45973.35285879629</v>
+        <v>45933.51694444445</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7189,7 +7179,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7226,14 +7216,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61952-2023</t>
+          <t>A 16540-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45266.56415509259</v>
+        <v>45408.4334837963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7246,7 +7236,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7283,14 +7273,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 54604-2024</t>
+          <t>A 53365-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45617.683125</v>
+        <v>45229.66844907407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7302,8 +7292,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7340,14 +7335,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 26023-2023</t>
+          <t>A 49632-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45091.2925</v>
+        <v>44862.43023148148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7361,11 +7356,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7402,14 +7397,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 53938-2023</t>
+          <t>A 56871-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45231</v>
+        <v>44481.78949074074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7422,7 +7417,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7459,14 +7454,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26916-2022</t>
+          <t>A 24828-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44740</v>
+        <v>45461.3750462963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7478,13 +7473,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7528,7 +7518,7 @@
         <v>44735.60184027778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7583,14 +7573,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 39513-2025</t>
+          <t>A 48775-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45890.41581018519</v>
+        <v>45937.00422453704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7602,13 +7592,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>9.300000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7645,14 +7630,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 17344-2024</t>
+          <t>A 21846-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45414.58052083333</v>
+        <v>45784.33967592593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7665,7 +7650,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>14.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7702,14 +7687,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13563-2024</t>
+          <t>A 26916-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45388.99935185185</v>
+        <v>44740</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7721,8 +7706,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7759,14 +7749,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 16085-2024</t>
+          <t>A 16281-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45406.37230324074</v>
+        <v>45407.36091435186</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7779,7 +7769,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7816,14 +7806,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 56565-2025</t>
+          <t>A 39513-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45974</v>
+        <v>45890.41581018519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7835,8 +7825,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7873,14 +7868,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 39837-2025</t>
+          <t>A 12815-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45891.56561342593</v>
+        <v>45384.66650462963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7893,7 +7888,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7930,14 +7925,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 40082-2025</t>
+          <t>A 39837-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45894.46731481481</v>
+        <v>45891.56561342593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7950,7 +7945,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7987,14 +7982,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 24389-2024</t>
+          <t>A 4910-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45457.63585648148</v>
+        <v>44958.38488425926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8007,7 +8002,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8044,14 +8039,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 55766-2024</t>
+          <t>A 27577-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45623.37702546296</v>
+        <v>45474.65008101852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8063,8 +8058,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8101,14 +8101,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5562-2025</t>
+          <t>A 40082-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45693</v>
+        <v>45894.46731481481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8158,14 +8158,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 5590-2025</t>
+          <t>A 1566-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45693</v>
+        <v>45670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8215,14 +8215,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 52879-2023</t>
+          <t>A 38798-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45226.47349537037</v>
+        <v>44410</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8272,14 +8272,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 9457-2025</t>
+          <t>A 41588-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45714</v>
+        <v>45901.63114583334</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8329,14 +8329,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 41588-2025</t>
+          <t>A 24389-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45901.63114583334</v>
+        <v>45457.63585648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8386,14 +8386,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 38179-2023</t>
+          <t>A 54604-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45161.45337962963</v>
+        <v>45617.683125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8443,14 +8443,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 43535-2023</t>
+          <t>A 42056-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45184</v>
+        <v>45903.64190972222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8500,14 +8500,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 35675-2023</t>
+          <t>A 42050-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45147</v>
+        <v>45903.63047453704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8519,8 +8519,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8557,14 +8562,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 39257-2023</t>
+          <t>A 41939-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45166.48097222222</v>
+        <v>45903.44396990741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8576,8 +8581,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8614,14 +8624,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 42056-2025</t>
+          <t>A 17344-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45903.64190972222</v>
+        <v>45414.58052083333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8644,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8671,14 +8681,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 42050-2025</t>
+          <t>A 29669-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45903.63047453704</v>
+        <v>45825</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8690,13 +8700,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8733,14 +8738,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 41939-2025</t>
+          <t>A 49675-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45903.44396990741</v>
+        <v>45939</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8752,13 +8757,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>8.699999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8795,14 +8795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 35608-2021</t>
+          <t>A 42049-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44386.38070601852</v>
+        <v>45903.63034722222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8814,13 +8814,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8857,14 +8852,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 59607-2024</t>
+          <t>A 64089-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45638.74914351852</v>
+        <v>45279</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8876,8 +8871,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8914,14 +8914,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 42049-2025</t>
+          <t>A 49671-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45903.63034722222</v>
+        <v>45939</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8971,14 +8971,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 34759-2024</t>
+          <t>A 49676-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45526</v>
+        <v>45939</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8990,13 +8990,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9033,14 +9028,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 52303-2024</t>
+          <t>A 51002-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45608.75231481482</v>
+        <v>45947.36173611111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9053,7 +9048,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9090,14 +9085,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 23277-2024</t>
+          <t>A 51245-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45453.40982638889</v>
+        <v>45947.80872685185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9110,7 +9105,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9147,14 +9142,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26657-2025</t>
+          <t>A 51246-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45810.39180555556</v>
+        <v>45947.81226851852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9166,13 +9161,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9209,14 +9199,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 60301-2023</t>
+          <t>A 70200-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45258</v>
+        <v>44534.82171296296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9229,7 +9219,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9266,14 +9256,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43206-2025</t>
+          <t>A 12907-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45910.44984953704</v>
+        <v>45733.8203587963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9286,7 +9276,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9323,14 +9313,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26021-2023</t>
+          <t>A 59637-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45091.29033564815</v>
+        <v>44493</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9342,13 +9332,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9385,14 +9370,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 27844-2025</t>
+          <t>A 52380-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45817.39009259259</v>
+        <v>45953.94951388889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9404,8 +9389,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9442,14 +9432,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 41669-2021</t>
+          <t>A 43206-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44425</v>
+        <v>45910.44984953704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9462,7 +9452,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9499,14 +9489,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 27878-2025</t>
+          <t>A 56136-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45817.443125</v>
+        <v>44889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9519,7 +9509,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9556,14 +9546,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 24820-2024</t>
+          <t>A 53600-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45461.3465625</v>
+        <v>45960</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9575,8 +9565,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>5.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9613,14 +9608,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 39707-2022</t>
+          <t>A 5562-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44818.95277777778</v>
+        <v>45693</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9632,13 +9627,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9675,14 +9665,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 24821-2024</t>
+          <t>A 54595-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45461.34765046297</v>
+        <v>45965.7556712963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9695,7 +9685,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>12.2</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9732,14 +9722,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 24833-2024</t>
+          <t>A 5590-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45461.39246527778</v>
+        <v>45693</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9752,7 +9742,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9789,14 +9779,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 41696-2023</t>
+          <t>A 55035-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45176</v>
+        <v>45967.64612268518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9809,7 +9799,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9846,14 +9836,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 16109-2024</t>
+          <t>A 41676-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45406.46753472222</v>
+        <v>44425.50175925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9866,7 +9856,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9903,14 +9893,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 12183-2025</t>
+          <t>A 26657-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45729.46353009259</v>
+        <v>45810.39180555556</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9922,8 +9912,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9960,14 +9955,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 46410-2021</t>
+          <t>A 56565-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44444</v>
+        <v>45974</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9980,7 +9975,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10017,14 +10012,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 58521-2025</t>
+          <t>A 52303-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45985</v>
+        <v>45608.75231481482</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10037,7 +10032,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10074,14 +10069,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 47030-2025</t>
+          <t>A 23277-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45929.58944444444</v>
+        <v>45453.40982638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10094,7 +10089,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10131,14 +10126,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 56871-2021</t>
+          <t>A 16557-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44481.78949074074</v>
+        <v>45408.45260416667</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10150,8 +10145,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10188,14 +10188,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 57316-2022</t>
+          <t>A 27878-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44896.32079861111</v>
+        <v>45817.443125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10207,13 +10207,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10250,14 +10245,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 43843-2023</t>
+          <t>A 47030-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45187</v>
+        <v>45929.58944444444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10269,13 +10264,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10312,14 +10302,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 43919-2023</t>
+          <t>A 27844-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45182</v>
+        <v>45817.39009259259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10332,7 +10322,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10369,14 +10359,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48229-2025</t>
+          <t>A 55869-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45933.51694444445</v>
+        <v>45973.35285879629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10389,7 +10379,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10426,14 +10416,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 64090-2023</t>
+          <t>A 53938-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45279.43923611111</v>
+        <v>45231</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10445,13 +10435,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10488,14 +10473,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 32501-2025</t>
+          <t>A 5217-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45838.46260416666</v>
+        <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10509,11 +10494,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>38.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10550,14 +10535,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48775-2025</t>
+          <t>A 4723-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45937.00422453704</v>
+        <v>44957.51490740741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10570,7 +10555,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10607,14 +10592,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 5049-2022</t>
+          <t>A 35144-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44593</v>
+        <v>45145</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10627,7 +10612,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10664,14 +10649,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 59056-2024</t>
+          <t>A 34755-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45636</v>
+        <v>45526</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10683,8 +10668,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10721,14 +10711,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 25723-2023</t>
+          <t>A 5049-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45090.3674537037</v>
+        <v>44593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10741,7 +10731,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10778,14 +10768,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9295-2025</t>
+          <t>A 10079-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45714</v>
+        <v>45364.42604166667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10797,8 +10787,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10835,14 +10830,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 4723-2023</t>
+          <t>A 48707-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44957.51490740741</v>
+        <v>44859</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10855,7 +10850,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.4</v>
+        <v>7.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10892,14 +10887,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 29669-2025</t>
+          <t>A 58521-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45825</v>
+        <v>45985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10912,7 +10907,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10949,14 +10944,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 34835-2025</t>
+          <t>A 32501-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45849.38855324074</v>
+        <v>45838.46260416666</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10969,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11011,14 +11006,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 34824-2025</t>
+          <t>A 45159-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45849.38061342593</v>
+        <v>45191.49001157407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11030,13 +11025,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11073,14 +11063,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 34827-2025</t>
+          <t>A 52879-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45849.38547453703</v>
+        <v>45226.47349537037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11092,13 +11082,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11135,14 +11120,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 53129-2023</t>
+          <t>A 45216-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45229</v>
+        <v>45191</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11155,7 +11140,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11192,14 +11177,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 46688-2023</t>
+          <t>A 17140-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45198.51881944444</v>
+        <v>44677.53418981482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11212,7 +11197,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11249,14 +11234,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 34825-2025</t>
+          <t>A 1766-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45849.38262731482</v>
+        <v>46034.6880787037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11268,13 +11253,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11311,14 +11291,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 14477-2025</t>
+          <t>A 56904-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45741.58723379629</v>
+        <v>45628.58696759259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11330,13 +11310,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>8.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11373,14 +11348,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 14482-2025</t>
+          <t>A 34835-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45741.59662037037</v>
+        <v>45849.38855324074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11398,7 +11373,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11435,14 +11410,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49671-2025</t>
+          <t>A 34825-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45939</v>
+        <v>45849.38262731482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11454,8 +11429,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11492,14 +11472,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 49676-2025</t>
+          <t>A 14477-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45939</v>
+        <v>45741.58723379629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11511,8 +11491,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11549,14 +11534,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 51002-2025</t>
+          <t>A 3309-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45947.36173611111</v>
+        <v>45317</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11569,7 +11554,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11606,14 +11591,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 12646-2024</t>
+          <t>A 34824-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45384.34563657407</v>
+        <v>45849.38061342593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11625,8 +11610,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>8.699999999999999</v>
+        <v>3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11663,14 +11653,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 49675-2025</t>
+          <t>A 34827-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45939</v>
+        <v>45849.38547453703</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11682,8 +11672,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11720,14 +11715,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 56904-2024</t>
+          <t>A 14482-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45628.58696759259</v>
+        <v>45741.59662037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11739,8 +11734,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11777,14 +11777,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 51245-2025</t>
+          <t>A 60152-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45947.80872685185</v>
+        <v>45994</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>9.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11834,14 +11834,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51246-2025</t>
+          <t>A 60166-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45947.81226851852</v>
+        <v>45994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11891,14 +11891,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 8589-2022</t>
+          <t>A 60169-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44613.55984953704</v>
+        <v>45994</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11910,13 +11910,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11953,14 +11948,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 24822-2024</t>
+          <t>A 9295-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45461.34818287037</v>
+        <v>45714</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11973,7 +11968,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.9</v>
+        <v>0.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12010,14 +12005,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 52380-2025</t>
+          <t>A 36089-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45953.94951388889</v>
+        <v>45866</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12029,13 +12024,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12072,14 +12062,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 36089-2025</t>
+          <t>A 49498-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45866</v>
+        <v>45596.3672337963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12091,8 +12081,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12129,14 +12124,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 5674-2023</t>
+          <t>A 60548-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44960.66104166667</v>
+        <v>45995.71252314815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12148,13 +12143,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12191,14 +12181,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 12907-2025</t>
+          <t>A 21449-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45733.8203587963</v>
+        <v>44321.46297453704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12210,8 +12200,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12248,14 +12243,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 46544-2021</t>
+          <t>A 24391-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44445</v>
+        <v>45457.63850694444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12268,7 +12263,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12305,14 +12300,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 49498-2024</t>
+          <t>A 24392-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45596.3672337963</v>
+        <v>45457.64085648148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12324,13 +12319,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12367,14 +12357,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 45159-2023</t>
+          <t>A 14315-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45191.49001157407</v>
+        <v>45740.72116898148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12387,7 +12377,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12424,14 +12414,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 53600-2025</t>
+          <t>A 34206-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45960</v>
+        <v>44791.65267361111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12445,11 +12435,11 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>9.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12486,14 +12476,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 37550-2025</t>
+          <t>A 17716-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45879.91046296297</v>
+        <v>45758.44623842592</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12506,7 +12496,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12543,14 +12533,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 54595-2025</t>
+          <t>A 37550-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45965.7556712963</v>
+        <v>45879.91046296297</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12563,7 +12553,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12600,14 +12590,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 55035-2025</t>
+          <t>A 60873-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45967.64612268518</v>
+        <v>45999.55505787037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12610,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12657,14 +12647,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 58829-2023</t>
+          <t>A 43535-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45252</v>
+        <v>45184</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12667,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12714,14 +12704,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 3309-2024</t>
+          <t>A 60843-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45317</v>
+        <v>45999.48747685185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12734,7 +12724,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12771,14 +12761,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 46198-2023</t>
+          <t>A 35659-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45196</v>
+        <v>45147</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12791,7 +12781,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>8.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12828,14 +12818,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 36064-2023</t>
+          <t>A 60892-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45149</v>
+        <v>45999.57278935185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12848,7 +12838,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.1</v>
+        <v>9.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12885,14 +12875,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 11864-2025</t>
+          <t>A 52505-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45728.41668981482</v>
+        <v>45225</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12905,7 +12895,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12942,14 +12932,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 43254-2022</t>
+          <t>A 3686-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44834</v>
+        <v>46043.44011574074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12962,7 +12952,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12999,14 +12989,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 16529-2024</t>
+          <t>A 26022-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45408.42216435185</v>
+        <v>45091.29174768519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13020,11 +13010,11 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13061,14 +13051,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1766-2026</t>
+          <t>A 38179-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46034.6880787037</v>
+        <v>45161.45337962963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13081,7 +13071,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13118,14 +13108,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 60152-2025</t>
+          <t>A 14025-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45994</v>
+        <v>44277.65498842593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13138,7 +13128,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>9.4</v>
+        <v>7.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13175,14 +13165,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 60169-2025</t>
+          <t>A 45645-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45994</v>
+        <v>44845.65557870371</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13195,7 +13185,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13232,14 +13222,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 60166-2025</t>
+          <t>A 40497-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45994</v>
+        <v>45555.57101851852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13252,7 +13242,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13289,14 +13279,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 60548-2025</t>
+          <t>A 12183-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45995.71252314815</v>
+        <v>45729.46353009259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13309,7 +13299,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13346,14 +13336,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 21449-2021</t>
+          <t>A 22389-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44321.46297453704</v>
+        <v>45070</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13365,13 +13355,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13408,14 +13393,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 60892-2025</t>
+          <t>A 41696-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45999.57278935185</v>
+        <v>45176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13428,7 +13413,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>9.1</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13465,14 +13450,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 60873-2025</t>
+          <t>A 42049-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45999.55505787037</v>
+        <v>45177</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13484,8 +13469,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13522,14 +13512,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 60843-2025</t>
+          <t>A 46544-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45999.48747685185</v>
+        <v>44445</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13542,7 +13532,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13579,14 +13569,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 3686-2026</t>
+          <t>A 40126-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46043.44011574074</v>
+        <v>44418</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13599,7 +13589,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13636,14 +13626,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 64089-2023</t>
+          <t>A 35608-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45279</v>
+        <v>44386.38070601852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13661,7 +13651,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13698,14 +13688,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 45229-2023</t>
+          <t>A 16085-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45191</v>
+        <v>45406.37230324074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13718,7 +13708,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13755,14 +13745,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 10079-2024</t>
+          <t>A 63825-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45364.42604166667</v>
+        <v>45278</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13780,7 +13770,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13817,14 +13807,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 49959-2023</t>
+          <t>A 26278-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45215.38530092593</v>
+        <v>44347</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13836,8 +13826,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13874,14 +13869,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 57639-2023</t>
+          <t>A 40710-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45246</v>
+        <v>44420</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13893,13 +13888,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13936,14 +13926,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 16957-2025</t>
+          <t>A 29018-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45755.44732638889</v>
+        <v>45104</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13956,7 +13946,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.4</v>
+        <v>6.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13993,14 +13983,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 42049-2023</t>
+          <t>A 60301-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45177</v>
+        <v>45258</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14012,13 +14002,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14055,14 +14040,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 29112-2023</t>
+          <t>A 2261-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45105.39409722222</v>
+        <v>46036</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14075,7 +14060,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14112,14 +14097,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 48610-2023</t>
+          <t>A 38177-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45208</v>
+        <v>45161.44978009259</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14132,7 +14117,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14169,14 +14154,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 34206-2022</t>
+          <t>A 64026-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44791.65267361111</v>
+        <v>46021.47569444445</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14188,13 +14173,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14231,14 +14211,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 38177-2023</t>
+          <t>A 10882-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45161.44978009259</v>
+        <v>45370</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14250,8 +14230,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14288,14 +14273,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 12699-2023</t>
+          <t>A 15012-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45000</v>
+        <v>45015</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14307,13 +14292,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14350,14 +14330,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 14025-2021</t>
+          <t>A 8295-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44277.65498842593</v>
+        <v>45352.43674768518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14370,7 +14350,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>7.7</v>
+        <v>5.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14407,14 +14387,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 14315-2025</t>
+          <t>A 39707-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45740.72116898148</v>
+        <v>44818.95277777778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14426,8 +14406,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14464,14 +14449,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 16540-2024</t>
+          <t>A 24820-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45408.4334837963</v>
+        <v>45461.3465625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14484,7 +14469,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14521,14 +14506,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 40710-2021</t>
+          <t>A 57639-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44420</v>
+        <v>45246</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14540,8 +14525,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14578,14 +14568,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 2413-2024</t>
+          <t>A 12699-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45310</v>
+        <v>45000</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14597,8 +14587,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14635,14 +14630,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 45645-2022</t>
+          <t>A 45234-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44845.65557870371</v>
+        <v>45191.59268518518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14655,7 +14650,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14692,14 +14687,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 40497-2024</t>
+          <t>A 12646-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45555.57101851852</v>
+        <v>45384.34563657407</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14712,7 +14707,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14749,14 +14744,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 34722-2024</t>
+          <t>A 73009-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45526</v>
+        <v>44550.33282407407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14770,11 +14765,11 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14811,14 +14806,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 27767-2023</t>
+          <t>A 40339-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45098.41659722223</v>
+        <v>45555.33125</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14831,7 +14826,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14868,14 +14863,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 64026-2025</t>
+          <t>A 43843-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46021.47569444445</v>
+        <v>45187</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14887,8 +14882,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14925,14 +14925,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 13585-2024</t>
+          <t>A 348-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45389.85309027778</v>
+        <v>45660</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.6</v>
+        <v>7.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14982,14 +14982,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 4977-2023</t>
+          <t>A 37849-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44958.46266203704</v>
+        <v>45158</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15039,14 +15039,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 2261-2026</t>
+          <t>A 55766-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46036</v>
+        <v>45623.37702546296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.4</v>
+        <v>18.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15096,14 +15096,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 63825-2023</t>
+          <t>A 49959-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45278</v>
+        <v>45215.38530092593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15115,13 +15115,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15158,14 +15153,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 24818-2024</t>
+          <t>A 36064-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45461.33123842593</v>
+        <v>45149</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15173,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15215,14 +15210,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 1521-2025</t>
+          <t>A 46688-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45670</v>
+        <v>45198.51881944444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15230,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15272,14 +15267,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 53472-2022</t>
+          <t>A 9457-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44879</v>
+        <v>45714</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15287,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15329,14 +15324,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 52379-2023</t>
+          <t>A 34759-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45224</v>
+        <v>45526</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15348,8 +15343,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15386,14 +15386,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 17352-2024</t>
+          <t>A 17770-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45414.5908912037</v>
+        <v>44682.64953703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15443,14 +15443,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 16537-2024</t>
+          <t>A 16529-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45408.43247685185</v>
+        <v>45408.42216435185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15464,11 +15464,11 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15505,14 +15505,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 16557-2024</t>
+          <t>A 39257-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45408.45260416667</v>
+        <v>45166.48097222222</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15524,13 +15524,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15567,14 +15562,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 17770-2022</t>
+          <t>A 24818-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44682.64953703704</v>
+        <v>45461.33123842593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15587,7 +15582,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15624,14 +15619,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 48707-2022</t>
+          <t>A 11864-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44859</v>
+        <v>45728.41668981482</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15644,7 +15639,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15681,14 +15676,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 56136-2022</t>
+          <t>A 11888-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44889</v>
+        <v>45728.45688657407</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15701,7 +15696,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15738,14 +15733,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 7579-2024</t>
+          <t>A 62217-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45348</v>
+        <v>45267.51355324074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15758,7 +15753,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15795,14 +15790,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 27577-2024</t>
+          <t>A 20565-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45474.65008101852</v>
+        <v>45775.66307870371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15820,7 +15815,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15857,14 +15852,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 26022-2023</t>
+          <t>A 53129-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45091.29174768519</v>
+        <v>45229</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15876,13 +15871,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15919,14 +15909,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 15012-2023</t>
+          <t>A 62592-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45015</v>
+        <v>44503</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15939,7 +15929,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.8</v>
+        <v>7.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15976,14 +15966,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 45234-2023</t>
+          <t>A 16957-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45191.59268518518</v>
+        <v>45755.44732638889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15996,7 +15986,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16033,14 +16023,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 60397-2022</t>
+          <t>A 34722-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44910.90956018519</v>
+        <v>45526</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16052,8 +16042,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16090,14 +16085,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 17716-2025</t>
+          <t>A 26023-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45758.44623842592</v>
+        <v>45091.2925</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16109,8 +16104,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16147,14 +16147,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 40339-2024</t>
+          <t>A 57316-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45555.33125</v>
+        <v>44896.32079861111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16166,8 +16166,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16204,14 +16209,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 26278-2021</t>
+          <t>A 48610-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44347</v>
+        <v>45208</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16223,13 +16228,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16266,14 +16266,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 31957-2024</t>
+          <t>A 24832-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45510.49798611111</v>
+        <v>45461.38202546296</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16323,14 +16323,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 9754-2022</t>
+          <t>A 7579-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44618.81180555555</v>
+        <v>45348</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16380,14 +16380,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 33887-2024</t>
+          <t>A 41669-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45523.3167824074</v>
+        <v>44425</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16437,14 +16437,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 35659-2023</t>
+          <t>A 34164-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45147</v>
+        <v>44791.58640046296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16456,8 +16456,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16494,14 +16499,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 17140-2022</t>
+          <t>A 16537-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44677.53418981482</v>
+        <v>45408.43247685185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16513,8 +16518,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16551,14 +16561,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 35330-2021</t>
+          <t>A 8589-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44384.81996527778</v>
+        <v>44613.55984953704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16570,8 +16580,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16608,14 +16623,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 40126-2021</t>
+          <t>A 52379-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44418</v>
+        <v>45224</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16628,7 +16643,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16665,14 +16680,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 18134-2021</t>
+          <t>A 5674-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44302</v>
+        <v>44960.66104166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16684,8 +16699,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>16.8</v>
+        <v>2.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16722,14 +16742,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 34026-2022</t>
+          <t>A 35675-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44791.32811342592</v>
+        <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16742,7 +16762,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16779,14 +16799,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 24828-2024</t>
+          <t>A 31957-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45461.3750462963</v>
+        <v>45510.49798611111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16799,7 +16819,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16836,14 +16856,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 52505-2023</t>
+          <t>A 1521-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45225</v>
+        <v>45670</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16856,7 +16876,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16893,14 +16913,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 29018-2023</t>
+          <t>A 24821-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45104</v>
+        <v>45461.34765046297</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16913,7 +16933,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>6.3</v>
+        <v>12.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16950,14 +16970,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 62217-2023</t>
+          <t>A 24833-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45267.51355324074</v>
+        <v>45461.39246527778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16970,7 +16990,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17007,14 +17027,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 34755-2024</t>
+          <t>A 61952-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45526</v>
+        <v>45266.56415509259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17026,13 +17046,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17069,14 +17084,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 59637-2021</t>
+          <t>A 17352-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44493</v>
+        <v>45414.5908912037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17089,7 +17104,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17126,14 +17141,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 10882-2024</t>
+          <t>A 59607-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45370</v>
+        <v>45638.74914351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17145,13 +17160,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17188,14 +17198,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 8295-2024</t>
+          <t>A 4977-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45352.43674768518</v>
+        <v>44958.46266203704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17208,7 +17218,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17245,14 +17255,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 24832-2024</t>
+          <t>A 33887-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45461.38202546296</v>
+        <v>45523.3167824074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17265,7 +17275,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17302,14 +17312,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 70200-2021</t>
+          <t>A 46410-2021</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44534.82171296296</v>
+        <v>44444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17322,7 +17332,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17359,14 +17369,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 22389-2023</t>
+          <t>A 29112-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45070</v>
+        <v>45105.39409722222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17379,7 +17389,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17416,14 +17426,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 35656-2024</t>
+          <t>A 24822-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45532</v>
+        <v>45461.34818287037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17436,7 +17446,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17473,14 +17483,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 11631-2022</t>
+          <t>A 43919-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44631</v>
+        <v>45182</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17492,13 +17502,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17535,14 +17540,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 5217-2022</t>
+          <t>A 45229-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44593</v>
+        <v>45191</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17554,13 +17559,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>38.4</v>
+        <v>5.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17597,14 +17597,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 37849-2023</t>
+          <t>A 60397-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45158</v>
+        <v>44910.90956018519</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17654,14 +17654,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 24391-2024</t>
+          <t>A 11631-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45457.63850694444</v>
+        <v>44631</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17673,8 +17673,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17711,14 +17716,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 24392-2024</t>
+          <t>A 8936-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45457.64085648148</v>
+        <v>45714</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17731,7 +17736,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17768,14 +17773,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 41676-2021</t>
+          <t>A 27767-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44425.50175925926</v>
+        <v>45098.41659722223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17788,7 +17793,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17825,14 +17830,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 35144-2023</t>
+          <t>A 13563-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45145</v>
+        <v>45388.99935185185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17845,7 +17850,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17882,14 +17887,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 348-2025</t>
+          <t>A 64090-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45660</v>
+        <v>45279.43923611111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17901,8 +17906,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17939,14 +17949,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 73009-2021</t>
+          <t>A 58829-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44550.33282407407</v>
+        <v>45252</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17958,13 +17968,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -18001,14 +18006,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 38798-2021</t>
+          <t>A 25723-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44410</v>
+        <v>45090.3674537037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18021,7 +18026,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18058,14 +18063,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 8936-2025</t>
+          <t>A 59056-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45714</v>
+        <v>45636</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18078,7 +18083,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -18115,14 +18120,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 53365-2023</t>
+          <t>A 18134-2021</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45229.66844907407</v>
+        <v>44302</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18134,13 +18139,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G281" t="n">
-        <v>2.3</v>
+        <v>16.8</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18177,14 +18177,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 11888-2025</t>
+          <t>A 9754-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45728.45688657407</v>
+        <v>44618.81180555555</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -18234,14 +18234,14 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 21846-2025</t>
+          <t>A 35656-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45784.33967592593</v>
+        <v>45532</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>14.6</v>
+        <v>1</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>

--- a/Översikt NORA.xlsx
+++ b/Översikt NORA.xlsx
@@ -575,7 +575,7 @@
         <v>46013.56689814815</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>44263</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44841.45446759259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45980.60565972222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>46013.56317129629</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>45751.44270833334</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44438</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>45978.65591435185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45623</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44495</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45978.64929398148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45989.66488425926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44439</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1816,14 +1816,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51036-2022</t>
+          <t>A 54598-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44868.3161574074</v>
+        <v>45965.77918981481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1836,16 +1836,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1870,118 +1870,118 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Drillsnäppa
+Vanlig snok</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 51036-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44868.3161574074</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Blåmossa
 Vårärt</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 51036-2022 artfynd.xlsx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 51036-2022 karta.png", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 51036-2022 FSC-klagomål.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 51036-2022 FSC-klagomål mail.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 51036-2022 tillsynsbegäran.docx", "A 51036-2022")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 51036-2022 tillsynsbegäran mail.docx", "A 51036-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 54598-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45965.77918981481</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Drillsnäppa
-Vanlig snok</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 54598-2025 artfynd.xlsx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 54598-2025 karta.png", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 54598-2025 FSC-klagomål.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 54598-2025 FSC-klagomål mail.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 54598-2025 tillsynsbegäran.docx", "A 54598-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 54598-2025 tillsynsbegäran mail.docx", "A 54598-2025")</f>
         <v/>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
         <v>46013.57747685185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>46013.58233796297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44339.70040509259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44347</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,14 +2330,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 20659-2025</t>
+          <t>A 16554-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45776.41106481481</v>
+        <v>45408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,8 +2349,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>11.1</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2384,45 +2389,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16554-2024 artfynd.xlsx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16554-2024 karta.png", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16554-2024 FSC-klagomål.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16554-2024 FSC-klagomål mail.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16554-2024 tillsynsbegäran.docx", "A 16554-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16554-2024 tillsynsbegäran mail.docx", "A 16554-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 14306-2025</t>
+          <t>A 16642-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45740.70622685185</v>
+        <v>45408.61318287037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,8 +2439,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2444,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2459,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2469,49 +2479,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16642-2024 artfynd.xlsx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16642-2024 karta.png", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16642-2024 FSC-klagomål.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16642-2024 FSC-klagomål mail.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16642-2024 tillsynsbegäran.docx", "A 16642-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16642-2024 tillsynsbegäran mail.docx", "A 16642-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 42036-2025</t>
+          <t>A 1520-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45903.61173611111</v>
+        <v>45670</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2530,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2558,45 +2564,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 15327-2024</t>
+          <t>A 14312-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45400.68243055556</v>
+        <v>45740.71707175926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,10 +2615,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2643,45 +2649,49 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 43148-2025</t>
+          <t>A 42036-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45910.32248842593</v>
+        <v>45903.61173611111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,31 +2704,31 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2728,45 +2738,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Purpurknipprot</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 42036-2025 artfynd.xlsx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 42036-2025 karta.png", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 42036-2025 FSC-klagomål.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 42036-2025 FSC-klagomål mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 42036-2025 tillsynsbegäran.docx", "A 42036-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 42036-2025 tillsynsbegäran mail.docx", "A 42036-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 16554-2024</t>
+          <t>A 32498-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45408</v>
+        <v>45838.4570949074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2784,7 +2794,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2818,45 +2828,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16554-2024 artfynd.xlsx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16554-2024 karta.png", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16554-2024 FSC-klagomål.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16554-2024 FSC-klagomål mail.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16554-2024 tillsynsbegäran.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16554-2024 tillsynsbegäran mail.docx", "A 16554-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 55261-2025</t>
+          <t>A 43148-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45968.64734953704</v>
+        <v>45910.32248842593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2868,22 +2878,17 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>11.4</v>
+        <v>5.5</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2898,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2908,45 +2913,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Purpurknipprot</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 43148-2025 artfynd.xlsx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 43148-2025 karta.png", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 43148-2025 FSC-klagomål.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 43148-2025 FSC-klagomål mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 43148-2025 tillsynsbegäran.docx", "A 43148-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 43148-2025 tillsynsbegäran mail.docx", "A 43148-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 26658-2025</t>
+          <t>A 34826-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45810.39315972223</v>
+        <v>45849.38326388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,7 +2969,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -3002,41 +3007,41 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 26659-2025</t>
+          <t>A 33136-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45810.39408564815</v>
+        <v>45840</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3054,17 +3059,17 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3078,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3088,45 +3093,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 16642-2024</t>
+          <t>A 55261-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45408.61318287037</v>
+        <v>45968.64734953704</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3144,17 +3149,17 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>11.4</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -3168,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3178,45 +3183,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16642-2024 artfynd.xlsx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 55261-2025 artfynd.xlsx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16642-2024 karta.png", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 55261-2025 karta.png", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16642-2024 FSC-klagomål.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 55261-2025 FSC-klagomål.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16642-2024 FSC-klagomål mail.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 55261-2025 FSC-klagomål mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16642-2024 tillsynsbegäran.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 55261-2025 tillsynsbegäran.docx", "A 55261-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16642-2024 tillsynsbegäran mail.docx", "A 16642-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 55261-2025 tillsynsbegäran mail.docx", "A 55261-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32498-2025</t>
+          <t>A 56959-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45838.4570949074</v>
+        <v>45978.6584375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3230,11 +3235,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3243,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3258,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3268,45 +3273,49 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 32498-2025 artfynd.xlsx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56959-2025 artfynd.xlsx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 32498-2025 karta.png", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56959-2025 karta.png", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 32498-2025 FSC-klagomål.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56959-2025 FSC-klagomål.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 32498-2025 FSC-klagomål mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56959-2025 FSC-klagomål mail.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 32498-2025 tillsynsbegäran.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56959-2025 tillsynsbegäran.docx", "A 56959-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 32498-2025 tillsynsbegäran mail.docx", "A 32498-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56959-2025 tillsynsbegäran mail.docx", "A 56959-2025")</f>
+        <v/>
+      </c>
+      <c r="Z31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56959-2025 prioriterade fågelarter.docx", "A 56959-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 34826-2025</t>
+          <t>A 52639-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45849.38326388889</v>
+        <v>45219</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3320,11 +3329,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.6</v>
+        <v>7.3</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3333,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3348,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3358,45 +3367,49 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Grönsångare</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 34826-2025 artfynd.xlsx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 34826-2025 karta.png", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 34826-2025 FSC-klagomål.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 34826-2025 FSC-klagomål mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 34826-2025 tillsynsbegäran.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 34826-2025 tillsynsbegäran mail.docx", "A 34826-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
+        <v/>
+      </c>
+      <c r="Z32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 33136-2025</t>
+          <t>A 16063-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45840</v>
+        <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3408,13 +3421,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>4.2</v>
+        <v>7.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3448,45 +3456,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Violettkantad guldvinge</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 33136-2025 artfynd.xlsx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 33136-2025 karta.png", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 33136-2025 FSC-klagomål.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 33136-2025 FSC-klagomål mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 33136-2025 tillsynsbegäran.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 33136-2025 tillsynsbegäran mail.docx", "A 33136-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 56959-2025</t>
+          <t>A 14306-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45978.6584375</v>
+        <v>45740.70622685185</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,13 +3506,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3542,45 +3545,45 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 56959-2025 artfynd.xlsx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14306-2025 artfynd.xlsx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 56959-2025 karta.png", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14306-2025 karta.png", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 56959-2025 FSC-klagomål.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14306-2025 FSC-klagomål.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 56959-2025 FSC-klagomål mail.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14306-2025 FSC-klagomål mail.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 56959-2025 tillsynsbegäran.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14306-2025 tillsynsbegäran.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 56959-2025 tillsynsbegäran mail.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14306-2025 tillsynsbegäran mail.docx", "A 14306-2025")</f>
         <v/>
       </c>
       <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 56959-2025 prioriterade fågelarter.docx", "A 56959-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14306-2025 prioriterade fågelarter.docx", "A 14306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 16063-2023</t>
+          <t>A 20659-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45027</v>
+        <v>45776.41106481481</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3593,16 +3596,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.3</v>
+        <v>11.1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3617,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3627,45 +3630,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Violettkantad guldvinge</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 16063-2023 artfynd.xlsx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 20659-2025 artfynd.xlsx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 16063-2023 karta.png", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 20659-2025 karta.png", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 16063-2023 FSC-klagomål.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 20659-2025 FSC-klagomål.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 16063-2023 FSC-klagomål mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 20659-2025 FSC-klagomål mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 16063-2023 tillsynsbegäran.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 20659-2025 tillsynsbegäran.docx", "A 20659-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 16063-2023 tillsynsbegäran mail.docx", "A 16063-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 20659-2025 tillsynsbegäran mail.docx", "A 20659-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1520-2025</t>
+          <t>A 15327-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45670</v>
+        <v>45400.68243055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3681,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3712,45 +3715,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 1520-2025 artfynd.xlsx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 15327-2024 artfynd.xlsx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 1520-2025 karta.png", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 15327-2024 karta.png", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 1520-2025 FSC-klagomål.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 15327-2024 FSC-klagomål.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 1520-2025 FSC-klagomål mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 15327-2024 FSC-klagomål mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 1520-2025 tillsynsbegäran.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 15327-2024 tillsynsbegäran.docx", "A 15327-2024")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 1520-2025 tillsynsbegäran mail.docx", "A 1520-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 15327-2024 tillsynsbegäran mail.docx", "A 15327-2024")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 52639-2023</t>
+          <t>A 26658-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45219</v>
+        <v>45810.39315972223</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3764,11 +3767,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3777,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3792,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3802,49 +3805,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Grönsångare</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 52639-2023 artfynd.xlsx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26658-2025 artfynd.xlsx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 52639-2023 karta.png", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26658-2025 karta.png", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 52639-2023 FSC-klagomål.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26658-2025 FSC-klagomål.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 52639-2023 FSC-klagomål mail.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26658-2025 FSC-klagomål mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 52639-2023 tillsynsbegäran.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26658-2025 tillsynsbegäran.docx", "A 26658-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 52639-2023 tillsynsbegäran mail.docx", "A 52639-2023")</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 52639-2023 prioriterade fågelarter.docx", "A 52639-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26658-2025 tillsynsbegäran mail.docx", "A 26658-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14312-2025</t>
+          <t>A 26659-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45740.71707175926</v>
+        <v>45810.39408564815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3856,8 +3855,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3866,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3881,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3891,35 +3895,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 14312-2025 artfynd.xlsx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/artfynd/A 26659-2025 artfynd.xlsx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 14312-2025 karta.png", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/kartor/A 26659-2025 karta.png", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 14312-2025 FSC-klagomål.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomål/A 26659-2025 FSC-klagomål.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 14312-2025 FSC-klagomål mail.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/klagomålsmail/A 26659-2025 FSC-klagomål mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 14312-2025 tillsynsbegäran.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsyn/A 26659-2025 tillsynsbegäran.docx", "A 26659-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 14312-2025 tillsynsbegäran mail.docx", "A 14312-2025")</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1884/fåglar/A 14312-2025 prioriterade fågelarter.docx", "A 14312-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1884/tillsynsmail/A 26659-2025 tillsynsbegäran mail.docx", "A 26659-2025")</f>
         <v/>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
         <v>44876.5034375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44523</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>44362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44419</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44862.43092592592</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44799.59944444444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44818.95434027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>44560</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>44530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44761</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4531,14 +4531,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 35870-2022</t>
+          <t>A 47794-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44802.44491898148</v>
+        <v>44448</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4550,13 +4550,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4593,14 +4588,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 47794-2021</t>
+          <t>A 35870-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44448</v>
+        <v>44802.44491898148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4612,8 +4607,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>44865.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44431.34829861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44491</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44807.45756944444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44807.46988425926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44865.6330787037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>44687.4733912037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44292</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>44284</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44791.63450231482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>44838.57731481481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44308</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44862.43146990741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44862.43199074074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44428.61717592592</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         <v>44799</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44799.73486111111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44491</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44449</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44740.53197916667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>44807.47078703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>44386.37886574074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44448</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44529.56203703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44453</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44735.59861111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>44354.37946759259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>44707.88415509259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6641,14 +6641,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 35330-2021</t>
+          <t>A 62592-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44384.81996527778</v>
+        <v>44503</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6698,14 +6698,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 34026-2022</t>
+          <t>A 20565-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44791.32811342592</v>
+        <v>45775.66307870371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6717,8 +6717,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6755,14 +6760,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43254-2022</t>
+          <t>A 4910-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44834</v>
+        <v>44958.38488425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6775,7 +6780,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6812,14 +6817,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46198-2023</t>
+          <t>A 12815-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45196</v>
+        <v>45384.66650462963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6832,7 +6837,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8.800000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6869,14 +6874,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 13585-2024</t>
+          <t>A 34164-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45389.85309027778</v>
+        <v>44791.58640046296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6888,8 +6893,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6926,14 +6936,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16109-2024</t>
+          <t>A 45216-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45406.46753472222</v>
+        <v>45191</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6946,7 +6956,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6983,14 +6993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 2413-2024</t>
+          <t>A 26023-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45310</v>
+        <v>45091.2925</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7002,8 +7012,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7040,14 +7055,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26021-2023</t>
+          <t>A 61952-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45091.29033564815</v>
+        <v>45266.56415509259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7059,13 +7074,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7102,14 +7112,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53472-2022</t>
+          <t>A 16085-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44879</v>
+        <v>45406.37230324074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7122,7 +7132,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7159,14 +7169,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 48229-2025</t>
+          <t>A 53938-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45933.51694444445</v>
+        <v>45231</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7179,7 +7189,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7216,14 +7226,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 16540-2024</t>
+          <t>A 13563-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45408.4334837963</v>
+        <v>45388.99935185185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7236,7 +7246,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7273,14 +7283,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 53365-2023</t>
+          <t>A 24389-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45229.66844907407</v>
+        <v>45457.63585648148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7292,13 +7302,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7335,14 +7340,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 49632-2022</t>
+          <t>A 55766-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44862.43023148148</v>
+        <v>45623.37702546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7354,13 +7359,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>18.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7397,14 +7397,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 56871-2021</t>
+          <t>A 52879-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44481.78949074074</v>
+        <v>45226.47349537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7454,14 +7454,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 24828-2024</t>
+          <t>A 9457-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45461.3750462963</v>
+        <v>45714</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7511,14 +7511,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26320-2022</t>
+          <t>A 35675-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44735.60184027778</v>
+        <v>45147</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7530,13 +7530,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7573,14 +7568,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 48775-2025</t>
+          <t>A 39257-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45937.00422453704</v>
+        <v>45166.48097222222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7593,7 +7588,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7630,14 +7625,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 21846-2025</t>
+          <t>A 38179-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45784.33967592593</v>
+        <v>45161.45337962963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7650,7 +7645,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>14.6</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7687,14 +7682,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26916-2022</t>
+          <t>A 43535-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44740</v>
+        <v>45184</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7706,13 +7701,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7749,14 +7739,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 16281-2024</t>
+          <t>A 59607-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45407.36091435186</v>
+        <v>45638.74914351852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7759,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7806,14 +7796,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 39513-2025</t>
+          <t>A 34759-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45890.41581018519</v>
+        <v>45526</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7827,11 +7817,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>9.300000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7868,14 +7858,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 12815-2024</t>
+          <t>A 35608-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45384.66650462963</v>
+        <v>44386.38070601852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7885,6 +7875,11 @@
       <c r="E105" t="inlineStr">
         <is>
           <t>NORA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -7925,14 +7920,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 39837-2025</t>
+          <t>A 60301-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45891.56561342593</v>
+        <v>45258</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7945,7 +7940,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7982,14 +7977,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4910-2023</t>
+          <t>A 41669-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44958.38488425926</v>
+        <v>44425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8002,7 +7997,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8039,14 +8034,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27577-2024</t>
+          <t>A 24820-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45474.65008101852</v>
+        <v>45461.3465625</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8058,13 +8053,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>19</v>
+        <v>5.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8101,14 +8091,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40082-2025</t>
+          <t>A 26021-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45894.46731481481</v>
+        <v>45091.29033564815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8120,8 +8110,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8158,14 +8153,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 1566-2025</t>
+          <t>A 24821-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45670</v>
+        <v>45461.34765046297</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8178,7 +8173,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>12.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8215,14 +8210,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 38798-2021</t>
+          <t>A 24833-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44410</v>
+        <v>45461.39246527778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8235,7 +8230,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8272,14 +8267,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 41588-2025</t>
+          <t>A 39707-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45901.63114583334</v>
+        <v>44818.95277777778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8291,8 +8286,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8329,14 +8329,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 24389-2024</t>
+          <t>A 12183-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45457.63585648148</v>
+        <v>45729.46353009259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8386,14 +8386,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 54604-2024</t>
+          <t>A 27878-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45617.683125</v>
+        <v>45817.443125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8443,14 +8443,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42056-2025</t>
+          <t>A 49632-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45903.64190972222</v>
+        <v>44862.43023148148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8462,8 +8462,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8500,14 +8505,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 42050-2025</t>
+          <t>A 46410-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45903.63047453704</v>
+        <v>44444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8519,13 +8524,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8562,14 +8562,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41939-2025</t>
+          <t>A 41696-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45903.44396990741</v>
+        <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8581,13 +8581,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>8.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8624,14 +8619,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 17344-2024</t>
+          <t>A 16109-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45414.58052083333</v>
+        <v>45406.46753472222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8644,7 +8639,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8681,14 +8676,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 29669-2025</t>
+          <t>A 56871-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45825</v>
+        <v>44481.78949074074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8701,7 +8696,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8738,14 +8733,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 49675-2025</t>
+          <t>A 57316-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45939</v>
+        <v>44896.32079861111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8757,8 +8752,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8795,14 +8795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 42049-2025</t>
+          <t>A 43843-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45903.63034722222</v>
+        <v>45187</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8814,8 +8814,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8852,14 +8857,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 64089-2023</t>
+          <t>A 43919-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45279</v>
+        <v>45182</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8871,13 +8876,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8914,14 +8914,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 49671-2025</t>
+          <t>A 26916-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45939</v>
+        <v>44740</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8933,8 +8933,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8971,14 +8976,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 49676-2025</t>
+          <t>A 26320-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45939</v>
+        <v>44735.60184027778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8990,8 +8995,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9028,14 +9038,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 51002-2025</t>
+          <t>A 39513-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45947.36173611111</v>
+        <v>45890.41581018519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9047,8 +9057,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>3.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9085,14 +9100,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 51245-2025</t>
+          <t>A 64090-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45947.80872685185</v>
+        <v>45279.43923611111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9104,8 +9119,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9142,14 +9162,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 51246-2025</t>
+          <t>A 39837-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45947.81226851852</v>
+        <v>45891.56561342593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9182,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9199,14 +9219,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 70200-2021</t>
+          <t>A 40082-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44534.82171296296</v>
+        <v>45894.46731481481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9239,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9256,14 +9276,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 12907-2025</t>
+          <t>A 5049-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45733.8203587963</v>
+        <v>44593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9296,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9313,14 +9333,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 59637-2021</t>
+          <t>A 59056-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44493</v>
+        <v>45636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9353,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9370,14 +9390,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 52380-2025</t>
+          <t>A 41588-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45953.94951388889</v>
+        <v>45901.63114583334</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9389,13 +9409,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9432,14 +9447,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 43206-2025</t>
+          <t>A 25723-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45910.44984953704</v>
+        <v>45090.3674537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9452,7 +9467,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9489,14 +9504,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 56136-2022</t>
+          <t>A 9295-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44889</v>
+        <v>45714</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9509,7 +9524,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.9</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9546,14 +9561,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 53600-2025</t>
+          <t>A 4723-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45960</v>
+        <v>44957.51490740741</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9565,13 +9580,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>9.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9608,14 +9618,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5562-2025</t>
+          <t>A 42056-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45693</v>
+        <v>45903.64190972222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9628,7 +9638,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9665,14 +9675,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 54595-2025</t>
+          <t>A 42050-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45965.7556712963</v>
+        <v>45903.63047453704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9684,8 +9694,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9722,14 +9737,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 5590-2025</t>
+          <t>A 41939-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45693</v>
+        <v>45903.44396990741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9741,8 +9756,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9779,14 +9799,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 55035-2025</t>
+          <t>A 42049-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45967.64612268518</v>
+        <v>45903.63034722222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9799,7 +9819,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9836,14 +9856,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 41676-2021</t>
+          <t>A 32501-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44425.50175925926</v>
+        <v>45838.46260416666</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9855,8 +9875,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9893,14 +9918,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 26657-2025</t>
+          <t>A 53129-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45810.39180555556</v>
+        <v>45229</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9912,13 +9937,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9955,14 +9975,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 56565-2025</t>
+          <t>A 46688-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45974</v>
+        <v>45198.51881944444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9975,7 +9995,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10012,14 +10032,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52303-2024</t>
+          <t>A 12646-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45608.75231481482</v>
+        <v>45384.34563657407</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10032,7 +10052,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10069,14 +10089,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 23277-2024</t>
+          <t>A 43206-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45453.40982638889</v>
+        <v>45910.44984953704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10089,7 +10109,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10126,14 +10146,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 16557-2024</t>
+          <t>A 8589-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45408.45260416667</v>
+        <v>44613.55984953704</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10151,7 +10171,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10188,14 +10208,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 27878-2025</t>
+          <t>A 24822-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45817.443125</v>
+        <v>45461.34818287037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10208,7 +10228,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10245,14 +10265,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 47030-2025</t>
+          <t>A 34835-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45929.58944444444</v>
+        <v>45849.38855324074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10264,8 +10284,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10302,14 +10327,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 27844-2025</t>
+          <t>A 34824-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45817.39009259259</v>
+        <v>45849.38061342593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10321,8 +10346,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10359,14 +10389,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 55869-2025</t>
+          <t>A 34827-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45973.35285879629</v>
+        <v>45849.38547453703</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10378,8 +10408,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10416,14 +10451,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 53938-2023</t>
+          <t>A 34825-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45231</v>
+        <v>45849.38262731482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10435,8 +10470,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10473,14 +10513,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 5217-2022</t>
+          <t>A 14477-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44593</v>
+        <v>45741.58723379629</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10494,11 +10534,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>38.4</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10535,14 +10575,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 4723-2023</t>
+          <t>A 14482-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44957.51490740741</v>
+        <v>45741.59662037037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10554,8 +10594,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10592,14 +10637,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 35144-2023</t>
+          <t>A 5674-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45145</v>
+        <v>44960.66104166667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10611,8 +10656,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10649,14 +10699,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 34755-2024</t>
+          <t>A 46544-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45526</v>
+        <v>44445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10668,13 +10718,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10711,14 +10756,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 5049-2022</t>
+          <t>A 56904-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44593</v>
+        <v>45628.58696759259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10731,7 +10776,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.8</v>
+        <v>8.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10768,14 +10813,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 10079-2024</t>
+          <t>A 45159-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45364.42604166667</v>
+        <v>45191.49001157407</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10787,13 +10832,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10830,14 +10870,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48707-2022</t>
+          <t>A 36089-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44859</v>
+        <v>45866</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10850,7 +10890,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10887,14 +10927,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 58521-2025</t>
+          <t>A 47030-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45985</v>
+        <v>45929.58944444444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10907,7 +10947,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10944,14 +10984,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 32501-2025</t>
+          <t>A 49498-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45838.46260416666</v>
+        <v>45596.3672337963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10969,7 +11009,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11006,14 +11046,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 45159-2023</t>
+          <t>A 58829-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45191.49001157407</v>
+        <v>45252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11026,7 +11066,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11063,14 +11103,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 52879-2023</t>
+          <t>A 3309-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45226.47349537037</v>
+        <v>45317</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11083,7 +11123,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11120,14 +11160,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 45216-2023</t>
+          <t>A 46198-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11140,7 +11180,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11177,14 +11217,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 17140-2022</t>
+          <t>A 36064-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44677.53418981482</v>
+        <v>45149</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11197,7 +11237,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11234,14 +11274,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 1766-2026</t>
+          <t>A 11864-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46034.6880787037</v>
+        <v>45728.41668981482</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11291,14 +11331,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 56904-2024</t>
+          <t>A 43254-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45628.58696759259</v>
+        <v>44834</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11311,7 +11351,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>8.9</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11348,14 +11388,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 34835-2025</t>
+          <t>A 48229-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45849.38855324074</v>
+        <v>45933.51694444445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11367,13 +11407,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11410,14 +11445,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 34825-2025</t>
+          <t>A 16529-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45849.38262731482</v>
+        <v>45408.42216435185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11470,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11472,14 +11507,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 14477-2025</t>
+          <t>A 37550-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45741.58723379629</v>
+        <v>45879.91046296297</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11491,13 +11526,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11534,14 +11564,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3309-2024</t>
+          <t>A 48775-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45317</v>
+        <v>45937.00422453704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11554,7 +11584,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11591,14 +11621,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 34824-2025</t>
+          <t>A 21449-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45849.38061342593</v>
+        <v>44321.46297453704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11616,7 +11646,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11653,14 +11683,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 34827-2025</t>
+          <t>A 29669-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45849.38547453703</v>
+        <v>45825</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11672,13 +11702,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11715,14 +11740,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 14482-2025</t>
+          <t>A 49671-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45741.59662037037</v>
+        <v>45939</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11734,13 +11759,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11777,14 +11797,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60152-2025</t>
+          <t>A 49676-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45994</v>
+        <v>45939</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11797,7 +11817,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>9.4</v>
+        <v>3.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11834,14 +11854,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 60166-2025</t>
+          <t>A 51002-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45994</v>
+        <v>45947.36173611111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11854,7 +11874,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11891,14 +11911,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60169-2025</t>
+          <t>A 49675-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45994</v>
+        <v>45939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11911,7 +11931,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11948,14 +11968,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 9295-2025</t>
+          <t>A 51245-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45714</v>
+        <v>45947.80872685185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11968,7 +11988,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12005,14 +12025,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 36089-2025</t>
+          <t>A 51246-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45866</v>
+        <v>45947.81226851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12025,7 +12045,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12062,14 +12082,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 49498-2024</t>
+          <t>A 64089-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45596.3672337963</v>
+        <v>45279</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12087,7 +12107,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12124,14 +12144,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 60548-2025</t>
+          <t>A 45229-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45995.71252314815</v>
+        <v>45191</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12144,7 +12164,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12181,14 +12201,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 21449-2021</t>
+          <t>A 10079-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44321.46297453704</v>
+        <v>45364.42604166667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12243,14 +12263,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 24391-2024</t>
+          <t>A 52380-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45457.63850694444</v>
+        <v>45953.94951388889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12262,8 +12282,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12300,14 +12325,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 24392-2024</t>
+          <t>A 49959-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45457.64085648148</v>
+        <v>45215.38530092593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12320,7 +12345,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12357,14 +12382,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 14315-2025</t>
+          <t>A 57639-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45740.72116898148</v>
+        <v>45246</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12376,8 +12401,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12414,14 +12444,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 34206-2022</t>
+          <t>A 12907-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44791.65267361111</v>
+        <v>45733.8203587963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12433,13 +12463,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12476,14 +12501,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 17716-2025</t>
+          <t>A 16957-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45758.44623842592</v>
+        <v>45755.44732638889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,14 +12558,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 37550-2025</t>
+          <t>A 42049-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45879.91046296297</v>
+        <v>45177</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12552,8 +12577,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12590,14 +12620,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 60873-2025</t>
+          <t>A 53600-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45999.55505787037</v>
+        <v>45960</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12609,8 +12639,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>2.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12647,14 +12682,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 43535-2023</t>
+          <t>A 29112-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45184</v>
+        <v>45105.39409722222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12667,7 +12702,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12704,14 +12739,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 60843-2025</t>
+          <t>A 48610-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45999.48747685185</v>
+        <v>45208</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12724,7 +12759,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.8</v>
+        <v>2.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12761,14 +12796,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 35659-2023</t>
+          <t>A 34206-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45147</v>
+        <v>44791.65267361111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12780,8 +12815,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12818,14 +12858,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 60892-2025</t>
+          <t>A 38177-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45999.57278935185</v>
+        <v>45161.44978009259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12838,7 +12878,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12875,14 +12915,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 52505-2023</t>
+          <t>A 54595-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45225</v>
+        <v>45965.7556712963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12895,7 +12935,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12932,14 +12972,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 3686-2026</t>
+          <t>A 12699-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46043.44011574074</v>
+        <v>45000</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12951,8 +12991,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12989,14 +13034,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 26022-2023</t>
+          <t>A 55035-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45091.29174768519</v>
+        <v>45967.64612268518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13008,13 +13053,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13051,14 +13091,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 38179-2023</t>
+          <t>A 14025-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45161.45337962963</v>
+        <v>44277.65498842593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13071,7 +13111,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.8</v>
+        <v>7.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13108,14 +13148,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 14025-2021</t>
+          <t>A 14315-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44277.65498842593</v>
+        <v>45740.72116898148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13128,7 +13168,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>7.7</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13165,14 +13205,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 45645-2022</t>
+          <t>A 55869-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44845.65557870371</v>
+        <v>45973.35285879629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13185,7 +13225,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13222,14 +13262,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 40497-2024</t>
+          <t>A 16540-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45555.57101851852</v>
+        <v>45408.4334837963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13242,7 +13282,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13279,14 +13319,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 12183-2025</t>
+          <t>A 56565-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45729.46353009259</v>
+        <v>45974</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13299,7 +13339,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13336,14 +13376,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 22389-2023</t>
+          <t>A 40710-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45070</v>
+        <v>44420</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13356,7 +13396,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13393,14 +13433,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 41696-2023</t>
+          <t>A 2413-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45176</v>
+        <v>45310</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13413,7 +13453,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13450,14 +13490,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 42049-2023</t>
+          <t>A 45645-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45177</v>
+        <v>44845.65557870371</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13469,13 +13509,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13512,14 +13547,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 46544-2021</t>
+          <t>A 40497-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44445</v>
+        <v>45555.57101851852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13532,7 +13567,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13569,14 +13604,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 40126-2021</t>
+          <t>A 34722-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44418</v>
+        <v>45526</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13588,8 +13623,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13626,14 +13666,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 35608-2021</t>
+          <t>A 58521-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44386.38070601852</v>
+        <v>45985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13645,13 +13685,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13688,14 +13723,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 16085-2024</t>
+          <t>A 27767-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45406.37230324074</v>
+        <v>45098.41659722223</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13708,7 +13743,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13745,14 +13780,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 63825-2023</t>
+          <t>A 13585-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45278</v>
+        <v>45389.85309027778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13764,13 +13799,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13807,14 +13837,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 26278-2021</t>
+          <t>A 1766-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44347</v>
+        <v>46034.6880787037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13826,13 +13856,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13869,14 +13894,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 40710-2021</t>
+          <t>A 4977-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44420</v>
+        <v>44958.46266203704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13889,7 +13914,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13926,14 +13951,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 29018-2023</t>
+          <t>A 60152-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45104</v>
+        <v>45994</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13946,7 +13971,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>6.3</v>
+        <v>9.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13983,14 +14008,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 60301-2023</t>
+          <t>A 60169-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45258</v>
+        <v>45994</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14003,7 +14028,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14040,14 +14065,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 2261-2026</t>
+          <t>A 60166-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46036</v>
+        <v>45994</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14060,7 +14085,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14097,14 +14122,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 38177-2023</t>
+          <t>A 63825-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45161.44978009259</v>
+        <v>45278</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14116,8 +14141,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14154,14 +14184,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 64026-2025</t>
+          <t>A 60548-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46021.47569444445</v>
+        <v>45995.71252314815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14174,7 +14204,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14211,14 +14241,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 10882-2024</t>
+          <t>A 24818-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45370</v>
+        <v>45461.33123842593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14230,13 +14260,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>5.7</v>
+        <v>9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14273,14 +14298,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 15012-2023</t>
+          <t>A 1521-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45015</v>
+        <v>45670</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14293,7 +14318,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14330,14 +14355,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 8295-2024</t>
+          <t>A 60892-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45352.43674768518</v>
+        <v>45999.57278935185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14350,7 +14375,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>5.1</v>
+        <v>9.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14387,14 +14412,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 39707-2022</t>
+          <t>A 53472-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44818.95277777778</v>
+        <v>44879</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14406,13 +14431,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14449,14 +14469,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 24820-2024</t>
+          <t>A 60873-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45461.3465625</v>
+        <v>45999.55505787037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14469,7 +14489,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14506,14 +14526,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 57639-2023</t>
+          <t>A 60843-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45246</v>
+        <v>45999.48747685185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14525,13 +14545,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14568,14 +14583,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 12699-2023</t>
+          <t>A 52379-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45000</v>
+        <v>45224</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14587,13 +14602,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14630,14 +14640,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 45234-2023</t>
+          <t>A 3686-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45191.59268518518</v>
+        <v>46043.44011574074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14650,7 +14660,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14687,14 +14697,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 12646-2024</t>
+          <t>A 17352-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45384.34563657407</v>
+        <v>45414.5908912037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14707,7 +14717,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14744,14 +14754,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 73009-2021</t>
+          <t>A 16537-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44550.33282407407</v>
+        <v>45408.43247685185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14765,11 +14775,11 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14806,14 +14816,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 40339-2024</t>
+          <t>A 16557-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45555.33125</v>
+        <v>45408.45260416667</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14825,8 +14835,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14863,14 +14878,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 43843-2023</t>
+          <t>A 17770-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45187</v>
+        <v>44682.64953703704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14882,13 +14897,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14925,14 +14935,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 348-2025</t>
+          <t>A 48707-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45660</v>
+        <v>44859</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14945,7 +14955,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14982,14 +14992,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 37849-2023</t>
+          <t>A 56136-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45158</v>
+        <v>44889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15002,7 +15012,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15039,14 +15049,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 55766-2024</t>
+          <t>A 7579-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45623.37702546296</v>
+        <v>45348</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15059,7 +15069,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>18.5</v>
+        <v>1.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15096,14 +15106,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 49959-2023</t>
+          <t>A 27577-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45215.38530092593</v>
+        <v>45474.65008101852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15115,8 +15125,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>4.1</v>
+        <v>19</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15153,14 +15168,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 36064-2023</t>
+          <t>A 26022-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45149</v>
+        <v>45091.29174768519</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15170,6 +15185,11 @@
       <c r="E230" t="inlineStr">
         <is>
           <t>NORA</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G230" t="n">
@@ -15210,14 +15230,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 46688-2023</t>
+          <t>A 15012-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45198.51881944444</v>
+        <v>45015</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15230,7 +15250,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15267,14 +15287,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 9457-2025</t>
+          <t>A 45234-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45714</v>
+        <v>45191.59268518518</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15287,7 +15307,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15324,14 +15344,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 34759-2024</t>
+          <t>A 60397-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45526</v>
+        <v>44910.90956018519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15343,13 +15363,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15386,14 +15401,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 17770-2022</t>
+          <t>A 17716-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44682.64953703704</v>
+        <v>45758.44623842592</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15421,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15443,14 +15458,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 16529-2024</t>
+          <t>A 64026-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45408.42216435185</v>
+        <v>46021.47569444445</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15462,13 +15477,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15505,14 +15515,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 39257-2023</t>
+          <t>A 40339-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45166.48097222222</v>
+        <v>45555.33125</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15525,7 +15535,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15562,14 +15572,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 24818-2024</t>
+          <t>A 2261-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45461.33123842593</v>
+        <v>46036</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15582,7 +15592,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15619,14 +15629,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 11864-2025</t>
+          <t>A 26278-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45728.41668981482</v>
+        <v>44347</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15638,8 +15648,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15676,14 +15691,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 11888-2025</t>
+          <t>A 31957-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45728.45688657407</v>
+        <v>45510.49798611111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15696,7 +15711,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15733,14 +15748,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 62217-2023</t>
+          <t>A 9754-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45267.51355324074</v>
+        <v>44618.81180555555</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15753,7 +15768,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15790,14 +15805,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 20565-2025</t>
+          <t>A 33887-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45775.66307870371</v>
+        <v>45523.3167824074</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15809,13 +15824,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15852,14 +15862,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 53129-2023</t>
+          <t>A 35659-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45229</v>
+        <v>45147</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15872,7 +15882,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15909,14 +15919,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 62592-2021</t>
+          <t>A 17140-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44503</v>
+        <v>44677.53418981482</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15929,7 +15939,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>7.4</v>
+        <v>0.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15966,14 +15976,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 16957-2025</t>
+          <t>A 35330-2021</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45755.44732638889</v>
+        <v>44384.81996527778</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15986,7 +15996,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16023,14 +16033,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 34722-2024</t>
+          <t>A 40126-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45526</v>
+        <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16042,13 +16052,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16085,14 +16090,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 26023-2023</t>
+          <t>A 18134-2021</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45091.2925</v>
+        <v>44302</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16104,13 +16109,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>16.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16147,14 +16147,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 57316-2022</t>
+          <t>A 34026-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44896.32079861111</v>
+        <v>44791.32811342592</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16166,13 +16166,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16209,14 +16204,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 48610-2023</t>
+          <t>A 24828-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45208</v>
+        <v>45461.3750462963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16229,7 +16224,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16266,14 +16261,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 24832-2024</t>
+          <t>A 52505-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45461.38202546296</v>
+        <v>45225</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16286,7 +16281,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16323,14 +16318,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 7579-2024</t>
+          <t>A 29018-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45348</v>
+        <v>45104</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16343,7 +16338,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.7</v>
+        <v>6.3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16380,14 +16375,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 41669-2021</t>
+          <t>A 62217-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44425</v>
+        <v>45267.51355324074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16400,7 +16395,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16437,14 +16432,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 34164-2022</t>
+          <t>A 34755-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44791.58640046296</v>
+        <v>45526</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16458,11 +16453,11 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16499,14 +16494,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 16537-2024</t>
+          <t>A 59637-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45408.43247685185</v>
+        <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16516,11 +16511,6 @@
       <c r="E253" t="inlineStr">
         <is>
           <t>NORA</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G253" t="n">
@@ -16561,14 +16551,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 8589-2022</t>
+          <t>A 10882-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44613.55984953704</v>
+        <v>45370</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16586,7 +16576,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16623,14 +16613,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 52379-2023</t>
+          <t>A 8295-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45224</v>
+        <v>45352.43674768518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16643,7 +16633,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16680,14 +16670,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 5674-2023</t>
+          <t>A 24832-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44960.66104166667</v>
+        <v>45461.38202546296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16699,13 +16689,8 @@
           <t>NORA</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16742,14 +16727,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 35675-2023</t>
+          <t>A 70200-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45147</v>
+        <v>44534.82171296296</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16762,7 +16747,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16799,14 +16784,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 31957-2024</t>
+          <t>A 22389-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45510.49798611111</v>
+        <v>45070</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16819,7 +16804,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16856,14 +16841,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 1521-2025</t>
+          <t>A 35656-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45670</v>
+        <v>45532</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16876,7 +16861,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16913,14 +16898,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 24821-2024</t>
+          <t>A 11631-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45461.34765046297</v>
+        <v>44631</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16932,8 +16917,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>12.2</v>
+        <v>2.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16970,14 +16960,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 24833-2024</t>
+          <t>A 5217-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45461.39246527778</v>
+        <v>44593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16989,8 +16979,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>1.5</v>
+        <v>38.4</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17027,14 +17022,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 61952-2023</t>
+          <t>A 37849-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45266.56415509259</v>
+        <v>45158</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17047,7 +17042,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17084,14 +17079,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 17352-2024</t>
+          <t>A 24391-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45414.5908912037</v>
+        <v>45457.63850694444</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17104,7 +17099,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17141,14 +17136,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 59607-2024</t>
+          <t>A 24392-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45638.74914351852</v>
+        <v>45457.64085648148</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17161,7 +17156,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17198,14 +17193,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 4977-2023</t>
+          <t>A 41676-2021</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44958.46266203704</v>
+        <v>44425.50175925926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17218,7 +17213,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17255,14 +17250,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 33887-2024</t>
+          <t>A 35144-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45523.3167824074</v>
+        <v>45145</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17275,7 +17270,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17312,14 +17307,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 46410-2021</t>
+          <t>A 348-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44444</v>
+        <v>45660</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17332,7 +17327,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.6</v>
+        <v>7.3</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17369,14 +17364,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 29112-2023</t>
+          <t>A 73009-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45105.39409722222</v>
+        <v>44550.33282407407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17388,8 +17383,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17426,14 +17426,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 24822-2024</t>
+          <t>A 38798-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45461.34818287037</v>
+        <v>44410</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17483,14 +17483,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 43919-2023</t>
+          <t>A 8936-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45182</v>
+        <v>45714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17540,14 +17540,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 45229-2023</t>
+          <t>A 53365-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45191</v>
+        <v>45229.66844907407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17559,8 +17559,13 @@
           <t>NORA</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17597,14 +17602,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 60397-2022</t>
+       